--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B1E56-8730-A04D-9650-A47AFF1DF532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94532B9E-DC3B-2B43-BE74-577745A14F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
@@ -305,13 +305,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="00000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -673,134 +674,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,7 +733,7 @@
     <xf numFmtId="166" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,9 +745,6 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -900,16 +787,10 @@
     <xf numFmtId="3" fontId="10" fillId="11" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -940,9 +821,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,7 +835,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,12 +855,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,29 +865,152 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1338,23 +1336,23 @@
   <dimension ref="A1:AK89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="119" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="76" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
@@ -1374,4807 +1372,4821 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="2"/>
+      <c r="A1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="3"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="3"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19" t="s">
+      <c r="P5" s="126"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="20" t="s">
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF5" s="20" t="s">
+      <c r="AF5" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AG5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AH5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="23" t="s">
+      <c r="AI5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="5"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="3"/>
     </row>
     <row r="6" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15" t="s">
+      <c r="A6" s="114"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27" t="s">
+      <c r="N6" s="97"/>
+      <c r="O6" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="22" t="s">
+      <c r="S6" s="101"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="31" t="s">
+      <c r="V6" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="32" t="s">
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="Z6" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="33" t="s">
+      <c r="AA6" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="34" t="s">
+      <c r="AB6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="34" t="s">
+      <c r="AC6" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="35" t="s">
+      <c r="AD6" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="5"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41" t="s">
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="41" t="s">
+      <c r="T7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="X7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="5"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52">
+      <c r="B8" s="7"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15">
         <f>ROUND(I8*(SUM(J8:M8)),0)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55">
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18">
         <f>I8*J8*40%*O8</f>
         <v>0</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="18">
         <f>IF(P8&gt;=6750,(I8*J8*40%),0)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="18">
         <f>IF(P8&lt;6750,0,IF(Q8="kurang",I8*J8*10%,I8*J8*20%))</f>
         <v>0</v>
       </c>
-      <c r="U8" s="55">
+      <c r="U8" s="18">
         <f>ROUND(SUM(R8:T8),0)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="55">
+      <c r="V8" s="18">
         <f>I8*K8*40%*O8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="55">
+      <c r="W8" s="18">
         <f t="shared" ref="W8:W52" si="0">IF(P8&gt;=6750,(I8*K8*40%),0)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="55">
+      <c r="X8" s="18">
         <f>IF(P8&lt;6750,0,IF(Q8="kurang",I8*K8*10%,I8*K8*20%))</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="55">
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
         <f>I8*L8</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="55">
+      <c r="AA8" s="18">
         <f>ROUND(Z8,0)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="55">
+      <c r="AB8" s="18">
         <f>I8*M8</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="55">
+      <c r="AC8" s="18">
         <f>ROUND(AB8,0)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="56">
+      <c r="AD8" s="19">
         <f>ROUND((U8+Y8+AA8+AC8),0)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="57">
+      <c r="AE8" s="20">
         <f>ROUND(AD8*15%,0)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="55">
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="18">
         <f t="shared" ref="AH8" si="1">AD8-AE8-AF8</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="59" t="s">
+      <c r="AI8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="5"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="52">
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="15">
         <f t="shared" ref="N9:N52" si="2">ROUND(I9*(SUM(J9:M9)),0)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="55">
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="18">
         <f t="shared" ref="R9:R52" si="3">I9*J9*40%*O9</f>
         <v>0</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="18">
         <f t="shared" ref="S9:S52" si="4">IF(P9&gt;=6750,(I9*J9*40%),0)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9" s="18">
         <f t="shared" ref="T9:T52" si="5">IF(P9&lt;6750,0,IF(Q9="kurang",I9*J9*10%,I9*J9*20%))</f>
         <v>0</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9" s="18">
         <f t="shared" ref="U9:U52" si="6">ROUND(SUM(R9:T9),0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="55">
+      <c r="V9" s="18">
         <f t="shared" ref="V9:V52" si="7">I9*K9*40%*O9</f>
         <v>0</v>
       </c>
-      <c r="W9" s="55">
+      <c r="W9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X9" s="55">
+      <c r="X9" s="18">
         <f t="shared" ref="X9:X52" si="8">IF(P9&lt;6750,0,IF(Q9="kurang",I9*K9*10%,I9*K9*20%))</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="55">
+      <c r="Y9" s="18">
         <f t="shared" ref="Y9:Y52" si="9">ROUND(SUM(V9:X9),0)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="55">
+      <c r="Z9" s="18">
         <f t="shared" ref="Z9:Z52" si="10">I9*L9</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="55">
+      <c r="AA9" s="18">
         <f t="shared" ref="AA9:AA52" si="11">ROUND(Z9,0)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="55">
+      <c r="AB9" s="18">
         <f t="shared" ref="AB9:AB52" si="12">I9*M9</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="55">
+      <c r="AC9" s="18">
         <f t="shared" ref="AC9:AC52" si="13">ROUND(AB9,0)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="56">
+      <c r="AD9" s="19">
         <f t="shared" ref="AD9:AD52" si="14">ROUND((U9+Y9+AA9+AC9),0)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="59" t="s">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="5"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="52">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="55">
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="55">
+      <c r="U10" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="55">
+      <c r="V10" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="55">
+      <c r="W10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X10" s="55">
+      <c r="X10" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="55">
+      <c r="Y10" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="55">
+      <c r="Z10" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="55">
+      <c r="AA10" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="55">
+      <c r="AB10" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="55">
+      <c r="AC10" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="56">
+      <c r="AD10" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="59" t="s">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="5"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="52">
+      <c r="B11" s="42"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55">
+      <c r="O11" s="16"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="55">
+      <c r="T11" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U11" s="55">
+      <c r="U11" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V11" s="55">
+      <c r="V11" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="55">
+      <c r="W11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="55">
+      <c r="X11" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="55">
+      <c r="Y11" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="55">
+      <c r="Z11" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="55">
+      <c r="AA11" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="55">
+      <c r="AB11" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="55">
+      <c r="AC11" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="56">
+      <c r="AD11" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="59" t="s">
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="5"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="52">
+      <c r="B12" s="33"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="78"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55">
+      <c r="O12" s="38"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U12" s="55">
+      <c r="U12" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="55">
+      <c r="V12" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="55">
+      <c r="W12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="55">
+      <c r="X12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="55">
+      <c r="Y12" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="55">
+      <c r="Z12" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="55">
+      <c r="AA12" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="55">
+      <c r="AB12" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="55">
+      <c r="AC12" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="56">
+      <c r="AD12" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="59" t="s">
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="5"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="52">
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55">
+      <c r="O13" s="16"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="55">
+      <c r="U13" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="55">
+      <c r="V13" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="55">
+      <c r="W13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X13" s="55">
+      <c r="X13" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="55">
+      <c r="Y13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="55">
+      <c r="Z13" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="55">
+      <c r="AA13" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="55">
+      <c r="AB13" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="55">
+      <c r="AC13" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="56">
+      <c r="AD13" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="59" t="s">
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="5"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="52">
+      <c r="B14" s="42"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55">
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="55">
+      <c r="W14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X14" s="55">
+      <c r="X14" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="55">
+      <c r="Y14" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="55">
+      <c r="Z14" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="55">
+      <c r="AA14" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="55">
+      <c r="AB14" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="55">
+      <c r="AC14" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="56">
+      <c r="AD14" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="59" t="s">
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="5"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="52">
+      <c r="B15" s="42"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55">
+      <c r="O15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U15" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V15" s="55">
+      <c r="V15" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W15" s="55">
+      <c r="W15" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X15" s="55">
+      <c r="X15" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="55">
+      <c r="Y15" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="55">
+      <c r="Z15" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="55">
+      <c r="AA15" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="55">
+      <c r="AB15" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="55">
+      <c r="AC15" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="56">
+      <c r="AD15" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="59" t="s">
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="5"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="52">
+      <c r="B16" s="33"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55">
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U16" s="55">
+      <c r="U16" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V16" s="55">
+      <c r="V16" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="55">
+      <c r="W16" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X16" s="55">
+      <c r="X16" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="55">
+      <c r="Y16" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="55">
+      <c r="Z16" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="55">
+      <c r="AA16" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="55">
+      <c r="AB16" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="55">
+      <c r="AC16" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="56">
+      <c r="AD16" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="59" t="s">
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="5"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="52">
+      <c r="B17" s="42"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55">
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="55">
+      <c r="U17" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V17" s="55">
+      <c r="V17" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W17" s="55">
+      <c r="W17" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X17" s="55">
+      <c r="X17" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="55">
+      <c r="Y17" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="55">
+      <c r="Z17" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="55">
+      <c r="AA17" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="55">
+      <c r="AB17" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="55">
+      <c r="AC17" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="56">
+      <c r="AD17" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="59" t="s">
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="5"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="52">
+      <c r="B18" s="42"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55">
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T18" s="55">
+      <c r="T18" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U18" s="55">
+      <c r="U18" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V18" s="55">
+      <c r="V18" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="55">
+      <c r="W18" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X18" s="55">
+      <c r="X18" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="55">
+      <c r="Y18" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="55">
+      <c r="Z18" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="55">
+      <c r="AA18" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="55">
+      <c r="AB18" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="55">
+      <c r="AC18" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="56">
+      <c r="AD18" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="59" t="s">
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="5"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="52">
+      <c r="B19" s="33"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="55">
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S19" s="55">
+      <c r="S19" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T19" s="55">
+      <c r="T19" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U19" s="55">
+      <c r="U19" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V19" s="55">
+      <c r="V19" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W19" s="55">
+      <c r="W19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X19" s="55">
+      <c r="X19" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="55">
+      <c r="Y19" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="55">
+      <c r="Z19" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="55">
+      <c r="AA19" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="55">
+      <c r="AB19" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="55">
+      <c r="AC19" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="56">
+      <c r="AD19" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="59" t="s">
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="5"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="3"/>
     </row>
     <row r="20" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="52">
+      <c r="B20" s="33"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="55">
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="55">
+      <c r="T20" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U20" s="55">
+      <c r="U20" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V20" s="55">
+      <c r="V20" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W20" s="55">
+      <c r="W20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X20" s="55">
+      <c r="X20" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="55">
+      <c r="Y20" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="55">
+      <c r="Z20" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="55">
+      <c r="AA20" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="55">
+      <c r="AB20" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="55">
+      <c r="AC20" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="56">
+      <c r="AD20" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="59" t="s">
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="5"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="3"/>
     </row>
     <row r="21" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="52">
+      <c r="B21" s="33"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55">
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S21" s="55">
+      <c r="S21" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="55">
+      <c r="T21" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="55">
+      <c r="U21" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V21" s="55">
+      <c r="V21" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="55">
+      <c r="W21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X21" s="55">
+      <c r="X21" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="55">
+      <c r="Y21" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="55">
+      <c r="Z21" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="55">
+      <c r="AA21" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="55">
+      <c r="AB21" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="55">
+      <c r="AC21" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="56">
+      <c r="AD21" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="59" t="s">
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="5"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="3"/>
     </row>
     <row r="22" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="52">
+      <c r="B22" s="42"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55">
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S22" s="55">
+      <c r="S22" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T22" s="55">
+      <c r="T22" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="55">
+      <c r="V22" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="55">
+      <c r="W22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X22" s="55">
+      <c r="X22" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="55">
+      <c r="Y22" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="55">
+      <c r="Z22" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="55">
+      <c r="AA22" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="55">
+      <c r="AB22" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="55">
+      <c r="AC22" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="56">
+      <c r="AD22" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="59" t="s">
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="5"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="3"/>
     </row>
     <row r="23" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="52">
+      <c r="B23" s="33"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="55">
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S23" s="55">
+      <c r="S23" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="55">
+      <c r="T23" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="55">
+      <c r="U23" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V23" s="55">
+      <c r="V23" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="55">
+      <c r="W23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X23" s="55">
+      <c r="X23" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="55">
+      <c r="Y23" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="55">
+      <c r="Z23" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="55">
+      <c r="AA23" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="55">
+      <c r="AB23" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="55">
+      <c r="AC23" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="56">
+      <c r="AD23" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="59" t="s">
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="5"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="3"/>
     </row>
     <row r="24" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="52">
+      <c r="B24" s="33"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55">
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S24" s="55">
+      <c r="S24" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U24" s="55">
+      <c r="U24" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V24" s="55">
+      <c r="V24" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W24" s="55">
+      <c r="W24" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X24" s="55">
+      <c r="X24" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="55">
+      <c r="Y24" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="55">
+      <c r="Z24" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="55">
+      <c r="AA24" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="55">
+      <c r="AB24" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="55">
+      <c r="AC24" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="56">
+      <c r="AD24" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="59" t="s">
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="5"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="52">
+      <c r="B25" s="42"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="55">
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S25" s="55">
+      <c r="S25" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T25" s="55">
+      <c r="T25" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U25" s="55">
+      <c r="U25" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V25" s="55">
+      <c r="V25" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="55">
+      <c r="W25" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X25" s="55">
+      <c r="X25" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="55">
+      <c r="Y25" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="55">
+      <c r="Z25" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="55">
+      <c r="AA25" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="55">
+      <c r="AB25" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="55">
+      <c r="AC25" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="56">
+      <c r="AD25" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="59" t="s">
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AJ25" s="86"/>
+      <c r="AJ25" s="46"/>
     </row>
     <row r="26" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="52">
+      <c r="B26" s="33"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="55">
+      <c r="O26" s="16"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S26" s="55">
+      <c r="S26" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T26" s="55">
+      <c r="T26" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U26" s="55">
+      <c r="U26" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V26" s="55">
+      <c r="V26" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W26" s="55">
+      <c r="W26" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X26" s="55">
+      <c r="X26" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="55">
+      <c r="Y26" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="55">
+      <c r="Z26" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="55">
+      <c r="AA26" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="55">
+      <c r="AB26" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="55">
+      <c r="AC26" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="56">
+      <c r="AD26" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="59" t="s">
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AJ26" s="87"/>
+      <c r="AJ26" s="47"/>
     </row>
     <row r="27" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="52">
+      <c r="B27" s="33"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="55">
+      <c r="O27" s="16"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S27" s="55">
+      <c r="S27" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T27" s="55">
+      <c r="T27" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U27" s="55">
+      <c r="U27" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V27" s="55">
+      <c r="V27" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W27" s="55">
+      <c r="W27" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X27" s="55">
+      <c r="X27" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="55">
+      <c r="Y27" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="55">
+      <c r="Z27" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="55">
+      <c r="AA27" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="55">
+      <c r="AB27" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="55">
+      <c r="AC27" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="56">
+      <c r="AD27" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="74"/>
-      <c r="AI27" s="59" t="s">
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AJ27" s="84"/>
+      <c r="AJ27" s="44"/>
     </row>
     <row r="28" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="52">
+      <c r="B28" s="33"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="55">
+      <c r="O28" s="16"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S28" s="55">
+      <c r="S28" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T28" s="55">
+      <c r="T28" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U28" s="55">
+      <c r="U28" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V28" s="55">
+      <c r="V28" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W28" s="55">
+      <c r="W28" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X28" s="55">
+      <c r="X28" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="55">
+      <c r="Y28" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="55">
+      <c r="Z28" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="55">
+      <c r="AA28" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="55">
+      <c r="AB28" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="55">
+      <c r="AC28" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="56">
+      <c r="AD28" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="59" t="s">
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AJ28" s="84"/>
+      <c r="AJ28" s="44"/>
     </row>
     <row r="29" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="52">
+      <c r="B29" s="33"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="55">
+      <c r="O29" s="16"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S29" s="55">
+      <c r="S29" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T29" s="55">
+      <c r="T29" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U29" s="55">
+      <c r="U29" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V29" s="55">
+      <c r="V29" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W29" s="55">
+      <c r="W29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X29" s="55">
+      <c r="X29" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="55">
+      <c r="Y29" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="55">
+      <c r="Z29" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="55">
+      <c r="AA29" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="55">
+      <c r="AB29" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="55">
+      <c r="AC29" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="56">
+      <c r="AD29" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="59" t="s">
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AJ29" s="84"/>
+      <c r="AJ29" s="44"/>
     </row>
     <row r="30" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="52">
+      <c r="B30" s="33"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="55">
+      <c r="O30" s="16"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S30" s="55">
+      <c r="S30" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T30" s="55">
+      <c r="T30" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U30" s="55">
+      <c r="U30" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V30" s="55">
+      <c r="V30" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W30" s="55">
+      <c r="W30" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X30" s="55">
+      <c r="X30" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="55">
+      <c r="Y30" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="55">
+      <c r="Z30" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="55">
+      <c r="AA30" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="55">
+      <c r="AB30" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="55">
+      <c r="AC30" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="56">
+      <c r="AD30" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="74"/>
-      <c r="AI30" s="59" t="s">
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AJ30" s="88"/>
+      <c r="AJ30" s="48"/>
     </row>
     <row r="31" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="52">
+      <c r="B31" s="42"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="55">
+      <c r="O31" s="16"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S31" s="55">
+      <c r="S31" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T31" s="55">
+      <c r="T31" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U31" s="55">
+      <c r="U31" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V31" s="55">
+      <c r="V31" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W31" s="55">
+      <c r="W31" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X31" s="55">
+      <c r="X31" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="55">
+      <c r="Y31" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="55">
+      <c r="Z31" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="55">
+      <c r="AA31" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="55">
+      <c r="AB31" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="55">
+      <c r="AC31" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="56">
+      <c r="AD31" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="74"/>
-      <c r="AI31" s="59" t="s">
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AJ31" s="84"/>
+      <c r="AJ31" s="44"/>
     </row>
     <row r="32" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="52">
+      <c r="B32" s="50"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="55">
+      <c r="O32" s="16"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S32" s="55">
+      <c r="S32" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T32" s="55">
+      <c r="T32" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U32" s="55">
+      <c r="U32" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V32" s="55">
+      <c r="V32" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W32" s="55">
+      <c r="W32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X32" s="55">
+      <c r="X32" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="55">
+      <c r="Y32" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="55">
+      <c r="Z32" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="55">
+      <c r="AA32" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="55">
+      <c r="AB32" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="55">
+      <c r="AC32" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="56">
+      <c r="AD32" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="96"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="59" t="s">
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AJ32" s="84"/>
+      <c r="AJ32" s="44"/>
     </row>
     <row r="33" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="52">
+      <c r="B33" s="33"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="55">
+      <c r="O33" s="16"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S33" s="55">
+      <c r="S33" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T33" s="55">
+      <c r="T33" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U33" s="55">
+      <c r="U33" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V33" s="55">
+      <c r="V33" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W33" s="55">
+      <c r="W33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X33" s="55">
+      <c r="X33" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="55">
+      <c r="Y33" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="55">
+      <c r="Z33" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="55">
+      <c r="AA33" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="55">
+      <c r="AB33" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="55">
+      <c r="AC33" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="56">
+      <c r="AD33" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="74"/>
-      <c r="AI33" s="59" t="s">
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="97"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="56"/>
     </row>
     <row r="34" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="52">
+      <c r="B34" s="33"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O34" s="53"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="55">
+      <c r="O34" s="16"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S34" s="55">
+      <c r="S34" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T34" s="55">
+      <c r="T34" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U34" s="55">
+      <c r="U34" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V34" s="55">
+      <c r="V34" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W34" s="55">
+      <c r="W34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X34" s="55">
+      <c r="X34" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="55">
+      <c r="Y34" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="55">
+      <c r="Z34" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="55">
+      <c r="AA34" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="55">
+      <c r="AB34" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="55">
+      <c r="AC34" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="56">
+      <c r="AD34" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="59" t="s">
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AJ34" s="86"/>
+      <c r="AJ34" s="46"/>
     </row>
     <row r="35" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="52">
+      <c r="B35" s="33"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O35" s="53"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="55">
+      <c r="O35" s="16"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S35" s="55">
+      <c r="S35" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T35" s="55">
+      <c r="T35" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U35" s="55">
+      <c r="U35" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V35" s="55">
+      <c r="V35" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W35" s="55">
+      <c r="W35" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X35" s="55">
+      <c r="X35" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="55">
+      <c r="Y35" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="55">
+      <c r="Z35" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="55">
+      <c r="AA35" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="55">
+      <c r="AB35" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="55">
+      <c r="AC35" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD35" s="56">
+      <c r="AD35" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="59" t="s">
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AJ35" s="84"/>
+      <c r="AJ35" s="44"/>
     </row>
     <row r="36" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="52">
+      <c r="B36" s="42"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="55">
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S36" s="55">
+      <c r="S36" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T36" s="55">
+      <c r="T36" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U36" s="55">
+      <c r="U36" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V36" s="55">
+      <c r="V36" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W36" s="55">
+      <c r="W36" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X36" s="55">
+      <c r="X36" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="55">
+      <c r="Y36" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="55">
+      <c r="Z36" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="55">
+      <c r="AA36" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="55">
+      <c r="AB36" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="55">
+      <c r="AC36" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD36" s="56">
+      <c r="AD36" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="59" t="s">
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AJ36" s="84"/>
+      <c r="AJ36" s="44"/>
     </row>
     <row r="37" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="52">
+      <c r="B37" s="42"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O37" s="53"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="55">
+      <c r="O37" s="16"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S37" s="55">
+      <c r="S37" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T37" s="55">
+      <c r="T37" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U37" s="55">
+      <c r="U37" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V37" s="55">
+      <c r="V37" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W37" s="55">
+      <c r="W37" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X37" s="55">
+      <c r="X37" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="55">
+      <c r="Y37" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="55">
+      <c r="Z37" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="55">
+      <c r="AA37" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="55">
+      <c r="AB37" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="55">
+      <c r="AC37" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD37" s="56">
+      <c r="AD37" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="59" t="s">
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AJ37" s="84"/>
+      <c r="AJ37" s="44"/>
     </row>
     <row r="38" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="52">
+      <c r="B38" s="42"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O38" s="53"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="55">
+      <c r="O38" s="16"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S38" s="55">
+      <c r="S38" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T38" s="55">
+      <c r="T38" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="55">
+      <c r="U38" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V38" s="55">
+      <c r="V38" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W38" s="55">
+      <c r="W38" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X38" s="55">
+      <c r="X38" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="55">
+      <c r="Y38" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="55">
+      <c r="Z38" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="55">
+      <c r="AA38" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="55">
+      <c r="AB38" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="55">
+      <c r="AC38" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="56">
+      <c r="AD38" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="59" t="s">
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AJ38" s="84"/>
+      <c r="AJ38" s="44"/>
     </row>
     <row r="39" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="52">
+      <c r="B39" s="33"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O39" s="53"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="55">
+      <c r="O39" s="16"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S39" s="55">
+      <c r="S39" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T39" s="55">
+      <c r="T39" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U39" s="55">
+      <c r="U39" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V39" s="55">
+      <c r="V39" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W39" s="55">
+      <c r="W39" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X39" s="55">
+      <c r="X39" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="55">
+      <c r="Y39" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="55">
+      <c r="Z39" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="55">
+      <c r="AA39" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="55">
+      <c r="AB39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="55">
+      <c r="AC39" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="56">
+      <c r="AD39" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="74"/>
-      <c r="AI39" s="59" t="s">
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AJ39" s="84"/>
+      <c r="AJ39" s="44"/>
     </row>
     <row r="40" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="52">
+      <c r="B40" s="33"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="55">
+      <c r="O40" s="16"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S40" s="55">
+      <c r="S40" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T40" s="55">
+      <c r="T40" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U40" s="55">
+      <c r="U40" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V40" s="55">
+      <c r="V40" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W40" s="55">
+      <c r="W40" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X40" s="55">
+      <c r="X40" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="55">
+      <c r="Y40" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="55">
+      <c r="Z40" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="55">
+      <c r="AA40" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="55">
+      <c r="AB40" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="55">
+      <c r="AC40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="56">
+      <c r="AD40" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="74"/>
-      <c r="AI40" s="59" t="s">
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AJ40" s="88"/>
+      <c r="AJ40" s="48"/>
     </row>
     <row r="41" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="52">
+      <c r="B41" s="42"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O41" s="53"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="55">
+      <c r="O41" s="16"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S41" s="55">
+      <c r="S41" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T41" s="55">
+      <c r="T41" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U41" s="55">
+      <c r="U41" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V41" s="55">
+      <c r="V41" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W41" s="55">
+      <c r="W41" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X41" s="55">
+      <c r="X41" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="55">
+      <c r="Y41" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="55">
+      <c r="Z41" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="55">
+      <c r="AA41" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="55">
+      <c r="AB41" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="55">
+      <c r="AC41" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="56">
+      <c r="AD41" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="74"/>
-      <c r="AI41" s="59" t="s">
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AJ41" s="88"/>
+      <c r="AJ41" s="48"/>
     </row>
     <row r="42" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="52">
+      <c r="B42" s="42"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O42" s="53"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="55">
+      <c r="O42" s="16"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S42" s="55">
+      <c r="S42" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T42" s="55">
+      <c r="T42" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U42" s="55">
+      <c r="U42" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V42" s="55">
+      <c r="V42" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W42" s="55">
+      <c r="W42" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X42" s="55">
+      <c r="X42" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="55">
+      <c r="Y42" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="55">
+      <c r="Z42" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="55">
+      <c r="AA42" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="55">
+      <c r="AB42" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="55">
+      <c r="AC42" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="56">
+      <c r="AD42" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="79"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="59" t="s">
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AJ42" s="88"/>
+      <c r="AJ42" s="48"/>
     </row>
     <row r="43" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="52">
+      <c r="B43" s="33"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O43" s="53"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="55">
+      <c r="O43" s="16"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S43" s="55">
+      <c r="S43" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T43" s="55">
+      <c r="T43" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U43" s="55">
+      <c r="U43" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V43" s="55">
+      <c r="V43" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W43" s="55">
+      <c r="W43" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X43" s="55">
+      <c r="X43" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="55">
+      <c r="Y43" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="55">
+      <c r="Z43" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="55">
+      <c r="AA43" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="55">
+      <c r="AB43" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="55">
+      <c r="AC43" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="56">
+      <c r="AD43" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="79"/>
-      <c r="AF43" s="58"/>
-      <c r="AG43" s="58"/>
-      <c r="AH43" s="74"/>
-      <c r="AI43" s="59" t="s">
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AJ43" s="84"/>
+      <c r="AJ43" s="44"/>
     </row>
     <row r="44" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="52">
+      <c r="B44" s="33"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O44" s="53"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="55">
+      <c r="O44" s="16"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="18">
         <f>I44*J44*40%*O44</f>
         <v>0</v>
       </c>
-      <c r="S44" s="55">
+      <c r="S44" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T44" s="55">
+      <c r="T44" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U44" s="55">
+      <c r="U44" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V44" s="55">
+      <c r="V44" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W44" s="55">
+      <c r="W44" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X44" s="55">
+      <c r="X44" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="55">
+      <c r="Y44" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="55">
+      <c r="Z44" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="55">
+      <c r="AA44" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="55">
+      <c r="AB44" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="55">
+      <c r="AC44" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD44" s="56">
+      <c r="AD44" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="79"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="58"/>
-      <c r="AH44" s="74"/>
-      <c r="AI44" s="59" t="s">
+      <c r="AE44" s="39"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AJ44" s="87"/>
+      <c r="AJ44" s="47"/>
     </row>
     <row r="45" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="52">
+      <c r="B45" s="33"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O45" s="53"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="55">
+      <c r="O45" s="16"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S45" s="55">
+      <c r="S45" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T45" s="55">
+      <c r="T45" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U45" s="55">
+      <c r="U45" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V45" s="55">
+      <c r="V45" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W45" s="55">
+      <c r="W45" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X45" s="55">
+      <c r="X45" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="55">
+      <c r="Y45" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="55">
+      <c r="Z45" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="55">
+      <c r="AA45" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="55">
+      <c r="AB45" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC45" s="55">
+      <c r="AC45" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD45" s="56">
+      <c r="AD45" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="79"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="74"/>
-      <c r="AI45" s="59" t="s">
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AJ45" s="84"/>
+      <c r="AJ45" s="44"/>
     </row>
     <row r="46" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="52">
+      <c r="B46" s="33"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O46" s="53"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="55">
+      <c r="O46" s="16"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S46" s="55">
+      <c r="S46" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T46" s="55">
+      <c r="T46" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U46" s="55">
+      <c r="U46" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V46" s="55">
+      <c r="V46" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W46" s="55">
+      <c r="W46" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X46" s="55">
+      <c r="X46" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="55">
+      <c r="Y46" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z46" s="55">
+      <c r="Z46" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="55">
+      <c r="AA46" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB46" s="55">
+      <c r="AB46" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC46" s="55">
+      <c r="AC46" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD46" s="56">
+      <c r="AD46" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="79"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="59" t="s">
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AJ46" s="87"/>
+      <c r="AJ46" s="47"/>
     </row>
     <row r="47" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="52">
+      <c r="B47" s="33"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O47" s="53"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="55">
+      <c r="O47" s="16"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S47" s="55">
+      <c r="S47" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T47" s="55">
+      <c r="T47" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U47" s="55">
+      <c r="U47" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V47" s="55">
+      <c r="V47" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W47" s="55">
+      <c r="W47" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X47" s="55">
+      <c r="X47" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="55">
+      <c r="Y47" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="55">
+      <c r="Z47" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="55">
+      <c r="AA47" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="55">
+      <c r="AB47" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="55">
+      <c r="AC47" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="56">
+      <c r="AD47" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="79"/>
-      <c r="AF47" s="58"/>
-      <c r="AG47" s="58"/>
-      <c r="AH47" s="74"/>
-      <c r="AI47" s="59" t="s">
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="36"/>
+      <c r="AI47" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AJ47" s="86"/>
+      <c r="AJ47" s="46"/>
     </row>
     <row r="48" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="52">
+      <c r="B48" s="33"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O48" s="53"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="55">
+      <c r="O48" s="16"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S48" s="55">
+      <c r="S48" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T48" s="55">
+      <c r="T48" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U48" s="55">
+      <c r="U48" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V48" s="55">
+      <c r="V48" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W48" s="55">
+      <c r="W48" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X48" s="55">
+      <c r="X48" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="55">
+      <c r="Y48" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="55">
+      <c r="Z48" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="55">
+      <c r="AA48" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB48" s="55">
+      <c r="AB48" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC48" s="55">
+      <c r="AC48" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD48" s="56">
+      <c r="AD48" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE48" s="79"/>
-      <c r="AF48" s="58"/>
-      <c r="AG48" s="58"/>
-      <c r="AH48" s="74"/>
-      <c r="AI48" s="59" t="s">
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AJ48" s="87"/>
+      <c r="AJ48" s="47"/>
     </row>
     <row r="49" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="52">
+      <c r="B49" s="33"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O49" s="53"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="55">
+      <c r="O49" s="16"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S49" s="55">
+      <c r="S49" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T49" s="55">
+      <c r="T49" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U49" s="55">
+      <c r="U49" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V49" s="55">
+      <c r="V49" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W49" s="55">
+      <c r="W49" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X49" s="55">
+      <c r="X49" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="55">
+      <c r="Y49" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="55">
+      <c r="Z49" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="55">
+      <c r="AA49" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="55">
+      <c r="AB49" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC49" s="55">
+      <c r="AC49" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD49" s="56">
+      <c r="AD49" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="79"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="74"/>
-      <c r="AI49" s="59" t="s">
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="36"/>
+      <c r="AI49" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AJ49" s="98"/>
+      <c r="AJ49" s="57"/>
     </row>
     <row r="50" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="52">
+      <c r="B50" s="33"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O50" s="53"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="55">
+      <c r="O50" s="16"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S50" s="55">
+      <c r="S50" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T50" s="55">
+      <c r="T50" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U50" s="55">
+      <c r="U50" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V50" s="55">
+      <c r="V50" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W50" s="55">
+      <c r="W50" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X50" s="55">
+      <c r="X50" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="55">
+      <c r="Y50" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="55">
+      <c r="Z50" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="55">
+      <c r="AA50" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="55">
+      <c r="AB50" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="55">
+      <c r="AC50" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="56">
+      <c r="AD50" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="79"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="74"/>
-      <c r="AI50" s="59" t="s">
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AJ50" s="84"/>
+      <c r="AJ50" s="44"/>
     </row>
     <row r="51" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="52">
+      <c r="B51" s="33"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O51" s="53"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="55">
+      <c r="O51" s="16"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S51" s="55">
+      <c r="S51" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T51" s="55">
+      <c r="T51" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U51" s="55">
+      <c r="U51" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V51" s="55">
+      <c r="V51" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W51" s="55">
+      <c r="W51" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X51" s="55">
+      <c r="X51" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="55">
+      <c r="Y51" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="55">
+      <c r="Z51" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA51" s="55">
+      <c r="AA51" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB51" s="55">
+      <c r="AB51" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC51" s="55">
+      <c r="AC51" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD51" s="56">
+      <c r="AD51" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="79"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="74"/>
-      <c r="AI51" s="59" t="s">
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AJ51" s="98"/>
+      <c r="AJ51" s="57"/>
     </row>
     <row r="52" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="52">
+      <c r="B52" s="33"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="55">
+      <c r="O52" s="16"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S52" s="55">
+      <c r="S52" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T52" s="55">
+      <c r="T52" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U52" s="55">
+      <c r="U52" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V52" s="55">
+      <c r="V52" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W52" s="55">
+      <c r="W52" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X52" s="55">
+      <c r="X52" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="55">
+      <c r="Y52" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="55">
+      <c r="Z52" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="55">
+      <c r="AA52" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB52" s="55">
+      <c r="AB52" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC52" s="55">
+      <c r="AC52" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="56">
+      <c r="AD52" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="79"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="74"/>
-      <c r="AI52" s="59" t="s">
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="36"/>
+      <c r="AI52" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AJ52" s="84"/>
+      <c r="AJ52" s="44"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="101"/>
-      <c r="N53" s="52">
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="15">
         <f>I53*(SUM(K53:M53))</f>
         <v>0</v>
       </c>
-      <c r="O53" s="102"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="104"/>
-      <c r="S53" s="104"/>
-      <c r="T53" s="104"/>
-      <c r="U53" s="103">
+      <c r="O53" s="61"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="62">
         <f>SUM(U8:U52)</f>
         <v>0</v>
       </c>
-      <c r="V53" s="104"/>
-      <c r="W53" s="104"/>
-      <c r="X53" s="104"/>
-      <c r="Y53" s="103">
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="63"/>
+      <c r="Y53" s="62">
         <f>SUM(Y8:Y52)</f>
         <v>0</v>
       </c>
-      <c r="Z53" s="104"/>
-      <c r="AA53" s="103">
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="62">
         <f>SUM(AA8:AA52)</f>
         <v>0</v>
       </c>
-      <c r="AB53" s="104"/>
-      <c r="AC53" s="103">
+      <c r="AB53" s="63"/>
+      <c r="AC53" s="62">
         <f>SUM(AC8:AC52)</f>
         <v>0</v>
       </c>
-      <c r="AD53" s="103">
+      <c r="AD53" s="62">
         <f>SUM(AD8:AD52)</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="103">
+      <c r="AE53" s="62">
         <f>SUM(AE8:AE52)</f>
         <v>0</v>
       </c>
-      <c r="AF53" s="103">
+      <c r="AF53" s="62">
         <f t="shared" ref="AF53:AH53" si="15">SUM(AF8:AF52)</f>
         <v>0</v>
       </c>
-      <c r="AG53" s="103">
+      <c r="AG53" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="103">
+      <c r="AH53" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="105"/>
-      <c r="AJ53" s="106"/>
+      <c r="AI53" s="64"/>
+      <c r="AJ53" s="65"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="99"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
       <c r="O54"/>
-      <c r="AJ54" s="99"/>
+      <c r="AJ54" s="58"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B55" s="108" t="s">
+      <c r="B55" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="108"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="99"/>
-      <c r="M55" s="99"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
       <c r="O55"/>
-      <c r="AJ55" s="99"/>
+      <c r="AJ55" s="58"/>
     </row>
     <row r="56" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
       <c r="O56"/>
-      <c r="AB56" s="99"/>
-      <c r="AC56" s="99"/>
-      <c r="AD56" s="110"/>
-      <c r="AE56" s="111" t="s">
+      <c r="AB56" s="58"/>
+      <c r="AC56" s="58"/>
+      <c r="AD56" s="68"/>
+      <c r="AE56" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AF56" s="111"/>
-      <c r="AG56" s="111"/>
-      <c r="AH56" s="111"/>
-      <c r="AI56" s="99"/>
-      <c r="AJ56" s="112"/>
+      <c r="AF56" s="91"/>
+      <c r="AG56" s="91"/>
+      <c r="AH56" s="91"/>
+      <c r="AI56" s="58"/>
+      <c r="AJ56" s="70"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
       <c r="O57"/>
-      <c r="AB57" s="99"/>
-      <c r="AC57" s="99"/>
-      <c r="AD57" s="107"/>
-      <c r="AE57" s="107"/>
-      <c r="AF57" s="107"/>
-      <c r="AG57" s="107"/>
-      <c r="AH57" s="107"/>
-      <c r="AI57" s="99"/>
-      <c r="AJ57" s="114"/>
+      <c r="AB57" s="58"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="66"/>
+      <c r="AE57" s="66"/>
+      <c r="AF57" s="66"/>
+      <c r="AG57" s="66"/>
+      <c r="AH57" s="66"/>
+      <c r="AI57" s="58"/>
+      <c r="AJ57" s="72"/>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
       <c r="O58"/>
-      <c r="AB58" s="99"/>
-      <c r="AC58" s="99"/>
-      <c r="AD58" s="107"/>
-      <c r="AE58" s="115"/>
-      <c r="AF58" s="116"/>
-      <c r="AG58" s="116"/>
-      <c r="AH58" s="115"/>
-      <c r="AI58" s="99"/>
-      <c r="AJ58" s="99"/>
+      <c r="AB58" s="58"/>
+      <c r="AC58" s="58"/>
+      <c r="AD58" s="66"/>
+      <c r="AE58" s="73"/>
+      <c r="AF58" s="69"/>
+      <c r="AG58" s="69"/>
+      <c r="AH58" s="73"/>
+      <c r="AI58" s="58"/>
+      <c r="AJ58" s="58"/>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
       <c r="O59"/>
-      <c r="AC59" s="99"/>
-      <c r="AD59" s="118"/>
-      <c r="AE59" s="115"/>
-      <c r="AF59" s="116"/>
-      <c r="AG59" s="116"/>
-      <c r="AH59" s="115"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="75"/>
+      <c r="AE59" s="73"/>
+      <c r="AF59" s="69"/>
+      <c r="AG59" s="69"/>
+      <c r="AH59" s="73"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="S60" s="120"/>
-      <c r="T60" s="120"/>
-      <c r="U60" s="121"/>
-      <c r="V60" s="121"/>
-      <c r="AD60" s="99"/>
-      <c r="AE60" s="115"/>
-      <c r="AF60" s="116"/>
-      <c r="AG60" s="116"/>
-      <c r="AH60" s="115"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="S60" s="77"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78"/>
+      <c r="AD60" s="58"/>
+      <c r="AE60" s="73"/>
+      <c r="AF60" s="69"/>
+      <c r="AG60" s="69"/>
+      <c r="AH60" s="73"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B61" s="122" t="s">
+      <c r="B61" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="S61" s="123"/>
-      <c r="T61" s="123"/>
-      <c r="U61" s="123"/>
-      <c r="V61" s="123"/>
-      <c r="W61" s="123"/>
-      <c r="X61" s="123"/>
-      <c r="AD61" s="99"/>
-      <c r="AE61" s="122" t="s">
+      <c r="C61" s="89"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="AD61" s="58"/>
+      <c r="AE61" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="AF61" s="122"/>
-      <c r="AG61" s="122"/>
-      <c r="AH61" s="122"/>
+      <c r="AF61" s="89"/>
+      <c r="AG61" s="89"/>
+      <c r="AH61" s="89"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="123"/>
-      <c r="U62" s="123"/>
-      <c r="V62" s="123"/>
-      <c r="W62" s="123"/>
-      <c r="X62" s="123"/>
-      <c r="AE62" s="122" t="s">
+      <c r="C62" s="79"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="AE62" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="AF62" s="122"/>
-      <c r="AG62" s="122"/>
-      <c r="AH62" s="122"/>
+      <c r="AF62" s="89"/>
+      <c r="AG62" s="89"/>
+      <c r="AH62" s="89"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Y63" s="99"/>
-      <c r="Z63" s="99"/>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="99"/>
-      <c r="AC63" s="99"/>
-      <c r="AD63" s="99"/>
-      <c r="AE63" s="99"/>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
-      <c r="AH63" s="99"/>
+      <c r="Y63" s="58"/>
+      <c r="Z63" s="58"/>
+      <c r="AA63" s="58"/>
+      <c r="AB63" s="58"/>
+      <c r="AC63" s="58"/>
+      <c r="AD63" s="58"/>
+      <c r="AE63" s="58"/>
+      <c r="AF63" s="58"/>
+      <c r="AG63" s="58"/>
+      <c r="AH63" s="58"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="W64" s="99"/>
-      <c r="X64" s="99"/>
-      <c r="Y64" s="99"/>
-      <c r="Z64" s="99"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="99"/>
-      <c r="AC64" s="99"/>
-      <c r="AD64" s="125" t="s">
+      <c r="W64" s="58"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="58"/>
+      <c r="Z64" s="58"/>
+      <c r="AA64" s="58"/>
+      <c r="AB64" s="58"/>
+      <c r="AC64" s="58"/>
+      <c r="AD64" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="AE64" s="125"/>
-      <c r="AF64" s="125"/>
-      <c r="AG64" s="125"/>
-      <c r="AH64" s="125"/>
-      <c r="AI64" s="99"/>
+      <c r="AE64" s="80"/>
+      <c r="AF64" s="80"/>
+      <c r="AG64" s="80"/>
+      <c r="AH64" s="80"/>
+      <c r="AI64" s="58"/>
     </row>
     <row r="65" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W65" s="99"/>
-      <c r="X65" s="99"/>
-      <c r="Y65" s="99"/>
-      <c r="Z65" s="99"/>
-      <c r="AA65" s="99"/>
-      <c r="AB65" s="99"/>
-      <c r="AC65" s="99"/>
-      <c r="AD65" s="125"/>
-      <c r="AE65" s="125"/>
-      <c r="AF65" s="125"/>
-      <c r="AG65" s="125"/>
-      <c r="AH65" s="125"/>
-      <c r="AI65" s="99"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="58"/>
+      <c r="Y65" s="58"/>
+      <c r="Z65" s="58"/>
+      <c r="AA65" s="58"/>
+      <c r="AB65" s="58"/>
+      <c r="AC65" s="58"/>
+      <c r="AD65" s="80"/>
+      <c r="AE65" s="80"/>
+      <c r="AF65" s="80"/>
+      <c r="AG65" s="80"/>
+      <c r="AH65" s="80"/>
+      <c r="AI65" s="58"/>
     </row>
     <row r="66" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W66" s="99"/>
-      <c r="X66" s="99"/>
-      <c r="Y66" s="99"/>
-      <c r="Z66" s="99"/>
-      <c r="AA66" s="99"/>
-      <c r="AB66" s="99"/>
-      <c r="AC66" s="99"/>
-      <c r="AD66" s="126"/>
-      <c r="AE66" s="126"/>
-      <c r="AF66" s="126"/>
-      <c r="AG66" s="126"/>
-      <c r="AH66" s="126"/>
-      <c r="AI66" s="99"/>
+      <c r="W66" s="58"/>
+      <c r="X66" s="58"/>
+      <c r="Y66" s="58"/>
+      <c r="Z66" s="58"/>
+      <c r="AA66" s="58"/>
+      <c r="AB66" s="58"/>
+      <c r="AC66" s="58"/>
+      <c r="AD66" s="81"/>
+      <c r="AE66" s="81"/>
+      <c r="AF66" s="81"/>
+      <c r="AG66" s="81"/>
+      <c r="AH66" s="81"/>
+      <c r="AI66" s="58"/>
     </row>
     <row r="67" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W67" s="99"/>
-      <c r="X67" s="99"/>
-      <c r="Y67" s="99"/>
-      <c r="Z67" s="99"/>
-      <c r="AA67" s="99"/>
-      <c r="AB67" s="99"/>
-      <c r="AC67" s="99"/>
-      <c r="AD67" s="125"/>
-      <c r="AE67" s="125"/>
-      <c r="AF67" s="125"/>
-      <c r="AG67" s="125"/>
-      <c r="AH67" s="125"/>
-      <c r="AI67" s="99"/>
-      <c r="AJ67" s="99"/>
+      <c r="W67" s="58"/>
+      <c r="X67" s="58"/>
+      <c r="Y67" s="58"/>
+      <c r="Z67" s="58"/>
+      <c r="AA67" s="58"/>
+      <c r="AB67" s="58"/>
+      <c r="AC67" s="58"/>
+      <c r="AD67" s="80"/>
+      <c r="AE67" s="80"/>
+      <c r="AF67" s="80"/>
+      <c r="AG67" s="80"/>
+      <c r="AH67" s="80"/>
+      <c r="AI67" s="58"/>
+      <c r="AJ67" s="58"/>
     </row>
     <row r="68" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W68" s="99"/>
-      <c r="X68" s="99"/>
-      <c r="Y68" s="99"/>
-      <c r="Z68" s="99"/>
-      <c r="AA68" s="99"/>
-      <c r="AB68" s="99"/>
-      <c r="AC68" s="99"/>
-      <c r="AD68" s="125"/>
-      <c r="AE68" s="125"/>
-      <c r="AF68" s="125"/>
-      <c r="AG68" s="125"/>
-      <c r="AH68" s="125"/>
-      <c r="AI68" s="99"/>
-      <c r="AJ68" s="99"/>
+      <c r="W68" s="58"/>
+      <c r="X68" s="58"/>
+      <c r="Y68" s="58"/>
+      <c r="Z68" s="58"/>
+      <c r="AA68" s="58"/>
+      <c r="AB68" s="58"/>
+      <c r="AC68" s="58"/>
+      <c r="AD68" s="80"/>
+      <c r="AE68" s="80"/>
+      <c r="AF68" s="80"/>
+      <c r="AG68" s="80"/>
+      <c r="AH68" s="80"/>
+      <c r="AI68" s="58"/>
+      <c r="AJ68" s="58"/>
     </row>
     <row r="69" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W69" s="99"/>
-      <c r="X69" s="99"/>
-      <c r="Y69" s="99"/>
-      <c r="Z69" s="99"/>
-      <c r="AA69" s="99"/>
-      <c r="AB69" s="99"/>
-      <c r="AC69" s="99"/>
-      <c r="AD69" s="99"/>
-      <c r="AE69" s="99"/>
-      <c r="AF69" s="99"/>
-      <c r="AG69" s="99"/>
-      <c r="AH69" s="99"/>
-      <c r="AI69" s="99"/>
-      <c r="AJ69" s="99"/>
+      <c r="W69" s="58"/>
+      <c r="X69" s="58"/>
+      <c r="Y69" s="58"/>
+      <c r="Z69" s="58"/>
+      <c r="AA69" s="58"/>
+      <c r="AB69" s="58"/>
+      <c r="AC69" s="58"/>
+      <c r="AD69" s="58"/>
+      <c r="AE69" s="58"/>
+      <c r="AF69" s="58"/>
+      <c r="AG69" s="58"/>
+      <c r="AH69" s="58"/>
+      <c r="AI69" s="58"/>
+      <c r="AJ69" s="58"/>
     </row>
     <row r="70" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="U70" s="127"/>
-      <c r="W70" s="99"/>
-      <c r="X70" s="99"/>
-      <c r="Y70" s="127"/>
-      <c r="Z70" s="99"/>
-      <c r="AA70" s="127"/>
-      <c r="AB70" s="99"/>
-      <c r="AC70" s="127"/>
-      <c r="AD70" s="127"/>
-      <c r="AE70" s="127"/>
-      <c r="AF70" s="127"/>
-      <c r="AG70" s="127"/>
-      <c r="AH70" s="127"/>
-      <c r="AI70" s="99"/>
-      <c r="AJ70" s="99"/>
+      <c r="U70" s="82"/>
+      <c r="W70" s="58"/>
+      <c r="X70" s="58"/>
+      <c r="Y70" s="82"/>
+      <c r="Z70" s="58"/>
+      <c r="AA70" s="82"/>
+      <c r="AB70" s="58"/>
+      <c r="AC70" s="82"/>
+      <c r="AD70" s="82"/>
+      <c r="AE70" s="82"/>
+      <c r="AF70" s="82"/>
+      <c r="AG70" s="82"/>
+      <c r="AH70" s="82"/>
+      <c r="AI70" s="58"/>
+      <c r="AJ70" s="58"/>
     </row>
     <row r="71" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="U71" s="128"/>
-      <c r="V71" s="128"/>
-      <c r="W71" s="125"/>
-      <c r="X71" s="125"/>
-      <c r="Y71" s="125"/>
-      <c r="Z71" s="125"/>
-      <c r="AA71" s="125"/>
-      <c r="AB71" s="125"/>
-      <c r="AC71" s="125"/>
-      <c r="AD71" s="125"/>
-      <c r="AE71" s="125"/>
-      <c r="AF71" s="125"/>
-      <c r="AG71" s="125"/>
-      <c r="AH71" s="125"/>
-      <c r="AI71" s="99"/>
-      <c r="AJ71" s="99"/>
+      <c r="U71" s="83"/>
+      <c r="V71" s="83"/>
+      <c r="W71" s="80"/>
+      <c r="X71" s="80"/>
+      <c r="Y71" s="80"/>
+      <c r="Z71" s="80"/>
+      <c r="AA71" s="80"/>
+      <c r="AB71" s="80"/>
+      <c r="AC71" s="80"/>
+      <c r="AD71" s="80"/>
+      <c r="AE71" s="80"/>
+      <c r="AF71" s="80"/>
+      <c r="AG71" s="80"/>
+      <c r="AH71" s="80"/>
+      <c r="AI71" s="58"/>
+      <c r="AJ71" s="58"/>
     </row>
     <row r="72" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="U72" s="128"/>
-      <c r="V72" s="128"/>
-      <c r="W72" s="125"/>
-      <c r="X72" s="125"/>
-      <c r="Y72" s="128"/>
-      <c r="Z72" s="125"/>
-      <c r="AA72" s="128"/>
-      <c r="AB72" s="125"/>
-      <c r="AC72" s="128"/>
-      <c r="AD72" s="128"/>
-      <c r="AE72" s="128"/>
-      <c r="AF72" s="128"/>
-      <c r="AG72" s="128"/>
-      <c r="AH72" s="128"/>
-      <c r="AI72" s="99"/>
-      <c r="AJ72" s="99"/>
+      <c r="U72" s="83"/>
+      <c r="V72" s="83"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="83"/>
+      <c r="Z72" s="80"/>
+      <c r="AA72" s="83"/>
+      <c r="AB72" s="80"/>
+      <c r="AC72" s="83"/>
+      <c r="AD72" s="83"/>
+      <c r="AE72" s="83"/>
+      <c r="AF72" s="83"/>
+      <c r="AG72" s="83"/>
+      <c r="AH72" s="83"/>
+      <c r="AI72" s="58"/>
+      <c r="AJ72" s="58"/>
     </row>
     <row r="73" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="U73" s="128"/>
-      <c r="V73" s="129"/>
-      <c r="W73" s="130"/>
-      <c r="X73" s="130"/>
-      <c r="Y73" s="128"/>
-      <c r="Z73" s="130"/>
-      <c r="AA73" s="128"/>
-      <c r="AB73" s="130"/>
-      <c r="AC73" s="128"/>
-      <c r="AD73" s="128"/>
-      <c r="AE73" s="128"/>
-      <c r="AF73" s="128"/>
-      <c r="AG73" s="128"/>
-      <c r="AH73" s="128"/>
-      <c r="AI73" s="99"/>
-      <c r="AJ73" s="99"/>
+      <c r="U73" s="83"/>
+      <c r="V73" s="84"/>
+      <c r="W73" s="85"/>
+      <c r="X73" s="85"/>
+      <c r="Y73" s="83"/>
+      <c r="Z73" s="85"/>
+      <c r="AA73" s="83"/>
+      <c r="AB73" s="85"/>
+      <c r="AC73" s="83"/>
+      <c r="AD73" s="83"/>
+      <c r="AE73" s="83"/>
+      <c r="AF73" s="83"/>
+      <c r="AG73" s="83"/>
+      <c r="AH73" s="83"/>
+      <c r="AI73" s="58"/>
+      <c r="AJ73" s="58"/>
     </row>
     <row r="74" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="U74" s="129"/>
-      <c r="V74" s="129"/>
-      <c r="W74" s="130"/>
-      <c r="X74" s="130"/>
-      <c r="Y74" s="130"/>
-      <c r="Z74" s="130"/>
-      <c r="AA74" s="130"/>
-      <c r="AB74" s="130"/>
-      <c r="AC74" s="130"/>
-      <c r="AD74" s="130"/>
-      <c r="AE74" s="130"/>
-      <c r="AF74" s="130"/>
-      <c r="AG74" s="130"/>
-      <c r="AH74" s="130"/>
-      <c r="AI74" s="99"/>
-      <c r="AJ74" s="99"/>
+      <c r="U74" s="84"/>
+      <c r="V74" s="84"/>
+      <c r="W74" s="85"/>
+      <c r="X74" s="85"/>
+      <c r="Y74" s="85"/>
+      <c r="Z74" s="85"/>
+      <c r="AA74" s="85"/>
+      <c r="AB74" s="85"/>
+      <c r="AC74" s="85"/>
+      <c r="AD74" s="85"/>
+      <c r="AE74" s="85"/>
+      <c r="AF74" s="85"/>
+      <c r="AG74" s="85"/>
+      <c r="AH74" s="85"/>
+      <c r="AI74" s="58"/>
+      <c r="AJ74" s="58"/>
     </row>
     <row r="75" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="U75" s="129"/>
-      <c r="V75" s="129"/>
-      <c r="W75" s="130"/>
-      <c r="X75" s="130"/>
-      <c r="Y75" s="130"/>
-      <c r="Z75" s="130"/>
-      <c r="AA75" s="130"/>
-      <c r="AB75" s="130"/>
-      <c r="AC75" s="130"/>
-      <c r="AD75" s="130"/>
-      <c r="AE75" s="130"/>
-      <c r="AF75" s="130"/>
-      <c r="AG75" s="130"/>
-      <c r="AH75" s="130"/>
-      <c r="AI75" s="99"/>
-      <c r="AJ75" s="99"/>
+      <c r="U75" s="84"/>
+      <c r="V75" s="84"/>
+      <c r="W75" s="85"/>
+      <c r="X75" s="85"/>
+      <c r="Y75" s="85"/>
+      <c r="Z75" s="85"/>
+      <c r="AA75" s="85"/>
+      <c r="AB75" s="85"/>
+      <c r="AC75" s="85"/>
+      <c r="AD75" s="85"/>
+      <c r="AE75" s="85"/>
+      <c r="AF75" s="85"/>
+      <c r="AG75" s="85"/>
+      <c r="AH75" s="85"/>
+      <c r="AI75" s="58"/>
+      <c r="AJ75" s="58"/>
     </row>
     <row r="76" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W76" s="99"/>
-      <c r="X76" s="99"/>
-      <c r="Y76" s="99"/>
-      <c r="Z76" s="99"/>
-      <c r="AA76" s="99"/>
-      <c r="AB76" s="99"/>
-      <c r="AC76" s="99"/>
-      <c r="AD76" s="99"/>
-      <c r="AE76" s="99"/>
-      <c r="AF76" s="99"/>
-      <c r="AG76" s="99"/>
-      <c r="AH76" s="99"/>
-      <c r="AI76" s="99"/>
-      <c r="AJ76" s="99"/>
+      <c r="W76" s="58"/>
+      <c r="X76" s="58"/>
+      <c r="Y76" s="58"/>
+      <c r="Z76" s="58"/>
+      <c r="AA76" s="58"/>
+      <c r="AB76" s="58"/>
+      <c r="AC76" s="58"/>
+      <c r="AD76" s="58"/>
+      <c r="AE76" s="58"/>
+      <c r="AF76" s="58"/>
+      <c r="AG76" s="58"/>
+      <c r="AH76" s="58"/>
+      <c r="AI76" s="58"/>
+      <c r="AJ76" s="58"/>
     </row>
     <row r="77" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W77" s="99"/>
-      <c r="X77" s="99"/>
-      <c r="Y77" s="99"/>
-      <c r="Z77" s="99"/>
-      <c r="AA77" s="99"/>
-      <c r="AB77" s="99"/>
-      <c r="AC77" s="99"/>
-      <c r="AD77" s="99"/>
-      <c r="AE77" s="99"/>
-      <c r="AF77" s="99"/>
-      <c r="AG77" s="99"/>
-      <c r="AH77" s="99"/>
-      <c r="AI77" s="99"/>
-      <c r="AJ77" s="99"/>
+      <c r="W77" s="58"/>
+      <c r="X77" s="58"/>
+      <c r="Y77" s="58"/>
+      <c r="Z77" s="58"/>
+      <c r="AA77" s="58"/>
+      <c r="AB77" s="58"/>
+      <c r="AC77" s="58"/>
+      <c r="AD77" s="58"/>
+      <c r="AE77" s="58"/>
+      <c r="AF77" s="58"/>
+      <c r="AG77" s="58"/>
+      <c r="AH77" s="58"/>
+      <c r="AI77" s="58"/>
+      <c r="AJ77" s="58"/>
     </row>
     <row r="78" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W78" s="99"/>
-      <c r="X78" s="99"/>
-      <c r="Y78" s="99"/>
-      <c r="Z78" s="99"/>
-      <c r="AA78" s="99"/>
-      <c r="AB78" s="99"/>
-      <c r="AC78" s="99"/>
-      <c r="AD78" s="99"/>
-      <c r="AE78" s="99"/>
-      <c r="AF78" s="99"/>
-      <c r="AG78" s="99"/>
-      <c r="AH78" s="99"/>
-      <c r="AI78" s="99"/>
-      <c r="AJ78" s="99"/>
+      <c r="W78" s="58"/>
+      <c r="X78" s="58"/>
+      <c r="Y78" s="58"/>
+      <c r="Z78" s="58"/>
+      <c r="AA78" s="58"/>
+      <c r="AB78" s="58"/>
+      <c r="AC78" s="58"/>
+      <c r="AD78" s="58"/>
+      <c r="AE78" s="58"/>
+      <c r="AF78" s="58"/>
+      <c r="AG78" s="58"/>
+      <c r="AH78" s="58"/>
+      <c r="AI78" s="58"/>
+      <c r="AJ78" s="58"/>
     </row>
     <row r="79" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W79" s="99"/>
-      <c r="X79" s="99"/>
-      <c r="Y79" s="99"/>
-      <c r="Z79" s="99"/>
-      <c r="AA79" s="99"/>
-      <c r="AB79" s="99"/>
-      <c r="AC79" s="99"/>
-      <c r="AD79" s="99"/>
-      <c r="AE79" s="99"/>
-      <c r="AF79" s="99"/>
-      <c r="AG79" s="99"/>
-      <c r="AH79" s="99"/>
-      <c r="AI79" s="99"/>
-      <c r="AJ79" s="99"/>
+      <c r="W79" s="58"/>
+      <c r="X79" s="58"/>
+      <c r="Y79" s="58"/>
+      <c r="Z79" s="58"/>
+      <c r="AA79" s="58"/>
+      <c r="AB79" s="58"/>
+      <c r="AC79" s="58"/>
+      <c r="AD79" s="58"/>
+      <c r="AE79" s="58"/>
+      <c r="AF79" s="58"/>
+      <c r="AG79" s="58"/>
+      <c r="AH79" s="58"/>
+      <c r="AI79" s="58"/>
+      <c r="AJ79" s="58"/>
     </row>
     <row r="80" spans="21:36" x14ac:dyDescent="0.2">
-      <c r="W80" s="99"/>
-      <c r="X80" s="99"/>
-      <c r="Y80" s="99"/>
-      <c r="Z80" s="99"/>
-      <c r="AA80" s="99"/>
-      <c r="AB80" s="99"/>
-      <c r="AC80" s="99"/>
-      <c r="AD80" s="99"/>
-      <c r="AE80" s="99"/>
-      <c r="AF80" s="99"/>
-      <c r="AG80" s="99"/>
-      <c r="AH80" s="99"/>
-      <c r="AI80" s="99"/>
-      <c r="AJ80" s="99"/>
+      <c r="W80" s="58"/>
+      <c r="X80" s="58"/>
+      <c r="Y80" s="58"/>
+      <c r="Z80" s="58"/>
+      <c r="AA80" s="58"/>
+      <c r="AB80" s="58"/>
+      <c r="AC80" s="58"/>
+      <c r="AD80" s="58"/>
+      <c r="AE80" s="58"/>
+      <c r="AF80" s="58"/>
+      <c r="AG80" s="58"/>
+      <c r="AH80" s="58"/>
+      <c r="AI80" s="58"/>
+      <c r="AJ80" s="58"/>
     </row>
     <row r="81" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W81" s="99"/>
-      <c r="X81" s="99"/>
-      <c r="Y81" s="99"/>
-      <c r="Z81" s="99"/>
-      <c r="AA81" s="99"/>
-      <c r="AB81" s="99"/>
-      <c r="AC81" s="99"/>
-      <c r="AD81" s="99"/>
-      <c r="AE81" s="99"/>
-      <c r="AF81" s="99"/>
-      <c r="AG81" s="99"/>
-      <c r="AH81" s="99"/>
-      <c r="AI81" s="99"/>
-      <c r="AJ81" s="99"/>
+      <c r="W81" s="58"/>
+      <c r="X81" s="58"/>
+      <c r="Y81" s="58"/>
+      <c r="Z81" s="58"/>
+      <c r="AA81" s="58"/>
+      <c r="AB81" s="58"/>
+      <c r="AC81" s="58"/>
+      <c r="AD81" s="58"/>
+      <c r="AE81" s="58"/>
+      <c r="AF81" s="58"/>
+      <c r="AG81" s="58"/>
+      <c r="AH81" s="58"/>
+      <c r="AI81" s="58"/>
+      <c r="AJ81" s="58"/>
     </row>
     <row r="82" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W82" s="99"/>
-      <c r="X82" s="99"/>
-      <c r="Y82" s="99"/>
-      <c r="Z82" s="99"/>
-      <c r="AA82" s="99"/>
-      <c r="AB82" s="99"/>
-      <c r="AC82" s="99"/>
-      <c r="AD82" s="99"/>
-      <c r="AE82" s="99"/>
-      <c r="AF82" s="99"/>
-      <c r="AG82" s="99"/>
-      <c r="AH82" s="99"/>
-      <c r="AI82" s="99"/>
-      <c r="AJ82" s="99"/>
+      <c r="W82" s="58"/>
+      <c r="X82" s="58"/>
+      <c r="Y82" s="58"/>
+      <c r="Z82" s="58"/>
+      <c r="AA82" s="58"/>
+      <c r="AB82" s="58"/>
+      <c r="AC82" s="58"/>
+      <c r="AD82" s="58"/>
+      <c r="AE82" s="58"/>
+      <c r="AF82" s="58"/>
+      <c r="AG82" s="58"/>
+      <c r="AH82" s="58"/>
+      <c r="AI82" s="58"/>
+      <c r="AJ82" s="58"/>
     </row>
     <row r="83" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W83" s="99"/>
-      <c r="X83" s="99"/>
-      <c r="Y83" s="99"/>
-      <c r="Z83" s="99"/>
-      <c r="AA83" s="99"/>
-      <c r="AB83" s="99"/>
-      <c r="AC83" s="99"/>
-      <c r="AD83" s="99"/>
-      <c r="AE83" s="99"/>
-      <c r="AF83" s="99"/>
-      <c r="AG83" s="99"/>
-      <c r="AH83" s="99"/>
-      <c r="AI83" s="99"/>
-      <c r="AJ83" s="99"/>
+      <c r="W83" s="58"/>
+      <c r="X83" s="58"/>
+      <c r="Y83" s="58"/>
+      <c r="Z83" s="58"/>
+      <c r="AA83" s="58"/>
+      <c r="AB83" s="58"/>
+      <c r="AC83" s="58"/>
+      <c r="AD83" s="58"/>
+      <c r="AE83" s="58"/>
+      <c r="AF83" s="58"/>
+      <c r="AG83" s="58"/>
+      <c r="AH83" s="58"/>
+      <c r="AI83" s="58"/>
+      <c r="AJ83" s="58"/>
     </row>
     <row r="84" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W84" s="99"/>
-      <c r="X84" s="99"/>
-      <c r="Y84" s="99"/>
-      <c r="Z84" s="99"/>
-      <c r="AA84" s="99"/>
-      <c r="AB84" s="99"/>
-      <c r="AC84" s="99"/>
-      <c r="AD84" s="99"/>
-      <c r="AE84" s="99"/>
-      <c r="AF84" s="99"/>
-      <c r="AG84" s="99"/>
-      <c r="AH84" s="99"/>
-      <c r="AI84" s="99"/>
-      <c r="AJ84" s="99"/>
+      <c r="W84" s="58"/>
+      <c r="X84" s="58"/>
+      <c r="Y84" s="58"/>
+      <c r="Z84" s="58"/>
+      <c r="AA84" s="58"/>
+      <c r="AB84" s="58"/>
+      <c r="AC84" s="58"/>
+      <c r="AD84" s="58"/>
+      <c r="AE84" s="58"/>
+      <c r="AF84" s="58"/>
+      <c r="AG84" s="58"/>
+      <c r="AH84" s="58"/>
+      <c r="AI84" s="58"/>
+      <c r="AJ84" s="58"/>
     </row>
     <row r="85" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W85" s="99"/>
-      <c r="X85" s="99"/>
-      <c r="Y85" s="99"/>
-      <c r="Z85" s="99"/>
-      <c r="AA85" s="99"/>
-      <c r="AB85" s="99"/>
-      <c r="AC85" s="99"/>
-      <c r="AD85" s="99"/>
-      <c r="AE85" s="99"/>
-      <c r="AF85" s="99"/>
-      <c r="AG85" s="99"/>
-      <c r="AH85" s="99"/>
-      <c r="AI85" s="99"/>
-      <c r="AJ85" s="99"/>
+      <c r="W85" s="58"/>
+      <c r="X85" s="58"/>
+      <c r="Y85" s="58"/>
+      <c r="Z85" s="58"/>
+      <c r="AA85" s="58"/>
+      <c r="AB85" s="58"/>
+      <c r="AC85" s="58"/>
+      <c r="AD85" s="58"/>
+      <c r="AE85" s="58"/>
+      <c r="AF85" s="58"/>
+      <c r="AG85" s="58"/>
+      <c r="AH85" s="58"/>
+      <c r="AI85" s="58"/>
+      <c r="AJ85" s="58"/>
     </row>
     <row r="86" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W86" s="99"/>
-      <c r="X86" s="99"/>
-      <c r="Y86" s="99"/>
-      <c r="Z86" s="99"/>
-      <c r="AA86" s="99"/>
-      <c r="AB86" s="99"/>
-      <c r="AC86" s="99"/>
-      <c r="AD86" s="99"/>
-      <c r="AE86" s="99"/>
-      <c r="AF86" s="99"/>
-      <c r="AG86" s="99"/>
-      <c r="AH86" s="99"/>
-      <c r="AI86" s="99"/>
-      <c r="AJ86" s="99"/>
+      <c r="W86" s="58"/>
+      <c r="X86" s="58"/>
+      <c r="Y86" s="58"/>
+      <c r="Z86" s="58"/>
+      <c r="AA86" s="58"/>
+      <c r="AB86" s="58"/>
+      <c r="AC86" s="58"/>
+      <c r="AD86" s="58"/>
+      <c r="AE86" s="58"/>
+      <c r="AF86" s="58"/>
+      <c r="AG86" s="58"/>
+      <c r="AH86" s="58"/>
+      <c r="AI86" s="58"/>
+      <c r="AJ86" s="58"/>
     </row>
     <row r="87" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W87" s="99"/>
-      <c r="X87" s="99"/>
-      <c r="Y87" s="99"/>
-      <c r="Z87" s="99"/>
-      <c r="AA87" s="99"/>
-      <c r="AB87" s="99"/>
-      <c r="AC87" s="99"/>
-      <c r="AD87" s="99"/>
-      <c r="AE87" s="99"/>
-      <c r="AF87" s="99"/>
-      <c r="AG87" s="99"/>
-      <c r="AH87" s="99"/>
-      <c r="AI87" s="99"/>
+      <c r="W87" s="58"/>
+      <c r="X87" s="58"/>
+      <c r="Y87" s="58"/>
+      <c r="Z87" s="58"/>
+      <c r="AA87" s="58"/>
+      <c r="AB87" s="58"/>
+      <c r="AC87" s="58"/>
+      <c r="AD87" s="58"/>
+      <c r="AE87" s="58"/>
+      <c r="AF87" s="58"/>
+      <c r="AG87" s="58"/>
+      <c r="AH87" s="58"/>
+      <c r="AI87" s="58"/>
     </row>
     <row r="88" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W88" s="99"/>
-      <c r="X88" s="99"/>
-      <c r="Y88" s="99"/>
-      <c r="Z88" s="99"/>
-      <c r="AA88" s="99"/>
-      <c r="AB88" s="99"/>
-      <c r="AC88" s="99"/>
-      <c r="AD88" s="99"/>
-      <c r="AE88" s="99"/>
-      <c r="AF88" s="99"/>
-      <c r="AG88" s="99"/>
-      <c r="AH88" s="99"/>
-      <c r="AI88" s="99"/>
+      <c r="W88" s="58"/>
+      <c r="X88" s="58"/>
+      <c r="Y88" s="58"/>
+      <c r="Z88" s="58"/>
+      <c r="AA88" s="58"/>
+      <c r="AB88" s="58"/>
+      <c r="AC88" s="58"/>
+      <c r="AD88" s="58"/>
+      <c r="AE88" s="58"/>
+      <c r="AF88" s="58"/>
+      <c r="AG88" s="58"/>
+      <c r="AH88" s="58"/>
+      <c r="AI88" s="58"/>
     </row>
     <row r="89" spans="23:36" x14ac:dyDescent="0.2">
-      <c r="W89" s="99"/>
-      <c r="X89" s="99"/>
-      <c r="Y89" s="99"/>
-      <c r="Z89" s="99"/>
-      <c r="AA89" s="99"/>
-      <c r="AB89" s="99"/>
-      <c r="AC89" s="99"/>
-      <c r="AD89" s="99"/>
-      <c r="AE89" s="99"/>
-      <c r="AF89" s="99"/>
-      <c r="AG89" s="99"/>
-      <c r="AH89" s="99"/>
-      <c r="AI89" s="99"/>
+      <c r="W89" s="58"/>
+      <c r="X89" s="58"/>
+      <c r="Y89" s="58"/>
+      <c r="Z89" s="58"/>
+      <c r="AA89" s="58"/>
+      <c r="AB89" s="58"/>
+      <c r="AC89" s="58"/>
+      <c r="AD89" s="58"/>
+      <c r="AE89" s="58"/>
+      <c r="AF89" s="58"/>
+      <c r="AG89" s="58"/>
+      <c r="AH89" s="58"/>
+      <c r="AI89" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="S62:X62"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE56:AH56"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="S61:X61"/>
-    <mergeCell ref="AE61:AH61"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A2:AJ2"/>
+    <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:AD5"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AI5:AJ7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -6191,27 +6203,13 @@
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="R5:AD5"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:AJ2"/>
-    <mergeCell ref="A3:AJ3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE56:AH56"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="S61:X61"/>
+    <mergeCell ref="AE61:AH61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05498F67-57A8-734F-9E7A-15DDEE48ED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97E483-5DFF-5F4C-A43C-3F42182CD5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
+    <sheet name="CPNS" sheetId="2" r:id="rId2"/>
+    <sheet name="PLT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="167">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -420,6 +422,149 @@
   <si>
     <t>Persen PPH21</t>
   </si>
+  <si>
+    <t>DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN (CPNS)</t>
+  </si>
+  <si>
+    <t>BULAN FEBRUARI 2023 UNTUK KINERJA JANUARI 2023</t>
+  </si>
+  <si>
+    <t>BADAN KEPEGAWAIAN DAERAH, PENDIDIKAN DAN PELATIHAN KOTA BANJARMASIN</t>
+  </si>
+  <si>
+    <t>Pagu TPP ASN (80%)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>PPH21</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN (PLT/PLH/PJ)</t>
+  </si>
+  <si>
+    <t>Keternagan</t>
+  </si>
+  <si>
+    <t>di sheet Reguler</t>
+  </si>
+  <si>
+    <t>di sheet PLT</t>
+  </si>
+  <si>
+    <t>Plt ke atas</t>
+  </si>
+  <si>
+    <t>TPP jabatan definitif = 0</t>
+  </si>
+  <si>
+    <t>TPP jabatan PLT 100%</t>
+  </si>
+  <si>
+    <t>Plt setara</t>
+  </si>
+  <si>
+    <t>TPP jabatan definitif = 100%</t>
+  </si>
+  <si>
+    <t>TPP jabatan PLT 20% (di kolom pagu TPP ASN dan di setiap kolom jumlah parameter x 20%)</t>
+  </si>
+  <si>
+    <t>Plt setara, tapi pagu TPP berbeda</t>
+  </si>
+  <si>
+    <t>TPP yang lebih tinggi 100%, TPP yang lebih rendah 20%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contoh: Kepala BKD Diklat dan Asisten pada Sekretariat Daerah eselonnya sama (eselon II.a), tetapi pagu TPP Asisten </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lebih tinggi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> daripada TPP Kepala BKD, maka TPP nya:</t>
+    </r>
+  </si>
+  <si>
+    <t>* TPP Asisten 100%</t>
+  </si>
+  <si>
+    <t>pada sheet PLT Sekretariat Daerah</t>
+  </si>
+  <si>
+    <t>* TPP Kepala BKD 20%</t>
+  </si>
+  <si>
+    <t>pada sheet PLT BKD Diklat (pada sheet reguler TPP Kepala BKD = 0)</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +579,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="00000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,8 +688,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,8 +800,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -786,6 +981,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -800,7 +1021,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,6 +1220,103 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,21 +1374,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,6 +1401,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,6 +1414,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1122,10 +1431,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
-  <dimension ref="A1:AL130"/>
+  <dimension ref="A1:AL147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AK3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,299 +1820,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="94" t="s">
+      <c r="J5" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="97" t="s">
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="99" t="s">
+      <c r="O5" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="112" t="s">
+      <c r="P5" s="141"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="102" t="s">
+      <c r="S5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="103" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="103" t="s">
+      <c r="AG5" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="104" t="s">
+      <c r="AH5" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="106" t="s">
+      <c r="AI5" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="108" t="s">
+      <c r="AJ5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="109"/>
+      <c r="AK5" s="145"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="97" t="s">
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="97" t="s">
+      <c r="M6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="98"/>
-      <c r="O6" s="112" t="s">
+      <c r="N6" s="139"/>
+      <c r="O6" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="112" t="s">
+      <c r="P6" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="Q6" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="113"/>
-      <c r="S6" s="114" t="s">
+      <c r="R6" s="149"/>
+      <c r="S6" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="115"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="106" t="s">
+      <c r="T6" s="151"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="117" t="s">
+      <c r="W6" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="118" t="s">
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="119" t="s">
+      <c r="AA6" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="119" t="s">
+      <c r="AB6" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="120" t="s">
+      <c r="AC6" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="120" t="s">
+      <c r="AD6" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="107" t="s">
+      <c r="AE6" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="110"/>
-      <c r="AK6" s="111"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="147"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="126"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="158"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1792,7 +2122,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="106"/>
+      <c r="V7" s="153"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -1802,18 +2132,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="106"/>
-      <c r="AJ7" s="110"/>
-      <c r="AK7" s="111"/>
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="153"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="147"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,13 +2163,13 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14">
-        <f t="shared" ref="N8:N93" si="0">ROUND(I8*(SUM(J8:M8)),0)</f>
+        <f t="shared" ref="N8:N110" si="0">ROUND(I8*(SUM(J8:M8)),0)</f>
         <v>0</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="125"/>
+      <c r="R8" s="84"/>
       <c r="S8" s="17">
         <f>I8*J8*40%*O8</f>
         <v>0</v>
@@ -1861,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="17">
-        <f t="shared" ref="X8:X93" si="1">IF(P8&gt;=6750,(I8*K8*40%),0)</f>
+        <f t="shared" ref="X8:X110" si="1">IF(P8&gt;=6750,(I8*K8*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="17">
@@ -1869,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="17">
-        <f t="shared" ref="Z8:Z93" si="2">ROUND(SUM(W8:Y8),0)</f>
+        <f t="shared" ref="Z8:Z110" si="2">ROUND(SUM(W8:Y8),0)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="17">
@@ -1931,25 +2261,25 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="125"/>
+      <c r="R9" s="84"/>
       <c r="S9" s="17">
         <f t="shared" ref="S9:S72" si="4">I9*J9*40%*O9</f>
         <v>0</v>
       </c>
       <c r="T9" s="17">
-        <f t="shared" ref="T9:T93" si="5">IF(P9&gt;=6750,(I9*J9*40%),0)</f>
+        <f t="shared" ref="T9:T110" si="5">IF(P9&gt;=6750,(I9*J9*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" ref="U9:U93" si="6">IF(P9&lt;6750,0,IF(Q9="kurang",I9*J9*10%,I9*J9*20%))</f>
+        <f t="shared" ref="U9:U110" si="6">IF(P9&lt;6750,0,IF(Q9="kurang",I9*J9*10%,I9*J9*20%))</f>
         <v>0</v>
       </c>
       <c r="V9" s="17">
-        <f t="shared" ref="V9:V93" si="7">ROUND(SUM(S9:U9),0)</f>
+        <f t="shared" ref="V9:V110" si="7">ROUND(SUM(S9:U9),0)</f>
         <v>0</v>
       </c>
       <c r="W9" s="17">
-        <f t="shared" ref="W9:W93" si="8">I9*K9*40%*O9</f>
+        <f t="shared" ref="W9:W110" si="8">I9*K9*40%*O9</f>
         <v>0</v>
       </c>
       <c r="X9" s="17">
@@ -1957,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="17">
-        <f t="shared" ref="Y9:Y93" si="9">IF(P9&lt;6750,0,IF(Q9="kurang",I9*K9*10%,I9*K9*20%))</f>
+        <f t="shared" ref="Y9:Y110" si="9">IF(P9&lt;6750,0,IF(Q9="kurang",I9*K9*10%,I9*K9*20%))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="17">
@@ -1965,23 +2295,23 @@
         <v>0</v>
       </c>
       <c r="AA9" s="17">
-        <f t="shared" ref="AA9:AA93" si="10">I9*L9</f>
+        <f t="shared" ref="AA9:AA110" si="10">I9*L9</f>
         <v>0</v>
       </c>
       <c r="AB9" s="17">
-        <f t="shared" ref="AB9:AB93" si="11">ROUND(AA9,0)</f>
+        <f t="shared" ref="AB9:AB110" si="11">ROUND(AA9,0)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="17">
-        <f t="shared" ref="AC9:AC93" si="12">I9*M9</f>
+        <f t="shared" ref="AC9:AC110" si="12">I9*M9</f>
         <v>0</v>
       </c>
       <c r="AD9" s="17">
-        <f t="shared" ref="AD9:AD93" si="13">ROUND(AC9,0)</f>
+        <f t="shared" ref="AD9:AD110" si="13">ROUND(AC9,0)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="18">
-        <f t="shared" ref="AE9:AE93" si="14">ROUND((V9+Z9+AB9+AD9),0)</f>
+        <f t="shared" ref="AE9:AE110" si="14">ROUND((V9+Z9+AB9+AD9),0)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="19">
@@ -2023,7 +2353,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="32"/>
-      <c r="R10" s="125"/>
+      <c r="R10" s="84"/>
       <c r="S10" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2115,7 +2445,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="125"/>
+      <c r="R11" s="84"/>
       <c r="S11" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2207,7 +2537,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="125"/>
+      <c r="R12" s="84"/>
       <c r="S12" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2299,7 +2629,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="125"/>
+      <c r="R13" s="84"/>
       <c r="S13" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2391,7 +2721,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="125"/>
+      <c r="R14" s="84"/>
       <c r="S14" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2483,7 +2813,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="125"/>
+      <c r="R15" s="84"/>
       <c r="S15" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2575,7 +2905,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="125"/>
+      <c r="R16" s="84"/>
       <c r="S16" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2667,7 +2997,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="125"/>
+      <c r="R17" s="84"/>
       <c r="S17" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2759,7 +3089,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="125"/>
+      <c r="R18" s="84"/>
       <c r="S18" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2851,7 +3181,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="125"/>
+      <c r="R19" s="84"/>
       <c r="S19" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2943,7 +3273,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="125"/>
+      <c r="R20" s="84"/>
       <c r="S20" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3035,7 +3365,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="16"/>
-      <c r="R21" s="125"/>
+      <c r="R21" s="84"/>
       <c r="S21" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3127,7 +3457,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="32"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="125"/>
+      <c r="R22" s="84"/>
       <c r="S22" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3219,7 +3549,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="16"/>
-      <c r="R23" s="125"/>
+      <c r="R23" s="84"/>
       <c r="S23" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3311,7 +3641,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="32"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="125"/>
+      <c r="R24" s="84"/>
       <c r="S24" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3403,7 +3733,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="32"/>
       <c r="Q25" s="16"/>
-      <c r="R25" s="125"/>
+      <c r="R25" s="84"/>
       <c r="S25" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3495,7 +3825,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="32"/>
       <c r="Q26" s="16"/>
-      <c r="R26" s="125"/>
+      <c r="R26" s="84"/>
       <c r="S26" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3587,7 +3917,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="16"/>
-      <c r="R27" s="125"/>
+      <c r="R27" s="84"/>
       <c r="S27" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3679,7 +4009,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="125"/>
+      <c r="R28" s="84"/>
       <c r="S28" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3771,7 +4101,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="32"/>
       <c r="Q29" s="16"/>
-      <c r="R29" s="125"/>
+      <c r="R29" s="84"/>
       <c r="S29" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3863,7 +4193,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="125"/>
+      <c r="R30" s="84"/>
       <c r="S30" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3955,7 +4285,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="32"/>
       <c r="Q31" s="16"/>
-      <c r="R31" s="125"/>
+      <c r="R31" s="84"/>
       <c r="S31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4047,7 +4377,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="125"/>
+      <c r="R32" s="84"/>
       <c r="S32" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4139,7 +4469,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="16"/>
-      <c r="R33" s="125"/>
+      <c r="R33" s="84"/>
       <c r="S33" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4231,7 +4561,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="16"/>
-      <c r="R34" s="125"/>
+      <c r="R34" s="84"/>
       <c r="S34" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4323,7 +4653,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="16"/>
-      <c r="R35" s="125"/>
+      <c r="R35" s="84"/>
       <c r="S35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4415,7 +4745,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="16"/>
-      <c r="R36" s="125"/>
+      <c r="R36" s="84"/>
       <c r="S36" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4507,7 +4837,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="16"/>
-      <c r="R37" s="125"/>
+      <c r="R37" s="84"/>
       <c r="S37" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4599,7 +4929,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="16"/>
-      <c r="R38" s="125"/>
+      <c r="R38" s="84"/>
       <c r="S38" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4691,7 +5021,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="16"/>
-      <c r="R39" s="125"/>
+      <c r="R39" s="84"/>
       <c r="S39" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4783,7 +5113,7 @@
       <c r="O40" s="15"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="16"/>
-      <c r="R40" s="125"/>
+      <c r="R40" s="84"/>
       <c r="S40" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4875,7 +5205,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="16"/>
-      <c r="R41" s="125"/>
+      <c r="R41" s="84"/>
       <c r="S41" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4967,7 +5297,7 @@
       <c r="O42" s="15"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="16"/>
-      <c r="R42" s="125"/>
+      <c r="R42" s="84"/>
       <c r="S42" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5059,7 +5389,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="16"/>
-      <c r="R43" s="125"/>
+      <c r="R43" s="84"/>
       <c r="S43" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5151,7 +5481,7 @@
       <c r="O44" s="15"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="16"/>
-      <c r="R44" s="125"/>
+      <c r="R44" s="84"/>
       <c r="S44" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5243,7 +5573,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="16"/>
-      <c r="R45" s="125"/>
+      <c r="R45" s="84"/>
       <c r="S45" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5335,7 +5665,7 @@
       <c r="O46" s="15"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="16"/>
-      <c r="R46" s="125"/>
+      <c r="R46" s="84"/>
       <c r="S46" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5427,7 +5757,7 @@
       <c r="O47" s="15"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="16"/>
-      <c r="R47" s="125"/>
+      <c r="R47" s="84"/>
       <c r="S47" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5519,7 +5849,7 @@
       <c r="O48" s="15"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="16"/>
-      <c r="R48" s="125"/>
+      <c r="R48" s="84"/>
       <c r="S48" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5611,7 +5941,7 @@
       <c r="O49" s="15"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="16"/>
-      <c r="R49" s="125"/>
+      <c r="R49" s="84"/>
       <c r="S49" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5703,7 +6033,7 @@
       <c r="O50" s="15"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="16"/>
-      <c r="R50" s="125"/>
+      <c r="R50" s="84"/>
       <c r="S50" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5795,7 +6125,7 @@
       <c r="O51" s="15"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="16"/>
-      <c r="R51" s="125"/>
+      <c r="R51" s="84"/>
       <c r="S51" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5887,7 +6217,7 @@
       <c r="O52" s="15"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="16"/>
-      <c r="R52" s="125"/>
+      <c r="R52" s="84"/>
       <c r="S52" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5979,7 +6309,7 @@
       <c r="O53" s="34"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
-      <c r="R53" s="125"/>
+      <c r="R53" s="84"/>
       <c r="S53" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6071,7 +6401,7 @@
       <c r="O54" s="15"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
-      <c r="R54" s="125"/>
+      <c r="R54" s="84"/>
       <c r="S54" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6163,7 +6493,7 @@
       <c r="O55" s="15"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
-      <c r="R55" s="125"/>
+      <c r="R55" s="84"/>
       <c r="S55" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6255,7 +6585,7 @@
       <c r="O56" s="15"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
-      <c r="R56" s="125"/>
+      <c r="R56" s="84"/>
       <c r="S56" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6347,7 +6677,7 @@
       <c r="O57" s="15"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
-      <c r="R57" s="125"/>
+      <c r="R57" s="84"/>
       <c r="S57" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6439,7 +6769,7 @@
       <c r="O58" s="15"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
-      <c r="R58" s="125"/>
+      <c r="R58" s="84"/>
       <c r="S58" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6531,7 +6861,7 @@
       <c r="O59" s="15"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="16"/>
-      <c r="R59" s="125"/>
+      <c r="R59" s="84"/>
       <c r="S59" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6623,7 +6953,7 @@
       <c r="O60" s="15"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
-      <c r="R60" s="125"/>
+      <c r="R60" s="84"/>
       <c r="S60" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6715,7 +7045,7 @@
       <c r="O61" s="15"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16"/>
-      <c r="R61" s="125"/>
+      <c r="R61" s="84"/>
       <c r="S61" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6807,7 +7137,7 @@
       <c r="O62" s="15"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
-      <c r="R62" s="125"/>
+      <c r="R62" s="84"/>
       <c r="S62" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6899,7 +7229,7 @@
       <c r="O63" s="15"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
-      <c r="R63" s="125"/>
+      <c r="R63" s="84"/>
       <c r="S63" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6991,7 +7321,7 @@
       <c r="O64" s="15"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
-      <c r="R64" s="125"/>
+      <c r="R64" s="84"/>
       <c r="S64" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7083,7 +7413,7 @@
       <c r="O65" s="15"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
-      <c r="R65" s="125"/>
+      <c r="R65" s="84"/>
       <c r="S65" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7175,7 +7505,7 @@
       <c r="O66" s="15"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
-      <c r="R66" s="125"/>
+      <c r="R66" s="84"/>
       <c r="S66" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7266,7 +7596,7 @@
       <c r="O67" s="15"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
-      <c r="R67" s="125"/>
+      <c r="R67" s="84"/>
       <c r="S67" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7357,7 +7687,7 @@
       <c r="O68" s="15"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
-      <c r="R68" s="125"/>
+      <c r="R68" s="84"/>
       <c r="S68" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7448,7 +7778,7 @@
       <c r="O69" s="15"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
-      <c r="R69" s="125"/>
+      <c r="R69" s="84"/>
       <c r="S69" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7539,7 +7869,7 @@
       <c r="O70" s="15"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
-      <c r="R70" s="125"/>
+      <c r="R70" s="84"/>
       <c r="S70" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7630,7 +7960,7 @@
       <c r="O71" s="15"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
-      <c r="R71" s="125"/>
+      <c r="R71" s="84"/>
       <c r="S71" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7721,7 +8051,7 @@
       <c r="O72" s="15"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
-      <c r="R72" s="125"/>
+      <c r="R72" s="84"/>
       <c r="S72" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7781,7 +8111,7 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="17">
-        <f t="shared" ref="AI72:AI93" si="17">AE72-AF72-AG72</f>
+        <f t="shared" ref="AI72:AI110" si="17">AE72-AF72-AG72</f>
         <v>0</v>
       </c>
       <c r="AJ72" s="21" t="s">
@@ -7812,7 +8142,7 @@
       <c r="O73" s="15"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
-      <c r="R73" s="125"/>
+      <c r="R73" s="84"/>
       <c r="S73" s="17">
         <f t="shared" ref="S73:S88" si="18">I73*J73*40%*O73</f>
         <v>0</v>
@@ -7866,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="AF73" s="19">
-        <f t="shared" ref="AF73:AF93" si="19">ROUND(AE73*R73,0)</f>
+        <f t="shared" ref="AF73:AF110" si="19">ROUND(AE73*R73,0)</f>
         <v>0</v>
       </c>
       <c r="AG73" s="49"/>
@@ -7903,7 +8233,7 @@
       <c r="O74" s="15"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="16"/>
-      <c r="R74" s="125"/>
+      <c r="R74" s="84"/>
       <c r="S74" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -7995,7 +8325,7 @@
       <c r="O75" s="15"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
-      <c r="R75" s="125"/>
+      <c r="R75" s="84"/>
       <c r="S75" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8086,7 +8416,7 @@
       <c r="O76" s="15"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
-      <c r="R76" s="125"/>
+      <c r="R76" s="84"/>
       <c r="S76" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8177,7 +8507,7 @@
       <c r="O77" s="15"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
-      <c r="R77" s="125"/>
+      <c r="R77" s="84"/>
       <c r="S77" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8268,7 +8598,7 @@
       <c r="O78" s="15"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="16"/>
-      <c r="R78" s="125"/>
+      <c r="R78" s="84"/>
       <c r="S78" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8359,7 +8689,7 @@
       <c r="O79" s="15"/>
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="125"/>
+      <c r="R79" s="84"/>
       <c r="S79" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8450,7 +8780,7 @@
       <c r="O80" s="15"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="16"/>
-      <c r="R80" s="125"/>
+      <c r="R80" s="84"/>
       <c r="S80" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8541,7 +8871,7 @@
       <c r="O81" s="15"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
-      <c r="R81" s="125"/>
+      <c r="R81" s="84"/>
       <c r="S81" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8632,7 +8962,7 @@
       <c r="O82" s="15"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
-      <c r="R82" s="125"/>
+      <c r="R82" s="84"/>
       <c r="S82" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8723,7 +9053,7 @@
       <c r="O83" s="15"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
-      <c r="R83" s="125"/>
+      <c r="R83" s="84"/>
       <c r="S83" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8814,7 +9144,7 @@
       <c r="O84" s="15"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="16"/>
-      <c r="R84" s="125"/>
+      <c r="R84" s="84"/>
       <c r="S84" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8905,7 +9235,7 @@
       <c r="O85" s="15"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
-      <c r="R85" s="125"/>
+      <c r="R85" s="84"/>
       <c r="S85" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8996,7 +9326,7 @@
       <c r="O86" s="15"/>
       <c r="P86" s="16"/>
       <c r="Q86" s="16"/>
-      <c r="R86" s="125"/>
+      <c r="R86" s="84"/>
       <c r="S86" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -9087,7 +9417,7 @@
       <c r="O87" s="15"/>
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
-      <c r="R87" s="125"/>
+      <c r="R87" s="84"/>
       <c r="S87" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -9178,7 +9508,7 @@
       <c r="O88" s="15"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
-      <c r="R88" s="125"/>
+      <c r="R88" s="84"/>
       <c r="S88" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -9263,85 +9593,85 @@
       <c r="L89" s="26"/>
       <c r="M89" s="13"/>
       <c r="N89" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N89:N96" si="20">ROUND(I89*(SUM(J89:M89)),0)</f>
         <v>0</v>
       </c>
       <c r="O89" s="15"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
-      <c r="R89" s="125"/>
+      <c r="R89" s="84"/>
       <c r="S89" s="17">
-        <f t="shared" ref="S89:S93" si="20">I89*J89*40%*O89</f>
+        <f t="shared" ref="S89:S96" si="21">I89*J89*40%*O89</f>
         <v>0</v>
       </c>
       <c r="T89" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T89:T96" si="22">IF(P89&gt;=6750,(I89*J89*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U89" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U89:U96" si="23">IF(P89&lt;6750,0,IF(Q89="kurang",I89*J89*10%,I89*J89*20%))</f>
         <v>0</v>
       </c>
       <c r="V89" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V89:V96" si="24">ROUND(SUM(S89:U89),0)</f>
         <v>0</v>
       </c>
       <c r="W89" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="W89:W96" si="25">I89*K89*40%*O89</f>
         <v>0</v>
       </c>
       <c r="X89" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="X89:X96" si="26">IF(P89&gt;=6750,(I89*K89*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y89" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="Y89:Y96" si="27">IF(P89&lt;6750,0,IF(Q89="kurang",I89*K89*10%,I89*K89*20%))</f>
         <v>0</v>
       </c>
       <c r="Z89" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Z89:Z96" si="28">ROUND(SUM(W89:Y89),0)</f>
         <v>0</v>
       </c>
       <c r="AA89" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AA89:AA96" si="29">I89*L89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AB89:AB96" si="30">ROUND(AA89,0)</f>
         <v>0</v>
       </c>
       <c r="AC89" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AC89:AC96" si="31">I89*M89</f>
         <v>0</v>
       </c>
       <c r="AD89" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AD89:AD96" si="32">ROUND(AC89,0)</f>
         <v>0</v>
       </c>
       <c r="AE89" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AE89:AE96" si="33">ROUND((V89+Z89+AB89+AD89),0)</f>
         <v>0</v>
       </c>
       <c r="AF89" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AF89:AF96" si="34">ROUND(AE89*R89,0)</f>
         <v>0</v>
       </c>
       <c r="AG89" s="20"/>
       <c r="AH89" s="20"/>
       <c r="AI89" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AI89:AI96" si="35">AE89-AF89-AG89</f>
         <v>0</v>
       </c>
       <c r="AJ89" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AK89" s="42"/>
+      <c r="AK89" s="43"/>
     </row>
     <row r="90" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="30"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="81"/>
       <c r="D90" s="23"/>
       <c r="E90" s="30"/>
@@ -9354,85 +9684,85 @@
       <c r="L90" s="26"/>
       <c r="M90" s="13"/>
       <c r="N90" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O90" s="15"/>
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
-      <c r="R90" s="125"/>
+      <c r="R90" s="84"/>
       <c r="S90" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T90" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U90" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V90" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W90" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X90" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y90" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA90" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB90" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC90" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD90" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE90" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF90" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG90" s="20"/>
       <c r="AH90" s="20"/>
       <c r="AI90" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ90" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AK90" s="51"/>
+      <c r="AK90" s="43"/>
     </row>
     <row r="91" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="30"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="81"/>
       <c r="D91" s="23"/>
       <c r="E91" s="30"/>
@@ -9445,79 +9775,79 @@
       <c r="L91" s="26"/>
       <c r="M91" s="13"/>
       <c r="N91" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O91" s="15"/>
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
-      <c r="R91" s="125"/>
+      <c r="R91" s="84"/>
       <c r="S91" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T91" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U91" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V91" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W91" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X91" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y91" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z91" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA91" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB91" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC91" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD91" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE91" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF91" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG91" s="20"/>
       <c r="AH91" s="20"/>
       <c r="AI91" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ91" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AK91" s="39"/>
+      <c r="AK91" s="43"/>
     </row>
     <row r="92" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
@@ -9536,79 +9866,79 @@
       <c r="L92" s="26"/>
       <c r="M92" s="13"/>
       <c r="N92" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O92" s="15"/>
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
-      <c r="R92" s="125"/>
+      <c r="R92" s="84"/>
       <c r="S92" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T92" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U92" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V92" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W92" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X92" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y92" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z92" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA92" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB92" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC92" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD92" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE92" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF92" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG92" s="20"/>
       <c r="AH92" s="20"/>
       <c r="AI92" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ92" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AK92" s="51"/>
+      <c r="AK92" s="39"/>
     </row>
     <row r="93" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
@@ -9627,594 +9957,1861 @@
       <c r="L93" s="26"/>
       <c r="M93" s="13"/>
       <c r="N93" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O93" s="15"/>
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
-      <c r="R93" s="125"/>
+      <c r="R93" s="84"/>
       <c r="S93" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T93" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U93" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V93" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W93" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X93" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y93" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z93" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA93" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB93" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC93" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD93" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE93" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF93" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG93" s="20"/>
       <c r="AH93" s="20"/>
       <c r="AI93" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ93" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AK93" s="39"/>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
+      <c r="AK93" s="42"/>
+    </row>
+    <row r="94" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="30"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="13"/>
       <c r="N94" s="14">
-        <f>I94*(SUM(K94:M94))</f>
-        <v>0</v>
-      </c>
-      <c r="O94" s="55"/>
-      <c r="P94" s="56"/>
-      <c r="Q94" s="56"/>
-      <c r="R94" s="56"/>
-      <c r="S94" s="57"/>
-      <c r="T94" s="57"/>
-      <c r="U94" s="57"/>
-      <c r="V94" s="56">
-        <f>SUM(V8:V93)</f>
-        <v>0</v>
-      </c>
-      <c r="W94" s="57"/>
-      <c r="X94" s="57"/>
-      <c r="Y94" s="57"/>
-      <c r="Z94" s="56">
-        <f>SUM(Z8:Z93)</f>
-        <v>0</v>
-      </c>
-      <c r="AA94" s="57"/>
-      <c r="AB94" s="56">
-        <f>SUM(AB8:AB93)</f>
-        <v>0</v>
-      </c>
-      <c r="AC94" s="57"/>
-      <c r="AD94" s="56">
-        <f>SUM(AD8:AD93)</f>
-        <v>0</v>
-      </c>
-      <c r="AE94" s="56">
-        <f>SUM(AE8:AE93)</f>
-        <v>0</v>
-      </c>
-      <c r="AF94" s="56">
-        <f>SUM(AF8:AF93)</f>
-        <v>0</v>
-      </c>
-      <c r="AG94" s="56">
-        <f t="shared" ref="AG94:AI94" si="21">SUM(AG8:AG93)</f>
-        <v>0</v>
-      </c>
-      <c r="AH94" s="56">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="15"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="84"/>
+      <c r="S94" s="17">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AI94" s="56">
+      <c r="T94" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W94" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X94" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA94" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AC94" s="17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD94" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="18">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="19">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="20"/>
+      <c r="AI94" s="17">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK94" s="39"/>
+    </row>
+    <row r="95" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="30"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="83"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="15"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="84"/>
+      <c r="S95" s="17">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AJ94" s="58"/>
-      <c r="AK94" s="59"/>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="52"/>
-      <c r="M95" s="52"/>
-      <c r="O95"/>
-      <c r="AK95" s="52"/>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B96" s="123" t="s">
+      <c r="T95" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W95" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X95" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z95" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA95" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB95" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AC95" s="17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD95" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="18">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="19">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="20"/>
+      <c r="AH95" s="20"/>
+      <c r="AI95" s="17">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK95" s="42"/>
+    </row>
+    <row r="96" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="30"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="83"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="15"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W96" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X96" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y96" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z96" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA96" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB96" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AC96" s="17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD96" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="18">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="19">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="20"/>
+      <c r="AH96" s="20"/>
+      <c r="AI96" s="17">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK96" s="41"/>
+    </row>
+    <row r="97" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="30"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="83"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="14">
+        <f t="shared" ref="N97:N104" si="36">ROUND(I97*(SUM(J97:M97)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O97" s="15"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="84"/>
+      <c r="S97" s="17">
+        <f t="shared" ref="S97:S104" si="37">I97*J97*40%*O97</f>
+        <v>0</v>
+      </c>
+      <c r="T97" s="17">
+        <f t="shared" ref="T97:T104" si="38">IF(P97&gt;=6750,(I97*J97*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U97" s="17">
+        <f t="shared" ref="U97:U104" si="39">IF(P97&lt;6750,0,IF(Q97="kurang",I97*J97*10%,I97*J97*20%))</f>
+        <v>0</v>
+      </c>
+      <c r="V97" s="17">
+        <f t="shared" ref="V97:V104" si="40">ROUND(SUM(S97:U97),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W97" s="17">
+        <f t="shared" ref="W97:W104" si="41">I97*K97*40%*O97</f>
+        <v>0</v>
+      </c>
+      <c r="X97" s="17">
+        <f t="shared" ref="X97:X104" si="42">IF(P97&gt;=6750,(I97*K97*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y97" s="17">
+        <f t="shared" ref="Y97:Y104" si="43">IF(P97&lt;6750,0,IF(Q97="kurang",I97*K97*10%,I97*K97*20%))</f>
+        <v>0</v>
+      </c>
+      <c r="Z97" s="17">
+        <f t="shared" ref="Z97:Z104" si="44">ROUND(SUM(W97:Y97),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA97" s="17">
+        <f t="shared" ref="AA97:AA104" si="45">I97*L97</f>
+        <v>0</v>
+      </c>
+      <c r="AB97" s="17">
+        <f t="shared" ref="AB97:AB104" si="46">ROUND(AA97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC97" s="17">
+        <f t="shared" ref="AC97:AC104" si="47">I97*M97</f>
+        <v>0</v>
+      </c>
+      <c r="AD97" s="17">
+        <f t="shared" ref="AD97:AD104" si="48">ROUND(AC97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE97" s="18">
+        <f t="shared" ref="AE97:AE104" si="49">ROUND((V97+Z97+AB97+AD97),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="19">
+        <f t="shared" ref="AF97:AF104" si="50">ROUND(AE97*R97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="20"/>
+      <c r="AI97" s="17">
+        <f t="shared" ref="AI97:AI104" si="51">AE97-AF97-AG97</f>
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK97" s="43"/>
+    </row>
+    <row r="98" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="37"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="83"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="15"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="84"/>
+      <c r="S98" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W98" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X98" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y98" s="17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z98" s="17">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA98" s="17">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB98" s="17">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC98" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD98" s="17">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE98" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG98" s="20"/>
+      <c r="AH98" s="20"/>
+      <c r="AI98" s="17">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK98" s="43"/>
+    </row>
+    <row r="99" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="37"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="83"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="15"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="84"/>
+      <c r="S99" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W99" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X99" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y99" s="17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="17">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA99" s="17">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB99" s="17">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC99" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD99" s="17">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="20"/>
+      <c r="AH99" s="20"/>
+      <c r="AI99" s="17">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK99" s="43"/>
+    </row>
+    <row r="100" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="83"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="15"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="84"/>
+      <c r="S100" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X100" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y100" s="17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z100" s="17">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA100" s="17">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB100" s="17">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC100" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD100" s="17">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="20"/>
+      <c r="AH100" s="20"/>
+      <c r="AI100" s="17">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK100" s="39"/>
+    </row>
+    <row r="101" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="83"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="15"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="84"/>
+      <c r="S101" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W101" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X101" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y101" s="17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="17">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA101" s="17">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="17">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC101" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD101" s="17">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="20"/>
+      <c r="AH101" s="20"/>
+      <c r="AI101" s="17">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK101" s="42"/>
+    </row>
+    <row r="102" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="30"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="83"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="15"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="84"/>
+      <c r="S102" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W102" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X102" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y102" s="17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="17">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA102" s="17">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB102" s="17">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC102" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD102" s="17">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="20"/>
+      <c r="AH102" s="20"/>
+      <c r="AI102" s="17">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK102" s="39"/>
+    </row>
+    <row r="103" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="83"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="15"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="84"/>
+      <c r="S103" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W103" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X103" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y103" s="17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z103" s="17">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA103" s="17">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB103" s="17">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC103" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD103" s="17">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="20"/>
+      <c r="AI103" s="17">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK103" s="42"/>
+    </row>
+    <row r="104" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="83"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="15"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="84"/>
+      <c r="S104" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T104" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W104" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X104" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y104" s="17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z104" s="17">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA104" s="17">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB104" s="17">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC104" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD104" s="17">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="20"/>
+      <c r="AH104" s="20"/>
+      <c r="AI104" s="17">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK104" s="41"/>
+    </row>
+    <row r="105" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="83"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="15"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="84"/>
+      <c r="S105" s="17">
+        <f t="shared" ref="S105:S110" si="52">I105*J105*40%*O105</f>
+        <v>0</v>
+      </c>
+      <c r="T105" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V105" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X105" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y105" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z105" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA105" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB105" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC105" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD105" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="20"/>
+      <c r="AH105" s="20"/>
+      <c r="AI105" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK105" s="42"/>
+    </row>
+    <row r="106" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="83"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O106" s="15"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="84"/>
+      <c r="S106" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X106" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y106" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z106" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA106" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB106" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC106" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD106" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="20"/>
+      <c r="AH106" s="20"/>
+      <c r="AI106" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK106" s="51"/>
+    </row>
+    <row r="107" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="81"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="83"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="14">
+        <f t="shared" ref="N107" si="53">ROUND(I107*(SUM(J107:M107)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O107" s="15"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="84"/>
+      <c r="S107" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="17">
+        <f t="shared" ref="T107" si="54">IF(P107&gt;=6750,(I107*J107*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U107" s="17">
+        <f t="shared" ref="U107" si="55">IF(P107&lt;6750,0,IF(Q107="kurang",I107*J107*10%,I107*J107*20%))</f>
+        <v>0</v>
+      </c>
+      <c r="V107" s="17">
+        <f t="shared" ref="V107" si="56">ROUND(SUM(S107:U107),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W107" s="17">
+        <f t="shared" ref="W107" si="57">I107*K107*40%*O107</f>
+        <v>0</v>
+      </c>
+      <c r="X107" s="17">
+        <f t="shared" ref="X107" si="58">IF(P107&gt;=6750,(I107*K107*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y107" s="17">
+        <f t="shared" ref="Y107" si="59">IF(P107&lt;6750,0,IF(Q107="kurang",I107*K107*10%,I107*K107*20%))</f>
+        <v>0</v>
+      </c>
+      <c r="Z107" s="17">
+        <f t="shared" ref="Z107" si="60">ROUND(SUM(W107:Y107),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA107" s="17">
+        <f t="shared" ref="AA107" si="61">I107*L107</f>
+        <v>0</v>
+      </c>
+      <c r="AB107" s="17">
+        <f t="shared" ref="AB107" si="62">ROUND(AA107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC107" s="17">
+        <f t="shared" ref="AC107" si="63">I107*M107</f>
+        <v>0</v>
+      </c>
+      <c r="AD107" s="17">
+        <f t="shared" ref="AD107" si="64">ROUND(AC107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE107" s="18">
+        <f t="shared" ref="AE107" si="65">ROUND((V107+Z107+AB107+AD107),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="19">
+        <f t="shared" ref="AF107" si="66">ROUND(AE107*R107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="20"/>
+      <c r="AH107" s="20"/>
+      <c r="AI107" s="17">
+        <f t="shared" ref="AI107" si="67">AE107-AF107-AG107</f>
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK107" s="41"/>
+    </row>
+    <row r="108" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="81"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="83"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="15"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="84"/>
+      <c r="S108" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W108" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X108" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y108" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z108" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA108" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB108" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC108" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD108" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE108" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF108" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="20"/>
+      <c r="AH108" s="20"/>
+      <c r="AI108" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK108" s="39"/>
+    </row>
+    <row r="109" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="30"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="83"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="15"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="84"/>
+      <c r="S109" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W109" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X109" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y109" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA109" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB109" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC109" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD109" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE109" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF109" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG109" s="20"/>
+      <c r="AH109" s="20"/>
+      <c r="AI109" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK109" s="51"/>
+    </row>
+    <row r="110" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="81"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="83"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="15"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="84"/>
+      <c r="S110" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V110" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W110" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X110" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y110" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z110" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA110" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB110" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC110" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD110" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE110" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF110" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG110" s="20"/>
+      <c r="AH110" s="20"/>
+      <c r="AI110" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK110" s="39"/>
+    </row>
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="K111" s="53"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="14">
+        <f>I111*(SUM(K111:M111))</f>
+        <v>0</v>
+      </c>
+      <c r="O111" s="55"/>
+      <c r="P111" s="56"/>
+      <c r="Q111" s="56"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="57"/>
+      <c r="T111" s="57"/>
+      <c r="U111" s="57"/>
+      <c r="V111" s="56">
+        <f>SUM(V8:V110)</f>
+        <v>0</v>
+      </c>
+      <c r="W111" s="57"/>
+      <c r="X111" s="57"/>
+      <c r="Y111" s="57"/>
+      <c r="Z111" s="56">
+        <f>SUM(Z8:Z110)</f>
+        <v>0</v>
+      </c>
+      <c r="AA111" s="57"/>
+      <c r="AB111" s="56">
+        <f>SUM(AB8:AB110)</f>
+        <v>0</v>
+      </c>
+      <c r="AC111" s="57"/>
+      <c r="AD111" s="56">
+        <f>SUM(AD8:AD110)</f>
+        <v>0</v>
+      </c>
+      <c r="AE111" s="56">
+        <f>SUM(AE8:AE110)</f>
+        <v>0</v>
+      </c>
+      <c r="AF111" s="56">
+        <f>SUM(AF8:AF110)</f>
+        <v>0</v>
+      </c>
+      <c r="AG111" s="56">
+        <f t="shared" ref="AG111:AI111" si="68">SUM(AG8:AG110)</f>
+        <v>0</v>
+      </c>
+      <c r="AH111" s="56">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AI111" s="56">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="58"/>
+      <c r="AK111" s="59"/>
+    </row>
+    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="52"/>
+      <c r="K112" s="60"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="52"/>
+      <c r="O112"/>
+      <c r="AK112" s="52"/>
+    </row>
+    <row r="113" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B113" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="123"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52"/>
-      <c r="O96"/>
-      <c r="AK96" s="52"/>
-    </row>
-    <row r="97" spans="2:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="61" t="s">
+      <c r="C113" s="161"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
+      <c r="I113" s="52"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="52"/>
+      <c r="O113"/>
+      <c r="AK113" s="52"/>
+    </row>
+    <row r="114" spans="2:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="K97" s="52"/>
-      <c r="L97" s="52"/>
-      <c r="M97" s="52"/>
-      <c r="O97"/>
-      <c r="AC97" s="52"/>
-      <c r="AD97" s="52"/>
-      <c r="AE97" s="62"/>
-      <c r="AF97" s="124" t="s">
+      <c r="C114" s="61"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="52"/>
+      <c r="O114"/>
+      <c r="AC114" s="52"/>
+      <c r="AD114" s="52"/>
+      <c r="AE114" s="62"/>
+      <c r="AF114" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="AG97" s="124"/>
-      <c r="AH97" s="124"/>
-      <c r="AI97" s="124"/>
-      <c r="AJ97" s="52"/>
-      <c r="AK97" s="64"/>
-    </row>
-    <row r="98" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="52"/>
-      <c r="M98" s="52"/>
-      <c r="O98"/>
-      <c r="AC98" s="52"/>
-      <c r="AD98" s="52"/>
-      <c r="AE98" s="60"/>
-      <c r="AF98" s="60"/>
-      <c r="AG98" s="60"/>
-      <c r="AH98" s="60"/>
-      <c r="AI98" s="60"/>
-      <c r="AJ98" s="52"/>
-      <c r="AK98" s="66"/>
-    </row>
-    <row r="99" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="O99"/>
-      <c r="AC99" s="52"/>
-      <c r="AD99" s="52"/>
-      <c r="AE99" s="60"/>
-      <c r="AF99" s="67"/>
-      <c r="AG99" s="63"/>
-      <c r="AH99" s="63"/>
-      <c r="AI99" s="67"/>
-      <c r="AJ99" s="52"/>
-      <c r="AK99" s="52"/>
-    </row>
-    <row r="100" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="O100"/>
-      <c r="AD100" s="52"/>
-      <c r="AE100" s="69"/>
-      <c r="AF100" s="67"/>
-      <c r="AG100" s="63"/>
-      <c r="AH100" s="63"/>
-      <c r="AI100" s="67"/>
-    </row>
-    <row r="101" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="T101" s="71"/>
-      <c r="U101" s="71"/>
-      <c r="V101" s="72"/>
-      <c r="W101" s="72"/>
-      <c r="AE101" s="52"/>
-      <c r="AF101" s="67"/>
-      <c r="AG101" s="63"/>
-      <c r="AH101" s="63"/>
-      <c r="AI101" s="67"/>
-    </row>
-    <row r="102" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B102" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="C102" s="122"/>
-      <c r="T102" s="121"/>
-      <c r="U102" s="121"/>
-      <c r="V102" s="121"/>
-      <c r="W102" s="121"/>
-      <c r="X102" s="121"/>
-      <c r="Y102" s="121"/>
-      <c r="AE102" s="52"/>
-      <c r="AF102" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG102" s="122"/>
-      <c r="AH102" s="122"/>
-      <c r="AI102" s="122"/>
-    </row>
-    <row r="103" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B103" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C103" s="73"/>
-      <c r="T103" s="121"/>
-      <c r="U103" s="121"/>
-      <c r="V103" s="121"/>
-      <c r="W103" s="121"/>
-      <c r="X103" s="121"/>
-      <c r="Y103" s="121"/>
-      <c r="AF103" s="122" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG103" s="122"/>
-      <c r="AH103" s="122"/>
-      <c r="AI103" s="122"/>
-    </row>
-    <row r="104" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="Z104" s="52"/>
-      <c r="AA104" s="52"/>
-      <c r="AB104" s="52"/>
-      <c r="AC104" s="52"/>
-      <c r="AD104" s="52"/>
-      <c r="AE104" s="52"/>
-      <c r="AF104" s="52"/>
-      <c r="AG104" s="52"/>
-      <c r="AH104" s="52"/>
-      <c r="AI104" s="52"/>
-    </row>
-    <row r="105" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="X105" s="52"/>
-      <c r="Y105" s="52"/>
-      <c r="Z105" s="52"/>
-      <c r="AA105" s="52"/>
-      <c r="AB105" s="52"/>
-      <c r="AC105" s="52"/>
-      <c r="AD105" s="52"/>
-      <c r="AE105" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF105" s="74"/>
-      <c r="AG105" s="74"/>
-      <c r="AH105" s="74"/>
-      <c r="AI105" s="74"/>
-      <c r="AJ105" s="52"/>
-    </row>
-    <row r="106" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="X106" s="52"/>
-      <c r="Y106" s="52"/>
-      <c r="Z106" s="52"/>
-      <c r="AA106" s="52"/>
-      <c r="AB106" s="52"/>
-      <c r="AC106" s="52"/>
-      <c r="AD106" s="52"/>
-      <c r="AE106" s="74"/>
-      <c r="AF106" s="74"/>
-      <c r="AG106" s="74"/>
-      <c r="AH106" s="74"/>
-      <c r="AI106" s="74"/>
-      <c r="AJ106" s="52"/>
-    </row>
-    <row r="107" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="X107" s="52"/>
-      <c r="Y107" s="52"/>
-      <c r="Z107" s="52"/>
-      <c r="AA107" s="52"/>
-      <c r="AB107" s="52"/>
-      <c r="AC107" s="52"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="75"/>
-      <c r="AF107" s="75"/>
-      <c r="AG107" s="75"/>
-      <c r="AH107" s="75"/>
-      <c r="AI107" s="75"/>
-      <c r="AJ107" s="52"/>
-    </row>
-    <row r="108" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="X108" s="52"/>
-      <c r="Y108" s="52"/>
-      <c r="Z108" s="52"/>
-      <c r="AA108" s="52"/>
-      <c r="AB108" s="52"/>
-      <c r="AC108" s="52"/>
-      <c r="AD108" s="52"/>
-      <c r="AE108" s="74"/>
-      <c r="AF108" s="74"/>
-      <c r="AG108" s="74"/>
-      <c r="AH108" s="74"/>
-      <c r="AI108" s="74"/>
-      <c r="AJ108" s="52"/>
-      <c r="AK108" s="52"/>
-    </row>
-    <row r="109" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="X109" s="52"/>
-      <c r="Y109" s="52"/>
-      <c r="Z109" s="52"/>
-      <c r="AA109" s="52"/>
-      <c r="AB109" s="52"/>
-      <c r="AC109" s="52"/>
-      <c r="AD109" s="52"/>
-      <c r="AE109" s="74"/>
-      <c r="AF109" s="74"/>
-      <c r="AG109" s="74"/>
-      <c r="AH109" s="74"/>
-      <c r="AI109" s="74"/>
-      <c r="AJ109" s="52"/>
-      <c r="AK109" s="52"/>
-    </row>
-    <row r="110" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="X110" s="52"/>
-      <c r="Y110" s="52"/>
-      <c r="Z110" s="52"/>
-      <c r="AA110" s="52"/>
-      <c r="AB110" s="52"/>
-      <c r="AC110" s="52"/>
-      <c r="AD110" s="52"/>
-      <c r="AE110" s="52"/>
-      <c r="AF110" s="52"/>
-      <c r="AG110" s="52"/>
-      <c r="AH110" s="52"/>
-      <c r="AI110" s="52"/>
-      <c r="AJ110" s="52"/>
-      <c r="AK110" s="52"/>
-    </row>
-    <row r="111" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="V111" s="76"/>
-      <c r="X111" s="52"/>
-      <c r="Y111" s="52"/>
-      <c r="Z111" s="76"/>
-      <c r="AA111" s="52"/>
-      <c r="AB111" s="76"/>
-      <c r="AC111" s="52"/>
-      <c r="AD111" s="76"/>
-      <c r="AE111" s="76"/>
-      <c r="AF111" s="76"/>
-      <c r="AG111" s="76"/>
-      <c r="AH111" s="76"/>
-      <c r="AI111" s="76"/>
-      <c r="AJ111" s="52"/>
-      <c r="AK111" s="52"/>
-    </row>
-    <row r="112" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="V112" s="77"/>
-      <c r="W112" s="77"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
-      <c r="AA112" s="74"/>
-      <c r="AB112" s="74"/>
-      <c r="AC112" s="74"/>
-      <c r="AD112" s="74"/>
-      <c r="AE112" s="74"/>
-      <c r="AF112" s="74"/>
-      <c r="AG112" s="74"/>
-      <c r="AH112" s="74"/>
-      <c r="AI112" s="74"/>
-      <c r="AJ112" s="52"/>
-      <c r="AK112" s="52"/>
-    </row>
-    <row r="113" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="V113" s="77"/>
-      <c r="W113" s="77"/>
-      <c r="X113" s="74"/>
-      <c r="Y113" s="74"/>
-      <c r="Z113" s="77"/>
-      <c r="AA113" s="74"/>
-      <c r="AB113" s="77"/>
-      <c r="AC113" s="74"/>
-      <c r="AD113" s="77"/>
-      <c r="AE113" s="77"/>
-      <c r="AF113" s="77"/>
-      <c r="AG113" s="77"/>
-      <c r="AH113" s="77"/>
-      <c r="AI113" s="77"/>
-      <c r="AJ113" s="52"/>
-      <c r="AK113" s="52"/>
-    </row>
-    <row r="114" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="V114" s="77"/>
-      <c r="W114" s="78"/>
-      <c r="X114" s="79"/>
-      <c r="Y114" s="79"/>
-      <c r="Z114" s="77"/>
-      <c r="AA114" s="79"/>
-      <c r="AB114" s="77"/>
-      <c r="AC114" s="79"/>
-      <c r="AD114" s="77"/>
-      <c r="AE114" s="77"/>
-      <c r="AF114" s="77"/>
-      <c r="AG114" s="77"/>
-      <c r="AH114" s="77"/>
-      <c r="AI114" s="77"/>
+      <c r="AG114" s="162"/>
+      <c r="AH114" s="162"/>
+      <c r="AI114" s="162"/>
       <c r="AJ114" s="52"/>
-      <c r="AK114" s="52"/>
-    </row>
-    <row r="115" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="V115" s="78"/>
-      <c r="W115" s="78"/>
-      <c r="X115" s="79"/>
-      <c r="Y115" s="79"/>
-      <c r="Z115" s="79"/>
-      <c r="AA115" s="79"/>
-      <c r="AB115" s="79"/>
-      <c r="AC115" s="79"/>
-      <c r="AD115" s="79"/>
-      <c r="AE115" s="79"/>
-      <c r="AF115" s="79"/>
-      <c r="AG115" s="79"/>
-      <c r="AH115" s="79"/>
-      <c r="AI115" s="79"/>
+      <c r="AK114" s="64"/>
+    </row>
+    <row r="115" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="52"/>
+      <c r="M115" s="52"/>
+      <c r="O115"/>
+      <c r="AC115" s="52"/>
+      <c r="AD115" s="52"/>
+      <c r="AE115" s="60"/>
+      <c r="AF115" s="60"/>
+      <c r="AG115" s="60"/>
+      <c r="AH115" s="60"/>
+      <c r="AI115" s="60"/>
       <c r="AJ115" s="52"/>
-      <c r="AK115" s="52"/>
-    </row>
-    <row r="116" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="V116" s="78"/>
-      <c r="W116" s="78"/>
-      <c r="X116" s="79"/>
-      <c r="Y116" s="79"/>
-      <c r="Z116" s="79"/>
-      <c r="AA116" s="79"/>
-      <c r="AB116" s="79"/>
-      <c r="AC116" s="79"/>
-      <c r="AD116" s="79"/>
-      <c r="AE116" s="79"/>
-      <c r="AF116" s="79"/>
-      <c r="AG116" s="79"/>
-      <c r="AH116" s="79"/>
-      <c r="AI116" s="79"/>
+      <c r="AK115" s="66"/>
+    </row>
+    <row r="116" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
+      <c r="I116" s="52"/>
+      <c r="K116" s="52"/>
+      <c r="L116" s="52"/>
+      <c r="M116" s="52"/>
+      <c r="O116"/>
+      <c r="AC116" s="52"/>
+      <c r="AD116" s="52"/>
+      <c r="AE116" s="60"/>
+      <c r="AF116" s="67"/>
+      <c r="AG116" s="63"/>
+      <c r="AH116" s="63"/>
+      <c r="AI116" s="67"/>
       <c r="AJ116" s="52"/>
       <c r="AK116" s="52"/>
     </row>
-    <row r="117" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X117" s="52"/>
-      <c r="Y117" s="52"/>
-      <c r="Z117" s="52"/>
-      <c r="AA117" s="52"/>
-      <c r="AB117" s="52"/>
-      <c r="AC117" s="52"/>
+    <row r="117" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="O117"/>
       <c r="AD117" s="52"/>
-      <c r="AE117" s="52"/>
-      <c r="AF117" s="52"/>
-      <c r="AG117" s="52"/>
-      <c r="AH117" s="52"/>
-      <c r="AI117" s="52"/>
-      <c r="AJ117" s="52"/>
-      <c r="AK117" s="52"/>
-    </row>
-    <row r="118" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X118" s="52"/>
-      <c r="Y118" s="52"/>
-      <c r="Z118" s="52"/>
-      <c r="AA118" s="52"/>
-      <c r="AB118" s="52"/>
-      <c r="AC118" s="52"/>
-      <c r="AD118" s="52"/>
+      <c r="AE117" s="69"/>
+      <c r="AF117" s="67"/>
+      <c r="AG117" s="63"/>
+      <c r="AH117" s="63"/>
+      <c r="AI117" s="67"/>
+    </row>
+    <row r="118" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="T118" s="71"/>
+      <c r="U118" s="71"/>
+      <c r="V118" s="72"/>
+      <c r="W118" s="72"/>
       <c r="AE118" s="52"/>
-      <c r="AF118" s="52"/>
-      <c r="AG118" s="52"/>
-      <c r="AH118" s="52"/>
-      <c r="AI118" s="52"/>
-      <c r="AJ118" s="52"/>
-      <c r="AK118" s="52"/>
-    </row>
-    <row r="119" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X119" s="52"/>
-      <c r="Y119" s="52"/>
-      <c r="Z119" s="52"/>
-      <c r="AA119" s="52"/>
-      <c r="AB119" s="52"/>
-      <c r="AC119" s="52"/>
-      <c r="AD119" s="52"/>
+      <c r="AF118" s="67"/>
+      <c r="AG118" s="63"/>
+      <c r="AH118" s="63"/>
+      <c r="AI118" s="67"/>
+    </row>
+    <row r="119" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B119" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="160"/>
+      <c r="T119" s="159"/>
+      <c r="U119" s="159"/>
+      <c r="V119" s="159"/>
+      <c r="W119" s="159"/>
+      <c r="X119" s="159"/>
+      <c r="Y119" s="159"/>
       <c r="AE119" s="52"/>
-      <c r="AF119" s="52"/>
-      <c r="AG119" s="52"/>
-      <c r="AH119" s="52"/>
-      <c r="AI119" s="52"/>
-      <c r="AJ119" s="52"/>
-      <c r="AK119" s="52"/>
-    </row>
-    <row r="120" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X120" s="52"/>
-      <c r="Y120" s="52"/>
-      <c r="Z120" s="52"/>
-      <c r="AA120" s="52"/>
-      <c r="AB120" s="52"/>
-      <c r="AC120" s="52"/>
-      <c r="AD120" s="52"/>
-      <c r="AE120" s="52"/>
-      <c r="AF120" s="52"/>
-      <c r="AG120" s="52"/>
-      <c r="AH120" s="52"/>
-      <c r="AI120" s="52"/>
-      <c r="AJ120" s="52"/>
-      <c r="AK120" s="52"/>
-    </row>
-    <row r="121" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X121" s="52"/>
-      <c r="Y121" s="52"/>
+      <c r="AF119" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG119" s="160"/>
+      <c r="AH119" s="160"/>
+      <c r="AI119" s="160"/>
+    </row>
+    <row r="120" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B120" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="73"/>
+      <c r="T120" s="159"/>
+      <c r="U120" s="159"/>
+      <c r="V120" s="159"/>
+      <c r="W120" s="159"/>
+      <c r="X120" s="159"/>
+      <c r="Y120" s="159"/>
+      <c r="AF120" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG120" s="160"/>
+      <c r="AH120" s="160"/>
+      <c r="AI120" s="160"/>
+    </row>
+    <row r="121" spans="2:37" x14ac:dyDescent="0.2">
       <c r="Z121" s="52"/>
       <c r="AA121" s="52"/>
       <c r="AB121" s="52"/>
@@ -10225,10 +11822,8 @@
       <c r="AG121" s="52"/>
       <c r="AH121" s="52"/>
       <c r="AI121" s="52"/>
-      <c r="AJ121" s="52"/>
-      <c r="AK121" s="52"/>
-    </row>
-    <row r="122" spans="22:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="2:37" x14ac:dyDescent="0.2">
       <c r="X122" s="52"/>
       <c r="Y122" s="52"/>
       <c r="Z122" s="52"/>
@@ -10236,15 +11831,16 @@
       <c r="AB122" s="52"/>
       <c r="AC122" s="52"/>
       <c r="AD122" s="52"/>
-      <c r="AE122" s="52"/>
-      <c r="AF122" s="52"/>
-      <c r="AG122" s="52"/>
-      <c r="AH122" s="52"/>
-      <c r="AI122" s="52"/>
+      <c r="AE122" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF122" s="74"/>
+      <c r="AG122" s="74"/>
+      <c r="AH122" s="74"/>
+      <c r="AI122" s="74"/>
       <c r="AJ122" s="52"/>
-      <c r="AK122" s="52"/>
-    </row>
-    <row r="123" spans="22:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="2:37" x14ac:dyDescent="0.2">
       <c r="X123" s="52"/>
       <c r="Y123" s="52"/>
       <c r="Z123" s="52"/>
@@ -10252,15 +11848,14 @@
       <c r="AB123" s="52"/>
       <c r="AC123" s="52"/>
       <c r="AD123" s="52"/>
-      <c r="AE123" s="52"/>
-      <c r="AF123" s="52"/>
-      <c r="AG123" s="52"/>
-      <c r="AH123" s="52"/>
-      <c r="AI123" s="52"/>
+      <c r="AE123" s="74"/>
+      <c r="AF123" s="74"/>
+      <c r="AG123" s="74"/>
+      <c r="AH123" s="74"/>
+      <c r="AI123" s="74"/>
       <c r="AJ123" s="52"/>
-      <c r="AK123" s="52"/>
-    </row>
-    <row r="124" spans="22:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="2:37" x14ac:dyDescent="0.2">
       <c r="X124" s="52"/>
       <c r="Y124" s="52"/>
       <c r="Z124" s="52"/>
@@ -10268,15 +11863,14 @@
       <c r="AB124" s="52"/>
       <c r="AC124" s="52"/>
       <c r="AD124" s="52"/>
-      <c r="AE124" s="52"/>
-      <c r="AF124" s="52"/>
-      <c r="AG124" s="52"/>
-      <c r="AH124" s="52"/>
-      <c r="AI124" s="52"/>
+      <c r="AE124" s="75"/>
+      <c r="AF124" s="75"/>
+      <c r="AG124" s="75"/>
+      <c r="AH124" s="75"/>
+      <c r="AI124" s="75"/>
       <c r="AJ124" s="52"/>
-      <c r="AK124" s="52"/>
-    </row>
-    <row r="125" spans="22:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="2:37" x14ac:dyDescent="0.2">
       <c r="X125" s="52"/>
       <c r="Y125" s="52"/>
       <c r="Z125" s="52"/>
@@ -10284,15 +11878,15 @@
       <c r="AB125" s="52"/>
       <c r="AC125" s="52"/>
       <c r="AD125" s="52"/>
-      <c r="AE125" s="52"/>
-      <c r="AF125" s="52"/>
-      <c r="AG125" s="52"/>
-      <c r="AH125" s="52"/>
-      <c r="AI125" s="52"/>
+      <c r="AE125" s="74"/>
+      <c r="AF125" s="74"/>
+      <c r="AG125" s="74"/>
+      <c r="AH125" s="74"/>
+      <c r="AI125" s="74"/>
       <c r="AJ125" s="52"/>
       <c r="AK125" s="52"/>
     </row>
-    <row r="126" spans="22:37" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:37" x14ac:dyDescent="0.2">
       <c r="X126" s="52"/>
       <c r="Y126" s="52"/>
       <c r="Z126" s="52"/>
@@ -10300,15 +11894,15 @@
       <c r="AB126" s="52"/>
       <c r="AC126" s="52"/>
       <c r="AD126" s="52"/>
-      <c r="AE126" s="52"/>
-      <c r="AF126" s="52"/>
-      <c r="AG126" s="52"/>
-      <c r="AH126" s="52"/>
-      <c r="AI126" s="52"/>
+      <c r="AE126" s="74"/>
+      <c r="AF126" s="74"/>
+      <c r="AG126" s="74"/>
+      <c r="AH126" s="74"/>
+      <c r="AI126" s="74"/>
       <c r="AJ126" s="52"/>
       <c r="AK126" s="52"/>
     </row>
-    <row r="127" spans="22:37" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:37" x14ac:dyDescent="0.2">
       <c r="X127" s="52"/>
       <c r="Y127" s="52"/>
       <c r="Z127" s="52"/>
@@ -10324,61 +11918,349 @@
       <c r="AJ127" s="52"/>
       <c r="AK127" s="52"/>
     </row>
-    <row r="128" spans="22:37" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="V128" s="76"/>
       <c r="X128" s="52"/>
       <c r="Y128" s="52"/>
-      <c r="Z128" s="52"/>
+      <c r="Z128" s="76"/>
       <c r="AA128" s="52"/>
-      <c r="AB128" s="52"/>
+      <c r="AB128" s="76"/>
       <c r="AC128" s="52"/>
-      <c r="AD128" s="52"/>
-      <c r="AE128" s="52"/>
-      <c r="AF128" s="52"/>
-      <c r="AG128" s="52"/>
-      <c r="AH128" s="52"/>
-      <c r="AI128" s="52"/>
+      <c r="AD128" s="76"/>
+      <c r="AE128" s="76"/>
+      <c r="AF128" s="76"/>
+      <c r="AG128" s="76"/>
+      <c r="AH128" s="76"/>
+      <c r="AI128" s="76"/>
       <c r="AJ128" s="52"/>
-    </row>
-    <row r="129" spans="24:36" x14ac:dyDescent="0.2">
-      <c r="X129" s="52"/>
-      <c r="Y129" s="52"/>
-      <c r="Z129" s="52"/>
-      <c r="AA129" s="52"/>
-      <c r="AB129" s="52"/>
-      <c r="AC129" s="52"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
-      <c r="AF129" s="52"/>
-      <c r="AG129" s="52"/>
-      <c r="AH129" s="52"/>
-      <c r="AI129" s="52"/>
+      <c r="AK128" s="52"/>
+    </row>
+    <row r="129" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V129" s="77"/>
+      <c r="W129" s="77"/>
+      <c r="X129" s="74"/>
+      <c r="Y129" s="74"/>
+      <c r="Z129" s="74"/>
+      <c r="AA129" s="74"/>
+      <c r="AB129" s="74"/>
+      <c r="AC129" s="74"/>
+      <c r="AD129" s="74"/>
+      <c r="AE129" s="74"/>
+      <c r="AF129" s="74"/>
+      <c r="AG129" s="74"/>
+      <c r="AH129" s="74"/>
+      <c r="AI129" s="74"/>
       <c r="AJ129" s="52"/>
-    </row>
-    <row r="130" spans="24:36" x14ac:dyDescent="0.2">
-      <c r="X130" s="52"/>
-      <c r="Y130" s="52"/>
-      <c r="Z130" s="52"/>
-      <c r="AA130" s="52"/>
-      <c r="AB130" s="52"/>
-      <c r="AC130" s="52"/>
-      <c r="AD130" s="52"/>
-      <c r="AE130" s="52"/>
-      <c r="AF130" s="52"/>
-      <c r="AG130" s="52"/>
-      <c r="AH130" s="52"/>
-      <c r="AI130" s="52"/>
+      <c r="AK129" s="52"/>
+    </row>
+    <row r="130" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V130" s="77"/>
+      <c r="W130" s="77"/>
+      <c r="X130" s="74"/>
+      <c r="Y130" s="74"/>
+      <c r="Z130" s="77"/>
+      <c r="AA130" s="74"/>
+      <c r="AB130" s="77"/>
+      <c r="AC130" s="74"/>
+      <c r="AD130" s="77"/>
+      <c r="AE130" s="77"/>
+      <c r="AF130" s="77"/>
+      <c r="AG130" s="77"/>
+      <c r="AH130" s="77"/>
+      <c r="AI130" s="77"/>
       <c r="AJ130" s="52"/>
+      <c r="AK130" s="52"/>
+    </row>
+    <row r="131" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V131" s="77"/>
+      <c r="W131" s="78"/>
+      <c r="X131" s="79"/>
+      <c r="Y131" s="79"/>
+      <c r="Z131" s="77"/>
+      <c r="AA131" s="79"/>
+      <c r="AB131" s="77"/>
+      <c r="AC131" s="79"/>
+      <c r="AD131" s="77"/>
+      <c r="AE131" s="77"/>
+      <c r="AF131" s="77"/>
+      <c r="AG131" s="77"/>
+      <c r="AH131" s="77"/>
+      <c r="AI131" s="77"/>
+      <c r="AJ131" s="52"/>
+      <c r="AK131" s="52"/>
+    </row>
+    <row r="132" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V132" s="78"/>
+      <c r="W132" s="78"/>
+      <c r="X132" s="79"/>
+      <c r="Y132" s="79"/>
+      <c r="Z132" s="79"/>
+      <c r="AA132" s="79"/>
+      <c r="AB132" s="79"/>
+      <c r="AC132" s="79"/>
+      <c r="AD132" s="79"/>
+      <c r="AE132" s="79"/>
+      <c r="AF132" s="79"/>
+      <c r="AG132" s="79"/>
+      <c r="AH132" s="79"/>
+      <c r="AI132" s="79"/>
+      <c r="AJ132" s="52"/>
+      <c r="AK132" s="52"/>
+    </row>
+    <row r="133" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V133" s="78"/>
+      <c r="W133" s="78"/>
+      <c r="X133" s="79"/>
+      <c r="Y133" s="79"/>
+      <c r="Z133" s="79"/>
+      <c r="AA133" s="79"/>
+      <c r="AB133" s="79"/>
+      <c r="AC133" s="79"/>
+      <c r="AD133" s="79"/>
+      <c r="AE133" s="79"/>
+      <c r="AF133" s="79"/>
+      <c r="AG133" s="79"/>
+      <c r="AH133" s="79"/>
+      <c r="AI133" s="79"/>
+      <c r="AJ133" s="52"/>
+      <c r="AK133" s="52"/>
+    </row>
+    <row r="134" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X134" s="52"/>
+      <c r="Y134" s="52"/>
+      <c r="Z134" s="52"/>
+      <c r="AA134" s="52"/>
+      <c r="AB134" s="52"/>
+      <c r="AC134" s="52"/>
+      <c r="AD134" s="52"/>
+      <c r="AE134" s="52"/>
+      <c r="AF134" s="52"/>
+      <c r="AG134" s="52"/>
+      <c r="AH134" s="52"/>
+      <c r="AI134" s="52"/>
+      <c r="AJ134" s="52"/>
+      <c r="AK134" s="52"/>
+    </row>
+    <row r="135" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X135" s="52"/>
+      <c r="Y135" s="52"/>
+      <c r="Z135" s="52"/>
+      <c r="AA135" s="52"/>
+      <c r="AB135" s="52"/>
+      <c r="AC135" s="52"/>
+      <c r="AD135" s="52"/>
+      <c r="AE135" s="52"/>
+      <c r="AF135" s="52"/>
+      <c r="AG135" s="52"/>
+      <c r="AH135" s="52"/>
+      <c r="AI135" s="52"/>
+      <c r="AJ135" s="52"/>
+      <c r="AK135" s="52"/>
+    </row>
+    <row r="136" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X136" s="52"/>
+      <c r="Y136" s="52"/>
+      <c r="Z136" s="52"/>
+      <c r="AA136" s="52"/>
+      <c r="AB136" s="52"/>
+      <c r="AC136" s="52"/>
+      <c r="AD136" s="52"/>
+      <c r="AE136" s="52"/>
+      <c r="AF136" s="52"/>
+      <c r="AG136" s="52"/>
+      <c r="AH136" s="52"/>
+      <c r="AI136" s="52"/>
+      <c r="AJ136" s="52"/>
+      <c r="AK136" s="52"/>
+    </row>
+    <row r="137" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X137" s="52"/>
+      <c r="Y137" s="52"/>
+      <c r="Z137" s="52"/>
+      <c r="AA137" s="52"/>
+      <c r="AB137" s="52"/>
+      <c r="AC137" s="52"/>
+      <c r="AD137" s="52"/>
+      <c r="AE137" s="52"/>
+      <c r="AF137" s="52"/>
+      <c r="AG137" s="52"/>
+      <c r="AH137" s="52"/>
+      <c r="AI137" s="52"/>
+      <c r="AJ137" s="52"/>
+      <c r="AK137" s="52"/>
+    </row>
+    <row r="138" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X138" s="52"/>
+      <c r="Y138" s="52"/>
+      <c r="Z138" s="52"/>
+      <c r="AA138" s="52"/>
+      <c r="AB138" s="52"/>
+      <c r="AC138" s="52"/>
+      <c r="AD138" s="52"/>
+      <c r="AE138" s="52"/>
+      <c r="AF138" s="52"/>
+      <c r="AG138" s="52"/>
+      <c r="AH138" s="52"/>
+      <c r="AI138" s="52"/>
+      <c r="AJ138" s="52"/>
+      <c r="AK138" s="52"/>
+    </row>
+    <row r="139" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X139" s="52"/>
+      <c r="Y139" s="52"/>
+      <c r="Z139" s="52"/>
+      <c r="AA139" s="52"/>
+      <c r="AB139" s="52"/>
+      <c r="AC139" s="52"/>
+      <c r="AD139" s="52"/>
+      <c r="AE139" s="52"/>
+      <c r="AF139" s="52"/>
+      <c r="AG139" s="52"/>
+      <c r="AH139" s="52"/>
+      <c r="AI139" s="52"/>
+      <c r="AJ139" s="52"/>
+      <c r="AK139" s="52"/>
+    </row>
+    <row r="140" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X140" s="52"/>
+      <c r="Y140" s="52"/>
+      <c r="Z140" s="52"/>
+      <c r="AA140" s="52"/>
+      <c r="AB140" s="52"/>
+      <c r="AC140" s="52"/>
+      <c r="AD140" s="52"/>
+      <c r="AE140" s="52"/>
+      <c r="AF140" s="52"/>
+      <c r="AG140" s="52"/>
+      <c r="AH140" s="52"/>
+      <c r="AI140" s="52"/>
+      <c r="AJ140" s="52"/>
+      <c r="AK140" s="52"/>
+    </row>
+    <row r="141" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X141" s="52"/>
+      <c r="Y141" s="52"/>
+      <c r="Z141" s="52"/>
+      <c r="AA141" s="52"/>
+      <c r="AB141" s="52"/>
+      <c r="AC141" s="52"/>
+      <c r="AD141" s="52"/>
+      <c r="AE141" s="52"/>
+      <c r="AF141" s="52"/>
+      <c r="AG141" s="52"/>
+      <c r="AH141" s="52"/>
+      <c r="AI141" s="52"/>
+      <c r="AJ141" s="52"/>
+      <c r="AK141" s="52"/>
+    </row>
+    <row r="142" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X142" s="52"/>
+      <c r="Y142" s="52"/>
+      <c r="Z142" s="52"/>
+      <c r="AA142" s="52"/>
+      <c r="AB142" s="52"/>
+      <c r="AC142" s="52"/>
+      <c r="AD142" s="52"/>
+      <c r="AE142" s="52"/>
+      <c r="AF142" s="52"/>
+      <c r="AG142" s="52"/>
+      <c r="AH142" s="52"/>
+      <c r="AI142" s="52"/>
+      <c r="AJ142" s="52"/>
+      <c r="AK142" s="52"/>
+    </row>
+    <row r="143" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X143" s="52"/>
+      <c r="Y143" s="52"/>
+      <c r="Z143" s="52"/>
+      <c r="AA143" s="52"/>
+      <c r="AB143" s="52"/>
+      <c r="AC143" s="52"/>
+      <c r="AD143" s="52"/>
+      <c r="AE143" s="52"/>
+      <c r="AF143" s="52"/>
+      <c r="AG143" s="52"/>
+      <c r="AH143" s="52"/>
+      <c r="AI143" s="52"/>
+      <c r="AJ143" s="52"/>
+      <c r="AK143" s="52"/>
+    </row>
+    <row r="144" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X144" s="52"/>
+      <c r="Y144" s="52"/>
+      <c r="Z144" s="52"/>
+      <c r="AA144" s="52"/>
+      <c r="AB144" s="52"/>
+      <c r="AC144" s="52"/>
+      <c r="AD144" s="52"/>
+      <c r="AE144" s="52"/>
+      <c r="AF144" s="52"/>
+      <c r="AG144" s="52"/>
+      <c r="AH144" s="52"/>
+      <c r="AI144" s="52"/>
+      <c r="AJ144" s="52"/>
+      <c r="AK144" s="52"/>
+    </row>
+    <row r="145" spans="24:36" x14ac:dyDescent="0.2">
+      <c r="X145" s="52"/>
+      <c r="Y145" s="52"/>
+      <c r="Z145" s="52"/>
+      <c r="AA145" s="52"/>
+      <c r="AB145" s="52"/>
+      <c r="AC145" s="52"/>
+      <c r="AD145" s="52"/>
+      <c r="AE145" s="52"/>
+      <c r="AF145" s="52"/>
+      <c r="AG145" s="52"/>
+      <c r="AH145" s="52"/>
+      <c r="AI145" s="52"/>
+      <c r="AJ145" s="52"/>
+    </row>
+    <row r="146" spans="24:36" x14ac:dyDescent="0.2">
+      <c r="X146" s="52"/>
+      <c r="Y146" s="52"/>
+      <c r="Z146" s="52"/>
+      <c r="AA146" s="52"/>
+      <c r="AB146" s="52"/>
+      <c r="AC146" s="52"/>
+      <c r="AD146" s="52"/>
+      <c r="AE146" s="52"/>
+      <c r="AF146" s="52"/>
+      <c r="AG146" s="52"/>
+      <c r="AH146" s="52"/>
+      <c r="AI146" s="52"/>
+      <c r="AJ146" s="52"/>
+    </row>
+    <row r="147" spans="24:36" x14ac:dyDescent="0.2">
+      <c r="X147" s="52"/>
+      <c r="Y147" s="52"/>
+      <c r="Z147" s="52"/>
+      <c r="AA147" s="52"/>
+      <c r="AB147" s="52"/>
+      <c r="AC147" s="52"/>
+      <c r="AD147" s="52"/>
+      <c r="AE147" s="52"/>
+      <c r="AF147" s="52"/>
+      <c r="AG147" s="52"/>
+      <c r="AH147" s="52"/>
+      <c r="AI147" s="52"/>
+      <c r="AJ147" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T103:Y103"/>
-    <mergeCell ref="AF103:AI103"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="AF97:AI97"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="T102:Y102"/>
-    <mergeCell ref="AF102:AI102"/>
+    <mergeCell ref="T120:Y120"/>
+    <mergeCell ref="AF120:AI120"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="AF114:AI114"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="T119:Y119"/>
+    <mergeCell ref="AF119:AI119"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AJ5:AK7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -10395,11 +12277,6 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -10420,4 +12297,4408 @@
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2909FC1-85D7-2845-970A-4AF6BA3F4156}">
+  <dimension ref="A1:AL59"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="70" customWidth="1"/>
+    <col min="16" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="10" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="23" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="13.5" customWidth="1"/>
+    <col min="27" max="27" width="12.5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="32" max="34" width="11.5" customWidth="1"/>
+    <col min="35" max="35" width="13" customWidth="1"/>
+    <col min="36" max="36" width="3.5" customWidth="1"/>
+    <col min="37" max="37" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="2"/>
+    </row>
+    <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="153" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ5" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="3"/>
+    </row>
+    <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="139"/>
+      <c r="O6" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="S6" s="150" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="151"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD6" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="3"/>
+    </row>
+    <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="153"/>
+      <c r="W7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="153"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="147"/>
+      <c r="AL7" s="3"/>
+    </row>
+    <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14">
+        <f>I8*(SUM(J8:M8))*80%</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17">
+        <f>I8*J8*40%*O8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <f>IF(P8&gt;=6750,(I8*J8*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <f>IF(P8&lt;6750,0,IF(Q8="kurang",I8*J8*10%,I8*J8*20%))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <f>ROUND(SUM(S8:U8)*80%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <f>I8*K8*40%*O8</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <f>IF(P8&gt;=6750,(I8*K8*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <f>IF(P8&lt;6750,0,IF(Q8="kurang",I8*K8*10%,I8*K8*20%))</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>ROUND(SUM(W8:Y8)*80%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>I8*L8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <f>AA8*80%</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <f>I8*M8</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <f>AC8*80%</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f>+V8+Z8+AB8+AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19">
+        <f>ROUND(AE8*R8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="17">
+        <f>AE8-AF8-AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14">
+        <f t="shared" ref="N9:N22" si="0">I9*(SUM(J9:M9))*80%</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17">
+        <f t="shared" ref="S9:S22" si="1">I9*J9*40%*O9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <f t="shared" ref="T9:T22" si="2">IF(P9&gt;=6750,(I9*J9*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" ref="U9:U22" si="3">IF(P9&lt;6750,0,IF(Q9="kurang",I9*J9*10%,I9*J9*20%))</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <f t="shared" ref="V9:V22" si="4">ROUND(SUM(S9:U9)*80%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <f t="shared" ref="W9:W22" si="5">I9*K9*40%*O9</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" ref="X9:X22" si="6">IF(P9&gt;=6750,(I9*K9*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
+        <f t="shared" ref="Y9:Y22" si="7">I9*K9*20%</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <f t="shared" ref="Z9:Z22" si="8">ROUND(SUM(W9:Y9)*80%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="18">
+        <f t="shared" ref="AE9:AE22" si="9">+V9+Z9+AB9+AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19">
+        <f t="shared" ref="AF9:AF22" si="10">ROUND(AE9*R9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="17">
+        <f t="shared" ref="AI9:AI22" si="11">AE9-AF9-AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="21">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="21">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="21">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="21">
+        <v>8</v>
+      </c>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="21">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="3"/>
+    </row>
+    <row r="17" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="21">
+        <v>10</v>
+      </c>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="3"/>
+    </row>
+    <row r="18" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="21">
+        <v>11</v>
+      </c>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="3"/>
+    </row>
+    <row r="19" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="17">
+        <f t="shared" ref="AA19" si="12">I19*L19</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="17">
+        <f>AA19*80%</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17">
+        <f t="shared" ref="AC19" si="13">I19*M19</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
+        <f>AC19*80%</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="3"/>
+    </row>
+    <row r="20" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="86"/>
+      <c r="C20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>13</v>
+      </c>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="3"/>
+    </row>
+    <row r="21" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="87"/>
+      <c r="C21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="21">
+        <v>14</v>
+      </c>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="3"/>
+    </row>
+    <row r="22" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="21">
+        <v>15</v>
+      </c>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="3"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="14">
+        <f>I23*(SUM(K23:M23))</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="56">
+        <f>SUM(V8:V22)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="56">
+        <f>SUM(Z8:Z22)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="17">
+        <f t="shared" ref="AB23" si="14">AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="17">
+        <f t="shared" ref="AD23" si="15">AC23</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="56">
+        <f t="shared" ref="AE23:AI23" si="16">SUM(AE8:AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="59"/>
+    </row>
+    <row r="24" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="17"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="89"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="94"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B25" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="161"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="167"/>
+      <c r="V25" s="167"/>
+      <c r="W25" s="167"/>
+      <c r="X25" s="167"/>
+      <c r="Y25" s="167"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="94"/>
+    </row>
+    <row r="26" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AF26" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="162"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="64"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="66"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="AB29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="67"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="67"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B31" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="160"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG31" s="160"/>
+      <c r="AH31" s="160"/>
+      <c r="AI31" s="160"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B32" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="159"/>
+      <c r="X32" s="159"/>
+      <c r="Y32" s="159"/>
+      <c r="AF32" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="160"/>
+    </row>
+    <row r="33" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+    </row>
+    <row r="34" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="52"/>
+    </row>
+    <row r="35" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="52"/>
+    </row>
+    <row r="36" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="52"/>
+    </row>
+    <row r="37" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="74"/>
+      <c r="AJ37" s="52"/>
+      <c r="AK37" s="52"/>
+    </row>
+    <row r="38" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="74"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="74"/>
+      <c r="AI38" s="74"/>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
+    </row>
+    <row r="39" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+    </row>
+    <row r="40" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V40" s="76"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="76"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="76"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="76"/>
+      <c r="AG40" s="76"/>
+      <c r="AH40" s="76"/>
+      <c r="AI40" s="76"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+    </row>
+    <row r="41" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="74"/>
+      <c r="AI41" s="74"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+    </row>
+    <row r="42" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="77"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="77"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="77"/>
+      <c r="AE42" s="77"/>
+      <c r="AF42" s="77"/>
+      <c r="AG42" s="77"/>
+      <c r="AH42" s="77"/>
+      <c r="AI42" s="77"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+    </row>
+    <row r="43" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V43" s="77"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="77"/>
+      <c r="AC43" s="79"/>
+      <c r="AD43" s="77"/>
+      <c r="AE43" s="77"/>
+      <c r="AF43" s="77"/>
+      <c r="AG43" s="77"/>
+      <c r="AH43" s="77"/>
+      <c r="AI43" s="77"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+    </row>
+    <row r="44" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="79"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="79"/>
+      <c r="AA44" s="79"/>
+      <c r="AB44" s="79"/>
+      <c r="AC44" s="79"/>
+      <c r="AD44" s="79"/>
+      <c r="AE44" s="79"/>
+      <c r="AF44" s="79"/>
+      <c r="AG44" s="79"/>
+      <c r="AH44" s="79"/>
+      <c r="AI44" s="79"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+    </row>
+    <row r="45" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V45" s="78"/>
+      <c r="W45" s="78"/>
+      <c r="X45" s="79"/>
+      <c r="Y45" s="79"/>
+      <c r="Z45" s="79"/>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="79"/>
+      <c r="AC45" s="79"/>
+      <c r="AD45" s="79"/>
+      <c r="AE45" s="79"/>
+      <c r="AF45" s="79"/>
+      <c r="AG45" s="79"/>
+      <c r="AH45" s="79"/>
+      <c r="AI45" s="79"/>
+      <c r="AJ45" s="52"/>
+      <c r="AK45" s="52"/>
+    </row>
+    <row r="46" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="52"/>
+    </row>
+    <row r="47" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+    </row>
+    <row r="48" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+    </row>
+    <row r="49" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+    </row>
+    <row r="50" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52"/>
+    </row>
+    <row r="51" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+    </row>
+    <row r="52" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+    </row>
+    <row r="53" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52"/>
+    </row>
+    <row r="54" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+      <c r="AK54" s="52"/>
+    </row>
+    <row r="55" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52"/>
+    </row>
+    <row r="56" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+    </row>
+    <row r="57" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+    </row>
+    <row r="58" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
+    </row>
+    <row r="59" spans="24:37" x14ac:dyDescent="0.2">
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="52"/>
+      <c r="AH59" s="52"/>
+      <c r="AI59" s="52"/>
+      <c r="AJ59" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
+  <dimension ref="A1:AL54"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="70" customWidth="1"/>
+    <col min="16" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="10" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="23" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="13.5" customWidth="1"/>
+    <col min="27" max="27" width="12.5" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="29" max="29" width="12.5" customWidth="1"/>
+    <col min="30" max="30" width="13.5" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="32" max="34" width="11.5" customWidth="1"/>
+    <col min="35" max="35" width="13" customWidth="1"/>
+    <col min="36" max="36" width="3.5" customWidth="1"/>
+    <col min="37" max="37" width="17" customWidth="1"/>
+    <col min="38" max="38" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="99"/>
+    </row>
+    <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="99"/>
+    </row>
+    <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="100"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="153" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ5" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="117"/>
+    </row>
+    <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="139"/>
+      <c r="O6" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="S6" s="150" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="151"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD6" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="117"/>
+    </row>
+    <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="153"/>
+      <c r="W7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="153"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="147"/>
+      <c r="AL7" s="117"/>
+    </row>
+    <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14">
+        <f>I8*(SUM(J8:M8))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="17">
+        <f>I8*J8*40%*O8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <f>IF(P8&gt;=6750,(I8*J8*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <f>IF(Q8="Baik",(I8*J8*20%),(I8*J8*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <f>ROUND(SUM(S8:U8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <f>I8*K8*40%*O8</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <f>IF(P8&gt;=6750,(I8*K8*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <f>IF(Q8="Baik",(I8*K8*20%),(I8*K8*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>SUM(W8:Y8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>I8*L8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <f>AA8</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <f>I8*M8</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <f>AC8*20%</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f>+V8+Z8+AB8+AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19">
+        <f>AE8*R8</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="17">
+        <f t="shared" ref="AI8:AI14" si="0">AE8-AF8-AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="117"/>
+    </row>
+    <row r="9" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="14">
+        <f>I9*(SUM(J9:M9))</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="14">
+        <f t="shared" ref="S9:S14" si="1">I9*J9*40%*O9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" ref="T9:T14" si="2">IF(P9&gt;=6750,(I9*J9*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" ref="U9:U14" si="3">IF(Q9="Baik",(I9*J9*20%),(I9*J9*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <f>ROUND(SUM(S9:U9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <f t="shared" ref="W9:W14" si="4">I9*K9*40%*O9</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <f t="shared" ref="X9:X14" si="5">IF(P9&gt;=6750,(I9*K9*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" ref="Y9:Y14" si="6">IF(Q9="Baik",(I9*K9*20%),(I9*K9*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>SUM(W9:Y9)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" ref="AA9:AA14" si="7">I9*L9</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
+        <f t="shared" ref="AC9:AC14" si="8">I9*M9</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <f>AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="18">
+        <f t="shared" ref="AE9:AE14" si="9">+V9+Z9+AB9+AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19">
+        <f t="shared" ref="AF9:AF15" si="10">AE9*R9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="117"/>
+    </row>
+    <row r="10" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="119">
+        <f t="shared" ref="N10:N15" si="11">I10*(SUM(J10:M10))*20%</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="17">
+        <f t="shared" ref="S10:S13" si="12">I10*J10*40%*O10</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" ref="T10:T13" si="13">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" ref="U10:U13" si="14">IF(Q10="Baik",(I10*J10*20%),(I10*J10*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="119">
+        <f t="shared" ref="V10:V15" si="15">ROUND(SUM(S10:U10)*20%,)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" ref="W10:W13" si="16">I10*K10*40%*O10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" ref="X10:X13" si="17">IF(P10&gt;=6750,(I10*K10*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="17">
+        <f t="shared" ref="Y10:Y13" si="18">IF(Q10="Baik",(I10*K10*20%),(I10*K10*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="119">
+        <f t="shared" ref="Z10:Z15" si="19">SUM(W10:Y10)*20%</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" ref="AA10:AA13" si="20">I10*L10</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="119">
+        <f t="shared" ref="AB10:AB15" si="21">AA10*20%</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <f t="shared" ref="AC10:AC13" si="22">I10*M10</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
+        <f t="shared" ref="AD10:AD13" si="23">AC10*20%</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="120">
+        <f t="shared" ref="AE10:AE13" si="24">+V10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="118">
+        <f t="shared" ref="AI10:AI13" si="25">AE10-AF10-AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="117"/>
+    </row>
+    <row r="11" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="119">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="120">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="118">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="117"/>
+    </row>
+    <row r="12" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="119">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="120">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="118">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="21">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="117"/>
+    </row>
+    <row r="13" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="119">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="120">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="118">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="21">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="117"/>
+    </row>
+    <row r="14" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="119">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <f t="shared" ref="AD14:AD15" si="26">AC14*20%</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="120">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="21">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="117"/>
+    </row>
+    <row r="15" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="17">
+        <f t="shared" ref="S15" si="27">I15*J15*40%*O15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" ref="T15" si="28">IF(P15&gt;=6750,(I15*J15*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" ref="U15" si="29">IF(Q15="Baik",(I15*J15*20%),(I15*J15*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="17">
+        <f t="shared" ref="W15" si="30">I15*K15*40%*O15</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" ref="X15" si="31">IF(P15&gt;=6750,(I15*K15*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17">
+        <f t="shared" ref="Y15" si="32">IF(Q15="Baik",(I15*K15*20%),(I15*K15*10%))</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17">
+        <f t="shared" ref="AA15" si="33">I15*L15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="119">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <f t="shared" ref="AC15" si="34">I15*M15</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="120">
+        <f t="shared" ref="AE15" si="35">+V15+Z15+AB15+AD15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="118">
+        <f t="shared" ref="AI15" si="36">AE15-AF15-AG15</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="21">
+        <v>8</v>
+      </c>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="117"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="14">
+        <f>I16*(SUM(K16:M16))</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="56">
+        <f>SUM(V8:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="56">
+        <f>SUM(Z8:Z15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="17">
+        <f t="shared" ref="AB16" si="37">AA16</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="17">
+        <f t="shared" ref="AD16" si="38">AC16</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="56">
+        <f>SUM(AE8:AE15)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="56">
+        <f>SUM(AF8:AF15)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="56">
+        <f>SUM(AG8:AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="56">
+        <f>SUM(AH8:AH14)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="56">
+        <f>SUM(AI8:AI15)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="52"/>
+    </row>
+    <row r="17" spans="2:38" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="91"/>
+    </row>
+    <row r="18" spans="2:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="91"/>
+    </row>
+    <row r="19" spans="2:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="91"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="161"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="2:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="162"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="64"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="171"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="171"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="AB24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="67"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="67"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B26" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="159"/>
+      <c r="Y26" s="159"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B27" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="159"/>
+      <c r="Y27" s="159"/>
+      <c r="AF27" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG27" s="160"/>
+      <c r="AH27" s="160"/>
+      <c r="AI27" s="160"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="52"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="52"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="52"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
+      <c r="AI32" s="74"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B34" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="V35" s="76"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
+      <c r="AI35" s="76"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B36" s="103"/>
+      <c r="C36" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="V36" s="77"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="52"/>
+      <c r="AL36" s="52"/>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B37" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="77"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="77"/>
+      <c r="AE37" s="77"/>
+      <c r="AF37" s="77"/>
+      <c r="AG37" s="77"/>
+      <c r="AH37" s="77"/>
+      <c r="AI37" s="77"/>
+      <c r="AJ37" s="52"/>
+      <c r="AK37" s="52"/>
+      <c r="AL37" s="52"/>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B38" s="108"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="106"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="77"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="77"/>
+      <c r="AE38" s="77"/>
+      <c r="AF38" s="77"/>
+      <c r="AG38" s="77"/>
+      <c r="AH38" s="77"/>
+      <c r="AI38" s="77"/>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
+      <c r="AL38" s="52"/>
+    </row>
+    <row r="39" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="168" t="s">
+        <v>159</v>
+      </c>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B40" s="108"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="169"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="79"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B41" s="109"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B42" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="112"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+    </row>
+    <row r="43" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="113"/>
+      <c r="C43" s="170" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="170"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B44" s="102"/>
+      <c r="C44" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+    </row>
+    <row r="45" spans="2:38" ht="32" x14ac:dyDescent="0.2">
+      <c r="B45" s="114"/>
+      <c r="C45" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="52"/>
+      <c r="AH45" s="52"/>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="52"/>
+      <c r="AK45" s="52"/>
+      <c r="AL45" s="52"/>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="52"/>
+      <c r="AL46" s="52"/>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
+    </row>
+    <row r="49" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+      <c r="AL49" s="52"/>
+    </row>
+    <row r="50" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52"/>
+      <c r="AL50" s="52"/>
+    </row>
+    <row r="51" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+    </row>
+    <row r="52" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+    </row>
+    <row r="53" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+    </row>
+    <row r="54" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A87DDB-DE0A-784F-A2B2-DCB9AE7B5F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFCA9E-3813-514C-A441-D45E7B824439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="168">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>pada sheet PLT BKD Diklat (pada sheet reguler TPP Kepala BKD = 0)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1789,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AL147"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:Q110"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1949,6 +1952,9 @@
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -14706,7 +14712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8:Q15"/>
     </sheetView>
   </sheetViews>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7196030-9956-0A43-870A-C17912DC4A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C4780-0099-F04B-ACCD-008D2A83B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="214">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>58</t>
@@ -1927,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AL192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="AJ107" sqref="AJ107:AJ155"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2091,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O4"/>
     </row>
@@ -2135,7 +2138,7 @@
       <c r="P5" s="161"/>
       <c r="Q5" s="162"/>
       <c r="R5" s="123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S5" s="163" t="s">
         <v>13</v>
@@ -7533,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK64" s="31"/>
       <c r="AL64" s="3"/>
@@ -7625,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK65" s="39"/>
     </row>
@@ -7716,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK66" s="40"/>
     </row>
@@ -7807,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" s="37"/>
     </row>
@@ -7898,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK68" s="37"/>
     </row>
@@ -7989,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK69" s="37"/>
     </row>
@@ -8080,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK70" s="41"/>
     </row>
@@ -8171,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" s="37"/>
     </row>
@@ -8262,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK72" s="37"/>
     </row>
@@ -8353,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK73" s="40"/>
       <c r="AL73" s="48"/>
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK74" s="39"/>
     </row>
@@ -8536,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK75" s="37"/>
     </row>
@@ -8627,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK76" s="37"/>
     </row>
@@ -8718,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK77" s="37"/>
     </row>
@@ -8809,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK78" s="37"/>
     </row>
@@ -8900,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK79" s="37"/>
     </row>
@@ -8991,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK80" s="41"/>
     </row>
@@ -9082,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK81" s="41"/>
     </row>
@@ -9173,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK82" s="41"/>
     </row>
@@ -9264,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="AJ83" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK83" s="37"/>
     </row>
@@ -9355,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK84" s="40"/>
     </row>
@@ -9446,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK85" s="37"/>
     </row>
@@ -9537,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK86" s="40"/>
     </row>
@@ -9628,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="AJ87" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK87" s="39"/>
     </row>
@@ -9719,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK88" s="41"/>
     </row>
@@ -9810,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK89" s="41"/>
     </row>
@@ -9901,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK90" s="41"/>
     </row>
@@ -9992,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK91" s="37"/>
     </row>
@@ -10083,13 +10086,13 @@
         <v>0</v>
       </c>
       <c r="AJ92" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK92" s="40"/>
     </row>
     <row r="93" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B93" s="29"/>
       <c r="C93" s="79"/>
@@ -10174,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK93" s="37"/>
     </row>
@@ -10265,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK94" s="40"/>
     </row>
@@ -10356,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK95" s="39"/>
     </row>
@@ -10447,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK96" s="41"/>
     </row>
@@ -10538,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK97" s="41"/>
     </row>
@@ -10629,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK98" s="41"/>
     </row>
@@ -10720,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK99" s="37"/>
     </row>
@@ -10811,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK100" s="40"/>
     </row>
@@ -10902,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK101" s="37"/>
     </row>
@@ -10993,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK102" s="40"/>
     </row>
@@ -11084,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK103" s="39"/>
     </row>
@@ -11175,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AJ104" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK104" s="40"/>
     </row>
@@ -11266,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK105" s="49"/>
     </row>
@@ -11357,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK106" s="39"/>
     </row>
@@ -11448,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK107" s="37"/>
     </row>
@@ -11539,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK108" s="49"/>
     </row>
@@ -11630,14 +11633,14 @@
         <v>0</v>
       </c>
       <c r="AJ109" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK109" s="31"/>
       <c r="AL109" s="3"/>
     </row>
     <row r="110" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="79"/>
@@ -11722,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="AJ110" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK110" s="31"/>
       <c r="AL110" s="3"/>
@@ -11814,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK111" s="39"/>
     </row>
@@ -11905,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="AJ112" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK112" s="40"/>
     </row>
@@ -11996,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="AJ113" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK113" s="37"/>
     </row>
@@ -12087,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="AJ114" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK114" s="37"/>
     </row>
@@ -12178,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="AJ115" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK115" s="37"/>
     </row>
@@ -12269,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="AJ116" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK116" s="41"/>
     </row>
@@ -12360,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AJ117" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK117" s="37"/>
     </row>
@@ -12451,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="AJ118" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK118" s="37"/>
     </row>
@@ -12542,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK119" s="40"/>
       <c r="AL119" s="48"/>
@@ -12634,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="AJ120" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK120" s="39"/>
     </row>
@@ -12725,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK121" s="37"/>
     </row>
@@ -12816,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AK122" s="37"/>
     </row>
@@ -12907,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="AJ123" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK123" s="37"/>
     </row>
@@ -12998,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK124" s="37"/>
     </row>
@@ -13089,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK125" s="37"/>
     </row>
@@ -13180,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK126" s="41"/>
     </row>
@@ -13271,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="AJ127" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK127" s="41"/>
     </row>
@@ -13362,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="AJ128" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK128" s="41"/>
     </row>
@@ -13453,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AJ129" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK129" s="37"/>
     </row>
@@ -13544,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="AJ130" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK130" s="40"/>
     </row>
@@ -13635,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AJ131" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK131" s="37"/>
     </row>
@@ -13726,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="AJ132" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK132" s="40"/>
     </row>
@@ -13817,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AJ133" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK133" s="39"/>
     </row>
@@ -13908,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="AJ134" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK134" s="41"/>
     </row>
@@ -13999,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="AJ135" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK135" s="41"/>
     </row>
@@ -14090,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="AJ136" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK136" s="41"/>
     </row>
@@ -14181,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="AJ137" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AK137" s="37"/>
     </row>
@@ -14272,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="AJ138" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK138" s="40"/>
     </row>
@@ -14363,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="AJ139" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK139" s="37"/>
     </row>
@@ -14454,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="AJ140" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK140" s="40"/>
     </row>
@@ -14545,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="AJ141" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK141" s="39"/>
     </row>
@@ -14636,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="AJ142" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK142" s="41"/>
     </row>
@@ -14727,7 +14730,7 @@
         <v>0</v>
       </c>
       <c r="AJ143" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK143" s="41"/>
     </row>
@@ -14818,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="AJ144" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK144" s="41"/>
     </row>
@@ -14909,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="AJ145" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK145" s="37"/>
     </row>
@@ -15000,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="AJ146" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK146" s="40"/>
     </row>
@@ -15091,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="AJ147" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK147" s="37"/>
     </row>
@@ -15182,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="AJ148" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK148" s="40"/>
     </row>
@@ -15273,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="AJ149" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK149" s="39"/>
     </row>
@@ -15364,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="AJ150" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK150" s="40"/>
     </row>
@@ -15455,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="AJ151" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK151" s="49"/>
     </row>
@@ -15546,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="AJ152" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK152" s="39"/>
     </row>
@@ -15637,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="AJ153" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK153" s="37"/>
     </row>
@@ -15728,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="AJ154" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK154" s="49"/>
     </row>
@@ -15819,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="AJ155" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK155" s="37"/>
     </row>
@@ -16587,7 +16590,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="148" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -16629,7 +16632,7 @@
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="148" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -16671,7 +16674,7 @@
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="169" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="169"/>
       <c r="C3" s="169"/>
@@ -16749,7 +16752,7 @@
       <c r="L5" s="158"/>
       <c r="M5" s="159"/>
       <c r="N5" s="139" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O5" s="160" t="s">
         <v>12</v>
@@ -16823,7 +16826,7 @@
         <v>25</v>
       </c>
       <c r="R6" s="99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S6" s="141" t="s">
         <v>19</v>
@@ -16883,7 +16886,7 @@
       <c r="P7" s="124"/>
       <c r="Q7" s="124"/>
       <c r="R7" s="96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>31</v>
@@ -18984,7 +18987,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -19216,7 +19219,7 @@
         <v>25</v>
       </c>
       <c r="R6" s="99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S6" s="141" t="s">
         <v>19</v>
@@ -19276,7 +19279,7 @@
       <c r="P7" s="124"/>
       <c r="Q7" s="124"/>
       <c r="R7" s="96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>31</v>
@@ -20471,7 +20474,7 @@
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B34" s="120" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X34" s="50"/>
       <c r="Y34" s="50"/>
@@ -20510,10 +20513,10 @@
     <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" s="101"/>
       <c r="C36" s="102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V36" s="75"/>
       <c r="W36" s="75"/>
@@ -20535,13 +20538,13 @@
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B37" s="103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V37" s="75"/>
       <c r="W37" s="75"/>
@@ -20585,13 +20588,13 @@
     </row>
     <row r="39" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D39" s="165" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V39" s="76"/>
       <c r="W39" s="76"/>
@@ -20655,10 +20658,10 @@
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B42" s="108" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" s="109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D42" s="110"/>
       <c r="X42" s="50"/>
@@ -20680,7 +20683,7 @@
     <row r="43" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="111"/>
       <c r="C43" s="167" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" s="167"/>
       <c r="X43" s="50"/>
@@ -20702,10 +20705,10 @@
     <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B44" s="100"/>
       <c r="C44" s="121" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" s="122" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X44" s="50"/>
       <c r="Y44" s="50"/>
@@ -20726,10 +20729,10 @@
     <row r="45" spans="2:38" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" s="112"/>
       <c r="C45" s="113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" s="114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X45" s="50"/>
       <c r="Y45" s="50"/>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E070298-5A6F-4742-B04C-2C1FC787F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B302ACA4-B5AE-624D-B00B-2295A05C9103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1459,6 +1459,84 @@
     <xf numFmtId="166" fontId="7" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,12 +1576,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,75 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1599,9 +1602,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1927,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AL192"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1965,125 +1965,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
+      <c r="A1" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2093,174 +2093,174 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="136" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="138" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="146" t="s">
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="141" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="161" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="161" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="162" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="151" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="142" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="143"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="136" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="146" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="146" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="146" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="147"/>
-      <c r="S6" s="148" t="s">
+      <c r="R6" s="125"/>
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="149"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="151" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="152" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="153" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="154" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="154" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="155" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="155" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="164" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="144"/>
-      <c r="AK6" s="145"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="156"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="126"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="151"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2280,18 +2280,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="155"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="144"/>
-      <c r="AK7" s="145"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <f t="shared" ref="N8:N155" si="0">ROUND(I8*(SUM(J8:M8)),0)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="170"/>
+      <c r="O8" s="123"/>
       <c r="P8" s="121"/>
       <c r="Q8" s="121"/>
       <c r="R8" s="80"/>
@@ -2406,7 +2406,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="170"/>
+      <c r="O9" s="123"/>
       <c r="P9" s="121"/>
       <c r="Q9" s="122"/>
       <c r="R9" s="80"/>
@@ -2498,7 +2498,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="170"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="121"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="80"/>
@@ -2590,7 +2590,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="170"/>
+      <c r="O11" s="123"/>
       <c r="P11" s="121"/>
       <c r="Q11" s="121"/>
       <c r="R11" s="80"/>
@@ -2682,7 +2682,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="170"/>
+      <c r="O12" s="123"/>
       <c r="P12" s="121"/>
       <c r="Q12" s="121"/>
       <c r="R12" s="80"/>
@@ -2774,7 +2774,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="170"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="121"/>
       <c r="Q13" s="121"/>
       <c r="R13" s="80"/>
@@ -2866,7 +2866,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="170"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="121"/>
       <c r="Q14" s="121"/>
       <c r="R14" s="80"/>
@@ -2958,7 +2958,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="170"/>
+      <c r="O15" s="123"/>
       <c r="P15" s="121"/>
       <c r="Q15" s="121"/>
       <c r="R15" s="80"/>
@@ -3050,7 +3050,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="170"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="121"/>
       <c r="Q16" s="121"/>
       <c r="R16" s="80"/>
@@ -3142,7 +3142,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="170"/>
+      <c r="O17" s="123"/>
       <c r="P17" s="121"/>
       <c r="Q17" s="121"/>
       <c r="R17" s="80"/>
@@ -3234,7 +3234,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="170"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="121"/>
       <c r="Q18" s="121"/>
       <c r="R18" s="80"/>
@@ -3326,7 +3326,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="170"/>
+      <c r="O19" s="123"/>
       <c r="P19" s="121"/>
       <c r="Q19" s="121"/>
       <c r="R19" s="80"/>
@@ -3418,7 +3418,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="170"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="121"/>
       <c r="Q20" s="121"/>
       <c r="R20" s="80"/>
@@ -3510,7 +3510,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="170"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="121"/>
       <c r="Q21" s="121"/>
       <c r="R21" s="80"/>
@@ -3602,7 +3602,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="170"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="121"/>
       <c r="Q22" s="121"/>
       <c r="R22" s="80"/>
@@ -3694,7 +3694,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="170"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="121"/>
       <c r="Q23" s="121"/>
       <c r="R23" s="80"/>
@@ -3786,7 +3786,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="170"/>
+      <c r="O24" s="123"/>
       <c r="P24" s="121"/>
       <c r="Q24" s="121"/>
       <c r="R24" s="80"/>
@@ -3878,7 +3878,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="170"/>
+      <c r="O25" s="123"/>
       <c r="P25" s="121"/>
       <c r="Q25" s="121"/>
       <c r="R25" s="80"/>
@@ -3970,7 +3970,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="170"/>
+      <c r="O26" s="123"/>
       <c r="P26" s="121"/>
       <c r="Q26" s="121"/>
       <c r="R26" s="80"/>
@@ -4062,7 +4062,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="170"/>
+      <c r="O27" s="123"/>
       <c r="P27" s="121"/>
       <c r="Q27" s="121"/>
       <c r="R27" s="80"/>
@@ -4154,7 +4154,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="170"/>
+      <c r="O28" s="123"/>
       <c r="P28" s="121"/>
       <c r="Q28" s="121"/>
       <c r="R28" s="80"/>
@@ -4246,7 +4246,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="170"/>
+      <c r="O29" s="123"/>
       <c r="P29" s="121"/>
       <c r="Q29" s="121"/>
       <c r="R29" s="80"/>
@@ -4338,7 +4338,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="170"/>
+      <c r="O30" s="123"/>
       <c r="P30" s="121"/>
       <c r="Q30" s="121"/>
       <c r="R30" s="80"/>
@@ -4430,7 +4430,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="170"/>
+      <c r="O31" s="123"/>
       <c r="P31" s="121"/>
       <c r="Q31" s="121"/>
       <c r="R31" s="80"/>
@@ -4522,7 +4522,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="170"/>
+      <c r="O32" s="123"/>
       <c r="P32" s="121"/>
       <c r="Q32" s="121"/>
       <c r="R32" s="80"/>
@@ -4614,7 +4614,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="170"/>
+      <c r="O33" s="123"/>
       <c r="P33" s="121"/>
       <c r="Q33" s="121"/>
       <c r="R33" s="80"/>
@@ -4706,7 +4706,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O34" s="170"/>
+      <c r="O34" s="123"/>
       <c r="P34" s="121"/>
       <c r="Q34" s="121"/>
       <c r="R34" s="80"/>
@@ -4798,7 +4798,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O35" s="170"/>
+      <c r="O35" s="123"/>
       <c r="P35" s="121"/>
       <c r="Q35" s="121"/>
       <c r="R35" s="80"/>
@@ -4890,7 +4890,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O36" s="170"/>
+      <c r="O36" s="123"/>
       <c r="P36" s="121"/>
       <c r="Q36" s="121"/>
       <c r="R36" s="80"/>
@@ -4982,7 +4982,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O37" s="170"/>
+      <c r="O37" s="123"/>
       <c r="P37" s="121"/>
       <c r="Q37" s="121"/>
       <c r="R37" s="80"/>
@@ -5074,7 +5074,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O38" s="170"/>
+      <c r="O38" s="123"/>
       <c r="P38" s="121"/>
       <c r="Q38" s="121"/>
       <c r="R38" s="80"/>
@@ -5166,7 +5166,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O39" s="170"/>
+      <c r="O39" s="123"/>
       <c r="P39" s="121"/>
       <c r="Q39" s="121"/>
       <c r="R39" s="80"/>
@@ -5258,7 +5258,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O40" s="170"/>
+      <c r="O40" s="123"/>
       <c r="P40" s="121"/>
       <c r="Q40" s="121"/>
       <c r="R40" s="80"/>
@@ -5350,7 +5350,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O41" s="170"/>
+      <c r="O41" s="123"/>
       <c r="P41" s="121"/>
       <c r="Q41" s="121"/>
       <c r="R41" s="80"/>
@@ -5442,7 +5442,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O42" s="170"/>
+      <c r="O42" s="123"/>
       <c r="P42" s="121"/>
       <c r="Q42" s="121"/>
       <c r="R42" s="80"/>
@@ -5534,7 +5534,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O43" s="170"/>
+      <c r="O43" s="123"/>
       <c r="P43" s="121"/>
       <c r="Q43" s="121"/>
       <c r="R43" s="80"/>
@@ -5626,7 +5626,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O44" s="170"/>
+      <c r="O44" s="123"/>
       <c r="P44" s="121"/>
       <c r="Q44" s="121"/>
       <c r="R44" s="80"/>
@@ -5718,7 +5718,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O45" s="170"/>
+      <c r="O45" s="123"/>
       <c r="P45" s="121"/>
       <c r="Q45" s="121"/>
       <c r="R45" s="80"/>
@@ -5810,7 +5810,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O46" s="170"/>
+      <c r="O46" s="123"/>
       <c r="P46" s="121"/>
       <c r="Q46" s="121"/>
       <c r="R46" s="80"/>
@@ -5902,7 +5902,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O47" s="170"/>
+      <c r="O47" s="123"/>
       <c r="P47" s="121"/>
       <c r="Q47" s="121"/>
       <c r="R47" s="80"/>
@@ -5994,7 +5994,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O48" s="170"/>
+      <c r="O48" s="123"/>
       <c r="P48" s="121"/>
       <c r="Q48" s="121"/>
       <c r="R48" s="80"/>
@@ -6086,7 +6086,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O49" s="170"/>
+      <c r="O49" s="123"/>
       <c r="P49" s="121"/>
       <c r="Q49" s="121"/>
       <c r="R49" s="80"/>
@@ -6178,7 +6178,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O50" s="170"/>
+      <c r="O50" s="123"/>
       <c r="P50" s="121"/>
       <c r="Q50" s="121"/>
       <c r="R50" s="80"/>
@@ -6270,7 +6270,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O51" s="170"/>
+      <c r="O51" s="123"/>
       <c r="P51" s="121"/>
       <c r="Q51" s="121"/>
       <c r="R51" s="80"/>
@@ -6362,7 +6362,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O52" s="170"/>
+      <c r="O52" s="123"/>
       <c r="P52" s="121"/>
       <c r="Q52" s="121"/>
       <c r="R52" s="80"/>
@@ -6454,7 +6454,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O53" s="170"/>
+      <c r="O53" s="123"/>
       <c r="P53" s="121"/>
       <c r="Q53" s="121"/>
       <c r="R53" s="80"/>
@@ -6546,7 +6546,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O54" s="170"/>
+      <c r="O54" s="123"/>
       <c r="P54" s="121"/>
       <c r="Q54" s="121"/>
       <c r="R54" s="80"/>
@@ -6638,7 +6638,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O55" s="170"/>
+      <c r="O55" s="123"/>
       <c r="P55" s="121"/>
       <c r="Q55" s="121"/>
       <c r="R55" s="80"/>
@@ -6730,7 +6730,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O56" s="170"/>
+      <c r="O56" s="123"/>
       <c r="P56" s="121"/>
       <c r="Q56" s="121"/>
       <c r="R56" s="80"/>
@@ -6822,7 +6822,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O57" s="170"/>
+      <c r="O57" s="123"/>
       <c r="P57" s="121"/>
       <c r="Q57" s="121"/>
       <c r="R57" s="80"/>
@@ -6914,7 +6914,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O58" s="170"/>
+      <c r="O58" s="123"/>
       <c r="P58" s="121"/>
       <c r="Q58" s="121"/>
       <c r="R58" s="80"/>
@@ -7006,7 +7006,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O59" s="170"/>
+      <c r="O59" s="123"/>
       <c r="P59" s="121"/>
       <c r="Q59" s="121"/>
       <c r="R59" s="80"/>
@@ -7098,7 +7098,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O60" s="170"/>
+      <c r="O60" s="123"/>
       <c r="P60" s="121"/>
       <c r="Q60" s="121"/>
       <c r="R60" s="80"/>
@@ -7190,7 +7190,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O61" s="170"/>
+      <c r="O61" s="123"/>
       <c r="P61" s="121"/>
       <c r="Q61" s="121"/>
       <c r="R61" s="80"/>
@@ -7282,7 +7282,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O62" s="170"/>
+      <c r="O62" s="123"/>
       <c r="P62" s="121"/>
       <c r="Q62" s="121"/>
       <c r="R62" s="80"/>
@@ -7374,7 +7374,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O63" s="170"/>
+      <c r="O63" s="123"/>
       <c r="P63" s="121"/>
       <c r="Q63" s="121"/>
       <c r="R63" s="80"/>
@@ -7466,7 +7466,7 @@
         <f t="shared" ref="N64:N87" si="17">ROUND(I64*(SUM(J64:M64)),0)</f>
         <v>0</v>
       </c>
-      <c r="O64" s="170"/>
+      <c r="O64" s="123"/>
       <c r="P64" s="121"/>
       <c r="Q64" s="121"/>
       <c r="R64" s="80"/>
@@ -7558,7 +7558,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O65" s="170"/>
+      <c r="O65" s="123"/>
       <c r="P65" s="121"/>
       <c r="Q65" s="121"/>
       <c r="R65" s="80"/>
@@ -7649,7 +7649,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O66" s="170"/>
+      <c r="O66" s="123"/>
       <c r="P66" s="121"/>
       <c r="Q66" s="121"/>
       <c r="R66" s="80"/>
@@ -7740,7 +7740,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O67" s="170"/>
+      <c r="O67" s="123"/>
       <c r="P67" s="121"/>
       <c r="Q67" s="121"/>
       <c r="R67" s="80"/>
@@ -7831,7 +7831,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O68" s="170"/>
+      <c r="O68" s="123"/>
       <c r="P68" s="121"/>
       <c r="Q68" s="121"/>
       <c r="R68" s="80"/>
@@ -7922,7 +7922,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O69" s="170"/>
+      <c r="O69" s="123"/>
       <c r="P69" s="121"/>
       <c r="Q69" s="121"/>
       <c r="R69" s="80"/>
@@ -8013,7 +8013,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O70" s="170"/>
+      <c r="O70" s="123"/>
       <c r="P70" s="121"/>
       <c r="Q70" s="121"/>
       <c r="R70" s="80"/>
@@ -8104,7 +8104,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O71" s="170"/>
+      <c r="O71" s="123"/>
       <c r="P71" s="121"/>
       <c r="Q71" s="121"/>
       <c r="R71" s="80"/>
@@ -8195,7 +8195,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O72" s="170"/>
+      <c r="O72" s="123"/>
       <c r="P72" s="121"/>
       <c r="Q72" s="121"/>
       <c r="R72" s="80"/>
@@ -8286,7 +8286,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O73" s="170"/>
+      <c r="O73" s="123"/>
       <c r="P73" s="121"/>
       <c r="Q73" s="121"/>
       <c r="R73" s="80"/>
@@ -8378,7 +8378,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O74" s="170"/>
+      <c r="O74" s="123"/>
       <c r="P74" s="121"/>
       <c r="Q74" s="121"/>
       <c r="R74" s="80"/>
@@ -8469,7 +8469,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O75" s="170"/>
+      <c r="O75" s="123"/>
       <c r="P75" s="121"/>
       <c r="Q75" s="121"/>
       <c r="R75" s="80"/>
@@ -8560,7 +8560,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O76" s="170"/>
+      <c r="O76" s="123"/>
       <c r="P76" s="121"/>
       <c r="Q76" s="121"/>
       <c r="R76" s="80"/>
@@ -8651,7 +8651,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O77" s="170"/>
+      <c r="O77" s="123"/>
       <c r="P77" s="121"/>
       <c r="Q77" s="121"/>
       <c r="R77" s="80"/>
@@ -8742,7 +8742,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O78" s="170"/>
+      <c r="O78" s="123"/>
       <c r="P78" s="121"/>
       <c r="Q78" s="121"/>
       <c r="R78" s="80"/>
@@ -8833,7 +8833,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O79" s="170"/>
+      <c r="O79" s="123"/>
       <c r="P79" s="121"/>
       <c r="Q79" s="121"/>
       <c r="R79" s="80"/>
@@ -8924,7 +8924,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O80" s="170"/>
+      <c r="O80" s="123"/>
       <c r="P80" s="121"/>
       <c r="Q80" s="121"/>
       <c r="R80" s="80"/>
@@ -9015,7 +9015,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O81" s="170"/>
+      <c r="O81" s="123"/>
       <c r="P81" s="121"/>
       <c r="Q81" s="121"/>
       <c r="R81" s="80"/>
@@ -9106,7 +9106,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O82" s="170"/>
+      <c r="O82" s="123"/>
       <c r="P82" s="121"/>
       <c r="Q82" s="121"/>
       <c r="R82" s="80"/>
@@ -9197,7 +9197,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O83" s="170"/>
+      <c r="O83" s="123"/>
       <c r="P83" s="121"/>
       <c r="Q83" s="121"/>
       <c r="R83" s="80"/>
@@ -9288,7 +9288,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O84" s="170"/>
+      <c r="O84" s="123"/>
       <c r="P84" s="121"/>
       <c r="Q84" s="121"/>
       <c r="R84" s="80"/>
@@ -9379,7 +9379,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O85" s="170"/>
+      <c r="O85" s="123"/>
       <c r="P85" s="121"/>
       <c r="Q85" s="121"/>
       <c r="R85" s="80"/>
@@ -9470,7 +9470,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O86" s="170"/>
+      <c r="O86" s="123"/>
       <c r="P86" s="121"/>
       <c r="Q86" s="121"/>
       <c r="R86" s="80"/>
@@ -9561,7 +9561,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O87" s="170"/>
+      <c r="O87" s="123"/>
       <c r="P87" s="121"/>
       <c r="Q87" s="121"/>
       <c r="R87" s="80"/>
@@ -9652,7 +9652,7 @@
         <f t="shared" ref="N88:N95" si="33">ROUND(I88*(SUM(J88:M88)),0)</f>
         <v>0</v>
       </c>
-      <c r="O88" s="170"/>
+      <c r="O88" s="123"/>
       <c r="P88" s="121"/>
       <c r="Q88" s="121"/>
       <c r="R88" s="80"/>
@@ -9743,7 +9743,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O89" s="170"/>
+      <c r="O89" s="123"/>
       <c r="P89" s="121"/>
       <c r="Q89" s="121"/>
       <c r="R89" s="80"/>
@@ -9834,7 +9834,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O90" s="170"/>
+      <c r="O90" s="123"/>
       <c r="P90" s="121"/>
       <c r="Q90" s="121"/>
       <c r="R90" s="80"/>
@@ -9925,7 +9925,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O91" s="170"/>
+      <c r="O91" s="123"/>
       <c r="P91" s="121"/>
       <c r="Q91" s="121"/>
       <c r="R91" s="80"/>
@@ -10016,7 +10016,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O92" s="170"/>
+      <c r="O92" s="123"/>
       <c r="P92" s="121"/>
       <c r="Q92" s="121"/>
       <c r="R92" s="80"/>
@@ -10107,7 +10107,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O93" s="170"/>
+      <c r="O93" s="123"/>
       <c r="P93" s="121"/>
       <c r="Q93" s="121"/>
       <c r="R93" s="80"/>
@@ -10198,7 +10198,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O94" s="170"/>
+      <c r="O94" s="123"/>
       <c r="P94" s="121"/>
       <c r="Q94" s="121"/>
       <c r="R94" s="80"/>
@@ -10289,7 +10289,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O95" s="170"/>
+      <c r="O95" s="123"/>
       <c r="P95" s="121"/>
       <c r="Q95" s="121"/>
       <c r="R95" s="80"/>
@@ -10380,7 +10380,7 @@
         <f t="shared" ref="N96:N103" si="34">ROUND(I96*(SUM(J96:M96)),0)</f>
         <v>0</v>
       </c>
-      <c r="O96" s="170"/>
+      <c r="O96" s="123"/>
       <c r="P96" s="121"/>
       <c r="Q96" s="121"/>
       <c r="R96" s="80"/>
@@ -10471,7 +10471,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O97" s="170"/>
+      <c r="O97" s="123"/>
       <c r="P97" s="121"/>
       <c r="Q97" s="121"/>
       <c r="R97" s="80"/>
@@ -10562,7 +10562,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O98" s="170"/>
+      <c r="O98" s="123"/>
       <c r="P98" s="121"/>
       <c r="Q98" s="121"/>
       <c r="R98" s="80"/>
@@ -10653,7 +10653,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O99" s="170"/>
+      <c r="O99" s="123"/>
       <c r="P99" s="121"/>
       <c r="Q99" s="121"/>
       <c r="R99" s="80"/>
@@ -10744,7 +10744,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O100" s="170"/>
+      <c r="O100" s="123"/>
       <c r="P100" s="121"/>
       <c r="Q100" s="121"/>
       <c r="R100" s="80"/>
@@ -10835,7 +10835,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O101" s="170"/>
+      <c r="O101" s="123"/>
       <c r="P101" s="121"/>
       <c r="Q101" s="121"/>
       <c r="R101" s="80"/>
@@ -10926,7 +10926,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O102" s="170"/>
+      <c r="O102" s="123"/>
       <c r="P102" s="121"/>
       <c r="Q102" s="121"/>
       <c r="R102" s="80"/>
@@ -11017,7 +11017,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O103" s="170"/>
+      <c r="O103" s="123"/>
       <c r="P103" s="121"/>
       <c r="Q103" s="121"/>
       <c r="R103" s="80"/>
@@ -11108,7 +11108,7 @@
         <f t="shared" ref="N104:N105" si="35">ROUND(I104*(SUM(J104:M104)),0)</f>
         <v>0</v>
       </c>
-      <c r="O104" s="170"/>
+      <c r="O104" s="123"/>
       <c r="P104" s="121"/>
       <c r="Q104" s="121"/>
       <c r="R104" s="80"/>
@@ -11199,7 +11199,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O105" s="170"/>
+      <c r="O105" s="123"/>
       <c r="P105" s="121"/>
       <c r="Q105" s="121"/>
       <c r="R105" s="80"/>
@@ -11290,7 +11290,7 @@
         <f t="shared" ref="N106" si="36">ROUND(I106*(SUM(J106:M106)),0)</f>
         <v>0</v>
       </c>
-      <c r="O106" s="170"/>
+      <c r="O106" s="123"/>
       <c r="P106" s="121"/>
       <c r="Q106" s="121"/>
       <c r="R106" s="80"/>
@@ -11381,7 +11381,7 @@
         <f t="shared" ref="N107:N108" si="37">ROUND(I107*(SUM(J107:M107)),0)</f>
         <v>0</v>
       </c>
-      <c r="O107" s="170"/>
+      <c r="O107" s="123"/>
       <c r="P107" s="121"/>
       <c r="Q107" s="121"/>
       <c r="R107" s="80"/>
@@ -11472,7 +11472,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="O108" s="170"/>
+      <c r="O108" s="123"/>
       <c r="P108" s="121"/>
       <c r="Q108" s="121"/>
       <c r="R108" s="80"/>
@@ -11563,7 +11563,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O109" s="170"/>
+      <c r="O109" s="123"/>
       <c r="P109" s="121"/>
       <c r="Q109" s="121"/>
       <c r="R109" s="80"/>
@@ -11655,7 +11655,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O110" s="170"/>
+      <c r="O110" s="123"/>
       <c r="P110" s="121"/>
       <c r="Q110" s="121"/>
       <c r="R110" s="80"/>
@@ -11747,7 +11747,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O111" s="170"/>
+      <c r="O111" s="123"/>
       <c r="P111" s="121"/>
       <c r="Q111" s="121"/>
       <c r="R111" s="80"/>
@@ -11838,7 +11838,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O112" s="170"/>
+      <c r="O112" s="123"/>
       <c r="P112" s="121"/>
       <c r="Q112" s="121"/>
       <c r="R112" s="80"/>
@@ -11929,7 +11929,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O113" s="170"/>
+      <c r="O113" s="123"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="121"/>
       <c r="R113" s="80"/>
@@ -12020,7 +12020,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O114" s="170"/>
+      <c r="O114" s="123"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="121"/>
       <c r="R114" s="80"/>
@@ -12111,7 +12111,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O115" s="170"/>
+      <c r="O115" s="123"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="121"/>
       <c r="R115" s="80"/>
@@ -12202,7 +12202,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O116" s="170"/>
+      <c r="O116" s="123"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="121"/>
       <c r="R116" s="80"/>
@@ -12293,7 +12293,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O117" s="170"/>
+      <c r="O117" s="123"/>
       <c r="P117" s="121"/>
       <c r="Q117" s="121"/>
       <c r="R117" s="80"/>
@@ -12384,7 +12384,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O118" s="170"/>
+      <c r="O118" s="123"/>
       <c r="P118" s="121"/>
       <c r="Q118" s="121"/>
       <c r="R118" s="80"/>
@@ -12475,7 +12475,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O119" s="170"/>
+      <c r="O119" s="123"/>
       <c r="P119" s="121"/>
       <c r="Q119" s="121"/>
       <c r="R119" s="80"/>
@@ -12567,7 +12567,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O120" s="170"/>
+      <c r="O120" s="123"/>
       <c r="P120" s="121"/>
       <c r="Q120" s="121"/>
       <c r="R120" s="80"/>
@@ -12658,7 +12658,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O121" s="170"/>
+      <c r="O121" s="123"/>
       <c r="P121" s="121"/>
       <c r="Q121" s="121"/>
       <c r="R121" s="80"/>
@@ -12749,7 +12749,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O122" s="170"/>
+      <c r="O122" s="123"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="121"/>
       <c r="R122" s="80"/>
@@ -12840,7 +12840,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O123" s="170"/>
+      <c r="O123" s="123"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="121"/>
       <c r="R123" s="80"/>
@@ -12931,7 +12931,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O124" s="170"/>
+      <c r="O124" s="123"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="121"/>
       <c r="R124" s="80"/>
@@ -13022,7 +13022,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O125" s="170"/>
+      <c r="O125" s="123"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="121"/>
       <c r="R125" s="80"/>
@@ -13113,7 +13113,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O126" s="170"/>
+      <c r="O126" s="123"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="121"/>
       <c r="R126" s="80"/>
@@ -13204,7 +13204,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O127" s="170"/>
+      <c r="O127" s="123"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="121"/>
       <c r="R127" s="80"/>
@@ -13295,7 +13295,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O128" s="170"/>
+      <c r="O128" s="123"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="121"/>
       <c r="R128" s="80"/>
@@ -13386,7 +13386,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O129" s="170"/>
+      <c r="O129" s="123"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="121"/>
       <c r="R129" s="80"/>
@@ -13477,7 +13477,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O130" s="170"/>
+      <c r="O130" s="123"/>
       <c r="P130" s="121"/>
       <c r="Q130" s="121"/>
       <c r="R130" s="80"/>
@@ -13568,7 +13568,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O131" s="170"/>
+      <c r="O131" s="123"/>
       <c r="P131" s="121"/>
       <c r="Q131" s="121"/>
       <c r="R131" s="80"/>
@@ -13659,7 +13659,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O132" s="170"/>
+      <c r="O132" s="123"/>
       <c r="P132" s="121"/>
       <c r="Q132" s="121"/>
       <c r="R132" s="80"/>
@@ -13750,7 +13750,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O133" s="170"/>
+      <c r="O133" s="123"/>
       <c r="P133" s="121"/>
       <c r="Q133" s="121"/>
       <c r="R133" s="80"/>
@@ -13841,7 +13841,7 @@
         <f t="shared" ref="N134:N141" si="41">ROUND(I134*(SUM(J134:M134)),0)</f>
         <v>0</v>
       </c>
-      <c r="O134" s="170"/>
+      <c r="O134" s="123"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="121"/>
       <c r="R134" s="80"/>
@@ -13932,7 +13932,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O135" s="170"/>
+      <c r="O135" s="123"/>
       <c r="P135" s="121"/>
       <c r="Q135" s="121"/>
       <c r="R135" s="80"/>
@@ -14023,7 +14023,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O136" s="170"/>
+      <c r="O136" s="123"/>
       <c r="P136" s="121"/>
       <c r="Q136" s="121"/>
       <c r="R136" s="80"/>
@@ -14114,7 +14114,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O137" s="170"/>
+      <c r="O137" s="123"/>
       <c r="P137" s="121"/>
       <c r="Q137" s="121"/>
       <c r="R137" s="80"/>
@@ -14205,7 +14205,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O138" s="170"/>
+      <c r="O138" s="123"/>
       <c r="P138" s="121"/>
       <c r="Q138" s="121"/>
       <c r="R138" s="80"/>
@@ -14296,7 +14296,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O139" s="170"/>
+      <c r="O139" s="123"/>
       <c r="P139" s="121"/>
       <c r="Q139" s="121"/>
       <c r="R139" s="80"/>
@@ -14387,7 +14387,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O140" s="170"/>
+      <c r="O140" s="123"/>
       <c r="P140" s="121"/>
       <c r="Q140" s="121"/>
       <c r="R140" s="80"/>
@@ -14478,7 +14478,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O141" s="170"/>
+      <c r="O141" s="123"/>
       <c r="P141" s="121"/>
       <c r="Q141" s="121"/>
       <c r="R141" s="80"/>
@@ -14569,7 +14569,7 @@
         <f t="shared" ref="N142:N149" si="57">ROUND(I142*(SUM(J142:M142)),0)</f>
         <v>0</v>
       </c>
-      <c r="O142" s="170"/>
+      <c r="O142" s="123"/>
       <c r="P142" s="121"/>
       <c r="Q142" s="121"/>
       <c r="R142" s="80"/>
@@ -14660,7 +14660,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O143" s="170"/>
+      <c r="O143" s="123"/>
       <c r="P143" s="121"/>
       <c r="Q143" s="121"/>
       <c r="R143" s="80"/>
@@ -14751,7 +14751,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O144" s="170"/>
+      <c r="O144" s="123"/>
       <c r="P144" s="121"/>
       <c r="Q144" s="121"/>
       <c r="R144" s="80"/>
@@ -14842,7 +14842,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O145" s="170"/>
+      <c r="O145" s="123"/>
       <c r="P145" s="121"/>
       <c r="Q145" s="121"/>
       <c r="R145" s="80"/>
@@ -14933,7 +14933,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O146" s="170"/>
+      <c r="O146" s="123"/>
       <c r="P146" s="121"/>
       <c r="Q146" s="121"/>
       <c r="R146" s="80"/>
@@ -15024,7 +15024,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O147" s="170"/>
+      <c r="O147" s="123"/>
       <c r="P147" s="121"/>
       <c r="Q147" s="121"/>
       <c r="R147" s="80"/>
@@ -15115,7 +15115,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O148" s="170"/>
+      <c r="O148" s="123"/>
       <c r="P148" s="121"/>
       <c r="Q148" s="121"/>
       <c r="R148" s="80"/>
@@ -15206,7 +15206,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O149" s="170"/>
+      <c r="O149" s="123"/>
       <c r="P149" s="121"/>
       <c r="Q149" s="121"/>
       <c r="R149" s="80"/>
@@ -15297,7 +15297,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O150" s="170"/>
+      <c r="O150" s="123"/>
       <c r="P150" s="121"/>
       <c r="Q150" s="121"/>
       <c r="R150" s="80"/>
@@ -15388,7 +15388,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O151" s="170"/>
+      <c r="O151" s="123"/>
       <c r="P151" s="121"/>
       <c r="Q151" s="121"/>
       <c r="R151" s="80"/>
@@ -15479,7 +15479,7 @@
         <f t="shared" ref="N152" si="74">ROUND(I152*(SUM(J152:M152)),0)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="170"/>
+      <c r="O152" s="123"/>
       <c r="P152" s="121"/>
       <c r="Q152" s="121"/>
       <c r="R152" s="80"/>
@@ -15570,7 +15570,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O153" s="170"/>
+      <c r="O153" s="123"/>
       <c r="P153" s="121"/>
       <c r="Q153" s="121"/>
       <c r="R153" s="80"/>
@@ -15661,7 +15661,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O154" s="170"/>
+      <c r="O154" s="123"/>
       <c r="P154" s="121"/>
       <c r="Q154" s="121"/>
       <c r="R154" s="80"/>
@@ -15752,7 +15752,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O155" s="170"/>
+      <c r="O155" s="123"/>
       <c r="P155" s="121"/>
       <c r="Q155" s="121"/>
       <c r="R155" s="80"/>
@@ -15906,10 +15906,10 @@
       <c r="AK157" s="48"/>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B158" s="159" t="s">
+      <c r="B158" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="159"/>
+      <c r="C158" s="129"/>
       <c r="D158" s="48"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
@@ -15940,12 +15940,12 @@
       <c r="AC159" s="48"/>
       <c r="AD159" s="48"/>
       <c r="AE159" s="58"/>
-      <c r="AF159" s="160" t="s">
+      <c r="AF159" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG159" s="160"/>
-      <c r="AH159" s="160"/>
-      <c r="AI159" s="160"/>
+      <c r="AG159" s="130"/>
+      <c r="AH159" s="130"/>
+      <c r="AI159" s="130"/>
       <c r="AJ159" s="48"/>
       <c r="AK159" s="60"/>
     </row>
@@ -16020,41 +16020,41 @@
       <c r="AI163" s="63"/>
     </row>
     <row r="164" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B164" s="158" t="s">
+      <c r="B164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="158"/>
-      <c r="T164" s="157"/>
-      <c r="U164" s="157"/>
-      <c r="V164" s="157"/>
-      <c r="W164" s="157"/>
-      <c r="X164" s="157"/>
-      <c r="Y164" s="157"/>
+      <c r="C164" s="128"/>
+      <c r="T164" s="127"/>
+      <c r="U164" s="127"/>
+      <c r="V164" s="127"/>
+      <c r="W164" s="127"/>
+      <c r="X164" s="127"/>
+      <c r="Y164" s="127"/>
       <c r="AE164" s="48"/>
-      <c r="AF164" s="158" t="s">
+      <c r="AF164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG164" s="158"/>
-      <c r="AH164" s="158"/>
-      <c r="AI164" s="158"/>
+      <c r="AG164" s="128"/>
+      <c r="AH164" s="128"/>
+      <c r="AI164" s="128"/>
     </row>
     <row r="165" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B165" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="69"/>
-      <c r="T165" s="157"/>
-      <c r="U165" s="157"/>
-      <c r="V165" s="157"/>
-      <c r="W165" s="157"/>
-      <c r="X165" s="157"/>
-      <c r="Y165" s="157"/>
-      <c r="AF165" s="158" t="s">
+      <c r="T165" s="127"/>
+      <c r="U165" s="127"/>
+      <c r="V165" s="127"/>
+      <c r="W165" s="127"/>
+      <c r="X165" s="127"/>
+      <c r="Y165" s="127"/>
+      <c r="AF165" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG165" s="158"/>
-      <c r="AH165" s="158"/>
-      <c r="AI165" s="158"/>
+      <c r="AG165" s="128"/>
+      <c r="AH165" s="128"/>
+      <c r="AI165" s="128"/>
     </row>
     <row r="166" spans="2:37" x14ac:dyDescent="0.2">
       <c r="Z166" s="48"/>
@@ -16493,19 +16493,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="AF165:AI165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="AF159:AI159"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF164:AI164"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S5:AE5"/>
     <mergeCell ref="AJ5:AK7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -16522,22 +16525,19 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="AF165:AI165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="AF159:AI159"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF164:AI164"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16586,302 +16586,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="136" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="138" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="141" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="161" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="161" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="162" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="151" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="142" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="143"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="136" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="146" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="146" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="146" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="148" t="s">
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="149"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="151" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="152" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="153" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="154" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="154" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="155" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="155" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="164" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="144"/>
-      <c r="AK6" s="145"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -16894,7 +16894,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="151"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -16904,18 +16904,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="155"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="144"/>
-      <c r="AK7" s="145"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16940,7 +16940,7 @@
         <f>I8*(SUM(J8:M8))*80%</f>
         <v>0</v>
       </c>
-      <c r="O8" s="170"/>
+      <c r="O8" s="123"/>
       <c r="P8" s="121"/>
       <c r="Q8" s="121"/>
       <c r="R8" s="15"/>
@@ -17034,7 +17034,7 @@
         <f t="shared" ref="N9:N22" si="0">I9*(SUM(J9:M9))*80%</f>
         <v>0</v>
       </c>
-      <c r="O9" s="170"/>
+      <c r="O9" s="123"/>
       <c r="P9" s="121"/>
       <c r="Q9" s="121"/>
       <c r="R9" s="15"/>
@@ -17116,7 +17116,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="170"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="121"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="15"/>
@@ -17198,7 +17198,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="170"/>
+      <c r="O11" s="123"/>
       <c r="P11" s="121"/>
       <c r="Q11" s="121"/>
       <c r="R11" s="15"/>
@@ -17280,7 +17280,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="170"/>
+      <c r="O12" s="123"/>
       <c r="P12" s="121"/>
       <c r="Q12" s="121"/>
       <c r="R12" s="15"/>
@@ -17362,7 +17362,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="170"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="121"/>
       <c r="Q13" s="121"/>
       <c r="R13" s="15"/>
@@ -17444,7 +17444,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="170"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="121"/>
       <c r="Q14" s="121"/>
       <c r="R14" s="15"/>
@@ -17526,7 +17526,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="170"/>
+      <c r="O15" s="123"/>
       <c r="P15" s="121"/>
       <c r="Q15" s="121"/>
       <c r="R15" s="15"/>
@@ -17608,7 +17608,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="170"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="121"/>
       <c r="Q16" s="121"/>
       <c r="R16" s="15"/>
@@ -17690,7 +17690,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="170"/>
+      <c r="O17" s="123"/>
       <c r="P17" s="121"/>
       <c r="Q17" s="121"/>
       <c r="R17" s="15"/>
@@ -17772,7 +17772,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="170"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="121"/>
       <c r="Q18" s="121"/>
       <c r="R18" s="15"/>
@@ -17854,7 +17854,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="170"/>
+      <c r="O19" s="123"/>
       <c r="P19" s="121"/>
       <c r="Q19" s="121"/>
       <c r="R19" s="15"/>
@@ -17948,7 +17948,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="170"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="121"/>
       <c r="Q20" s="121"/>
       <c r="R20" s="15"/>
@@ -18030,7 +18030,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="170"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="121"/>
       <c r="Q21" s="121"/>
       <c r="R21" s="15"/>
@@ -18112,7 +18112,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="170"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="121"/>
       <c r="Q22" s="121"/>
       <c r="R22" s="15"/>
@@ -18277,10 +18277,10 @@
       <c r="AL24" s="90"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="159"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -18296,12 +18296,12 @@
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
       <c r="S25" s="48"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="165"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="166"/>
+      <c r="W25" s="166"/>
+      <c r="X25" s="166"/>
+      <c r="Y25" s="166"/>
       <c r="Z25" s="48"/>
       <c r="AA25" s="48"/>
       <c r="AB25" s="48"/>
@@ -18338,12 +18338,12 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
-      <c r="AF26" s="160" t="s">
+      <c r="AF26" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
       <c r="AJ26" s="48"/>
       <c r="AK26" s="60"/>
     </row>
@@ -18423,35 +18423,35 @@
       <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="158"/>
+      <c r="C31" s="128"/>
       <c r="AE31" s="48"/>
-      <c r="AF31" s="158" t="s">
+      <c r="AF31" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="158"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B32" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="69"/>
-      <c r="T32" s="157"/>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="AF32" s="158" t="s">
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="AF32" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="158"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
     </row>
     <row r="33" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Z33" s="48"/>
@@ -18890,6 +18890,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -18906,34 +18934,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18944,7 +18944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -18983,298 +18983,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="95"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="95"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="96"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="136" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="138" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="141" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="161" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="161" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="162" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="151" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="142" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="143"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="113"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="136" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="146" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="146" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="146" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="148" t="s">
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="149"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="151" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="152" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="153" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="154" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="154" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="155" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="155" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="164" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="144"/>
-      <c r="AK6" s="145"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="113"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -19287,7 +19287,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="151"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -19297,18 +19297,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="155"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="144"/>
-      <c r="AK7" s="145"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="113"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19331,7 +19331,7 @@
         <f>I8*(SUM(J8:M8))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="170"/>
+      <c r="O8" s="123"/>
       <c r="P8" s="121"/>
       <c r="Q8" s="121"/>
       <c r="R8" s="80"/>
@@ -19423,7 +19423,7 @@
         <f>I9*(SUM(J9:M9))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="170"/>
+      <c r="O9" s="123"/>
       <c r="P9" s="121"/>
       <c r="Q9" s="121"/>
       <c r="R9" s="80"/>
@@ -19515,7 +19515,7 @@
         <f t="shared" ref="N10:N15" si="11">I10*(SUM(J10:M10))*20%</f>
         <v>0</v>
       </c>
-      <c r="O10" s="170"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="121"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="80"/>
@@ -19607,7 +19607,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O11" s="170"/>
+      <c r="O11" s="123"/>
       <c r="P11" s="121"/>
       <c r="Q11" s="121"/>
       <c r="R11" s="80"/>
@@ -19699,7 +19699,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O12" s="170"/>
+      <c r="O12" s="123"/>
       <c r="P12" s="121"/>
       <c r="Q12" s="121"/>
       <c r="R12" s="80"/>
@@ -19791,7 +19791,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O13" s="170"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="121"/>
       <c r="Q13" s="121"/>
       <c r="R13" s="80"/>
@@ -19883,7 +19883,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O14" s="170"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="121"/>
       <c r="Q14" s="121"/>
       <c r="R14" s="80"/>
@@ -19975,7 +19975,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O15" s="170"/>
+      <c r="O15" s="123"/>
       <c r="P15" s="121"/>
       <c r="Q15" s="121"/>
       <c r="R15" s="80"/>
@@ -20173,10 +20173,10 @@
       <c r="S19" s="87"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="159"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -20213,24 +20213,24 @@
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="169"/>
-      <c r="U21" s="169"/>
-      <c r="V21" s="169"/>
-      <c r="W21" s="169"/>
-      <c r="X21" s="169"/>
-      <c r="Y21" s="169"/>
+      <c r="T21" s="170"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="170"/>
+      <c r="W21" s="170"/>
+      <c r="X21" s="170"/>
+      <c r="Y21" s="170"/>
       <c r="Z21" s="56"/>
       <c r="AA21" s="48"/>
       <c r="AB21" s="48"/>
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="58"/>
-      <c r="AF21" s="160" t="s">
+      <c r="AF21" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
       <c r="AJ21" s="48"/>
       <c r="AK21" s="60"/>
       <c r="AL21" s="60"/>
@@ -20253,12 +20253,12 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="S22" s="48"/>
-      <c r="T22" s="169"/>
-      <c r="U22" s="169"/>
-      <c r="V22" s="169"/>
-      <c r="W22" s="169"/>
-      <c r="X22" s="169"/>
-      <c r="Y22" s="169"/>
+      <c r="T22" s="170"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="170"/>
+      <c r="W22" s="170"/>
+      <c r="X22" s="170"/>
+      <c r="Y22" s="170"/>
       <c r="Z22" s="56"/>
       <c r="AA22" s="48"/>
       <c r="AB22" s="48"/>
@@ -20340,41 +20340,41 @@
       <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="T26" s="157"/>
-      <c r="U26" s="157"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="157"/>
+      <c r="C26" s="128"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
       <c r="AE26" s="48"/>
-      <c r="AF26" s="158" t="s">
+      <c r="AF26" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="158"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="69"/>
-      <c r="T27" s="157"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="157"/>
-      <c r="X27" s="157"/>
-      <c r="Y27" s="157"/>
-      <c r="AF27" s="158" t="s">
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="AF27" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="Z28" s="48"/>
@@ -20590,7 +20590,7 @@
       <c r="C39" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="167" t="s">
         <v>159</v>
       </c>
       <c r="V39" s="74"/>
@@ -20614,7 +20614,7 @@
     <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" s="104"/>
       <c r="C40" s="103"/>
-      <c r="D40" s="167"/>
+      <c r="D40" s="168"/>
       <c r="V40" s="74"/>
       <c r="W40" s="74"/>
       <c r="X40" s="75"/>
@@ -20679,10 +20679,10 @@
     </row>
     <row r="43" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="109"/>
-      <c r="C43" s="168" t="s">
+      <c r="C43" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="168"/>
+      <c r="D43" s="169"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
@@ -20896,16 +20896,27 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -20922,27 +20933,16 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8F080E-D335-B648-848E-A3812C1B8007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6043B6-6E60-4345-8670-FC4529AA4338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
     <sheet name="CPNS" sheetId="2" r:id="rId2"/>
     <sheet name="PLT" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CPNS!$A$5:$AK$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1465,6 +1468,81 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1504,12 +1582,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,75 +1593,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1930,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AL192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I135" workbookViewId="0">
-      <selection activeCell="Z151" sqref="Z151"/>
+    <sheetView topLeftCell="F136" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8:Y155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1968,125 +1971,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="A1" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2096,174 +2099,174 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="137" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="147" t="s">
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="152" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="143" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="144"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="137" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="147" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="147" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="148"/>
-      <c r="S6" s="149" t="s">
+      <c r="R6" s="125"/>
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="153" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="154" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="155" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="156" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="157"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="126"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2273,7 +2276,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="152"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2283,18 +2286,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2346,7 +2349,7 @@
         <v>1200</v>
       </c>
       <c r="U8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>600</v>
       </c>
       <c r="V8" s="16">
@@ -2362,7 +2365,7 @@
         <v>800</v>
       </c>
       <c r="Y8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>400</v>
       </c>
       <c r="Z8" s="16">
@@ -2422,7 +2425,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14">
-        <f t="shared" ref="N8:N155" si="2">ROUND(I9*(SUM(J9:M9)),0)</f>
+        <f t="shared" ref="N9:N155" si="2">ROUND(I9*(SUM(J9:M9)),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="123"/>
@@ -2438,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U72" si="5">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f t="shared" ref="U9:U72" si="5">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -2454,11 +2457,11 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y72" si="8">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y72" si="8">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="16">
-        <f t="shared" ref="Z8:Z155" si="9">ROUND(SUM(W9:Y9),0)</f>
+        <f t="shared" ref="Z9:Z155" si="9">ROUND(SUM(W9:Y9),0)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="16">
@@ -8318,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" ref="U73:U136" si="31">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="BUTUH PERBAIKAN",Q73="SANGAT KURANG"),I73*J73*10%,I73*J73*20%)))</f>
+        <f t="shared" ref="U73:U136" si="31">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="SANGAT KURANG"),I73*J73*10%,I73*J73*20%)))</f>
         <v>0</v>
       </c>
       <c r="V73" s="16">
@@ -8334,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" ref="Y73:Y136" si="32">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="BUTUH PERBAIKAN",Q73="SANGAT KURANG"),I73*K73*10%,I73*K73*20%)))</f>
+        <f t="shared" ref="Y73:Y136" si="32">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="SANGAT KURANG"),I73*K73*10%,I73*K73*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z73" s="16">
@@ -14146,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="16">
-        <f t="shared" ref="U137:U155" si="55">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="BUTUH PERBAIKAN",Q137="SANGAT KURANG"),I137*J137*10%,I137*J137*20%)))</f>
+        <f t="shared" ref="U137:U155" si="55">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="SANGAT KURANG"),I137*J137*10%,I137*J137*20%)))</f>
         <v>0</v>
       </c>
       <c r="V137" s="16">
@@ -14162,7 +14165,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="16">
-        <f t="shared" ref="Y137:Y155" si="56">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="BUTUH PERBAIKAN",Q137="SANGAT KURANG"),I137*K137*10%,I137*K137*20%)))</f>
+        <f t="shared" ref="Y137:Y155" si="56">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="SANGAT KURANG"),I137*K137*10%,I137*K137*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z137" s="16">
@@ -15925,10 +15928,10 @@
       <c r="AK157" s="48"/>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B158" s="160" t="s">
+      <c r="B158" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="160"/>
+      <c r="C158" s="129"/>
       <c r="D158" s="48"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
@@ -15959,12 +15962,12 @@
       <c r="AC159" s="48"/>
       <c r="AD159" s="48"/>
       <c r="AE159" s="58"/>
-      <c r="AF159" s="161" t="s">
+      <c r="AF159" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG159" s="161"/>
-      <c r="AH159" s="161"/>
-      <c r="AI159" s="161"/>
+      <c r="AG159" s="130"/>
+      <c r="AH159" s="130"/>
+      <c r="AI159" s="130"/>
       <c r="AJ159" s="48"/>
       <c r="AK159" s="60"/>
     </row>
@@ -16039,41 +16042,41 @@
       <c r="AI163" s="63"/>
     </row>
     <row r="164" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B164" s="159" t="s">
+      <c r="B164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="159"/>
-      <c r="T164" s="158"/>
-      <c r="U164" s="158"/>
-      <c r="V164" s="158"/>
-      <c r="W164" s="158"/>
-      <c r="X164" s="158"/>
-      <c r="Y164" s="158"/>
+      <c r="C164" s="128"/>
+      <c r="T164" s="127"/>
+      <c r="U164" s="127"/>
+      <c r="V164" s="127"/>
+      <c r="W164" s="127"/>
+      <c r="X164" s="127"/>
+      <c r="Y164" s="127"/>
       <c r="AE164" s="48"/>
-      <c r="AF164" s="159" t="s">
+      <c r="AF164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG164" s="159"/>
-      <c r="AH164" s="159"/>
-      <c r="AI164" s="159"/>
+      <c r="AG164" s="128"/>
+      <c r="AH164" s="128"/>
+      <c r="AI164" s="128"/>
     </row>
     <row r="165" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B165" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="69"/>
-      <c r="T165" s="158"/>
-      <c r="U165" s="158"/>
-      <c r="V165" s="158"/>
-      <c r="W165" s="158"/>
-      <c r="X165" s="158"/>
-      <c r="Y165" s="158"/>
-      <c r="AF165" s="159" t="s">
+      <c r="T165" s="127"/>
+      <c r="U165" s="127"/>
+      <c r="V165" s="127"/>
+      <c r="W165" s="127"/>
+      <c r="X165" s="127"/>
+      <c r="Y165" s="127"/>
+      <c r="AF165" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG165" s="159"/>
-      <c r="AH165" s="159"/>
-      <c r="AI165" s="159"/>
+      <c r="AG165" s="128"/>
+      <c r="AH165" s="128"/>
+      <c r="AI165" s="128"/>
     </row>
     <row r="166" spans="2:37" x14ac:dyDescent="0.2">
       <c r="Z166" s="48"/>
@@ -16512,19 +16515,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="AF165:AI165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="AF159:AI159"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF164:AI164"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S5:AE5"/>
     <mergeCell ref="AJ5:AK7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -16541,22 +16547,19 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="AF165:AI165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="AF159:AI159"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF164:AI164"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16568,7 +16571,7 @@
   <dimension ref="A1:AL59"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16605,302 +16608,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="137" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="152" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="143" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="144"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="137" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="147" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="147" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="149" t="s">
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="153" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="154" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="155" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="156" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -16913,7 +16916,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="152"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -16923,18 +16926,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16972,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
@@ -16988,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
@@ -17066,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U22" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f t="shared" ref="U9:U22" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -17082,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y22" si="7">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y22" si="7">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="16">
@@ -17148,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="16">
-        <f>IF(P10&lt;6750,0,IF(Q10="",0,IF(OR(Q10="KURANG",Q10="BUTUH PERBAIKAN",Q10="SANGAT KURANG"),I10*J10*10%,I10*J10*20%)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V10" s="16">
@@ -18296,10 +18299,10 @@
       <c r="AL24" s="90"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="160"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -18357,12 +18360,12 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
-      <c r="AF26" s="161" t="s">
+      <c r="AF26" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG26" s="161"/>
-      <c r="AH26" s="161"/>
-      <c r="AI26" s="161"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
       <c r="AJ26" s="48"/>
       <c r="AK26" s="60"/>
     </row>
@@ -18442,35 +18445,35 @@
       <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="159"/>
+      <c r="C31" s="128"/>
       <c r="AE31" s="48"/>
-      <c r="AF31" s="159" t="s">
+      <c r="AF31" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG31" s="159"/>
-      <c r="AH31" s="159"/>
-      <c r="AI31" s="159"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B32" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="69"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="AF32" s="159" t="s">
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="AF32" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="159"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
     </row>
     <row r="33" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Z33" s="48"/>
@@ -18908,7 +18911,55 @@
       <c r="AJ59" s="48"/>
     </row>
   </sheetData>
+  <autoFilter ref="A5:AK23" xr:uid="{B2909FC1-85D7-2845-970A-4AF6BA3F4156}">
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="35" showButton="0"/>
+  </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -18925,34 +18976,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18963,8 +18986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8:U15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19002,298 +19025,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="95"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="95"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="96"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="137" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="152" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="143" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="144"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="113"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="137" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="147" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="147" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="149" t="s">
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="153" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="154" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="155" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="156" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="113"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -19306,7 +19329,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="152"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -19316,18 +19339,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="113"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19363,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
@@ -19379,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
@@ -19455,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U15" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f t="shared" ref="U9:U15" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -19471,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y15" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y15" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="14">
@@ -20192,10 +20215,10 @@
       <c r="S19" s="87"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="160"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -20244,12 +20267,12 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="58"/>
-      <c r="AF21" s="161" t="s">
+      <c r="AF21" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="161"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
       <c r="AJ21" s="48"/>
       <c r="AK21" s="60"/>
       <c r="AL21" s="60"/>
@@ -20359,41 +20382,41 @@
       <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
+      <c r="C26" s="128"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
       <c r="AE26" s="48"/>
-      <c r="AF26" s="159" t="s">
+      <c r="AF26" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="159"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="69"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="AF27" s="159" t="s">
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="AF27" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="159"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="Z28" s="48"/>
@@ -20915,16 +20938,27 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -20941,27 +20975,16 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6043B6-6E60-4345-8670-FC4529AA4338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3654A2CA-DDBA-C340-8E30-F4B6041AD256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1468,81 +1468,6 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,6 +1507,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1593,6 +1524,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1971,125 +1971,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2099,174 +2099,174 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="159" t="s">
+      <c r="J5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="140" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="162" t="s">
+      <c r="O5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="124" t="s">
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="165" t="s">
+      <c r="S5" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="131" t="s">
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="131" t="s">
+      <c r="AG5" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="132" t="s">
+      <c r="AH5" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="134" t="s">
+      <c r="AI5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="136" t="s">
+      <c r="AJ5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="137"/>
+      <c r="AK5" s="144"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="140" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="140" t="s">
+      <c r="K6" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="140" t="s">
+      <c r="M6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="141"/>
-      <c r="O6" s="124" t="s">
+      <c r="N6" s="138"/>
+      <c r="O6" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="124" t="s">
+      <c r="P6" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="124" t="s">
+      <c r="Q6" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="125"/>
-      <c r="S6" s="142" t="s">
+      <c r="R6" s="148"/>
+      <c r="S6" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="143"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="134" t="s">
+      <c r="T6" s="150"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="145" t="s">
+      <c r="W6" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="146" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="147" t="s">
+      <c r="AA6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="147" t="s">
+      <c r="AB6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="148" t="s">
+      <c r="AC6" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="148" t="s">
+      <c r="AD6" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="135" t="s">
+      <c r="AE6" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="139"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="146"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="126"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="157"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="134"/>
+      <c r="V7" s="152"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2286,18 +2286,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="147"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="134"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="139"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="155"/>
+      <c r="AB7" s="155"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="145"/>
+      <c r="AK7" s="146"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15928,10 +15928,10 @@
       <c r="AK157" s="48"/>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B158" s="129" t="s">
+      <c r="B158" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="129"/>
+      <c r="C158" s="160"/>
       <c r="D158" s="48"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
@@ -15962,12 +15962,12 @@
       <c r="AC159" s="48"/>
       <c r="AD159" s="48"/>
       <c r="AE159" s="58"/>
-      <c r="AF159" s="130" t="s">
+      <c r="AF159" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="AG159" s="130"/>
-      <c r="AH159" s="130"/>
-      <c r="AI159" s="130"/>
+      <c r="AG159" s="161"/>
+      <c r="AH159" s="161"/>
+      <c r="AI159" s="161"/>
       <c r="AJ159" s="48"/>
       <c r="AK159" s="60"/>
     </row>
@@ -16042,41 +16042,41 @@
       <c r="AI163" s="63"/>
     </row>
     <row r="164" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B164" s="128" t="s">
+      <c r="B164" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="128"/>
-      <c r="T164" s="127"/>
-      <c r="U164" s="127"/>
-      <c r="V164" s="127"/>
-      <c r="W164" s="127"/>
-      <c r="X164" s="127"/>
-      <c r="Y164" s="127"/>
+      <c r="C164" s="159"/>
+      <c r="T164" s="158"/>
+      <c r="U164" s="158"/>
+      <c r="V164" s="158"/>
+      <c r="W164" s="158"/>
+      <c r="X164" s="158"/>
+      <c r="Y164" s="158"/>
       <c r="AE164" s="48"/>
-      <c r="AF164" s="128" t="s">
+      <c r="AF164" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="AG164" s="128"/>
-      <c r="AH164" s="128"/>
-      <c r="AI164" s="128"/>
+      <c r="AG164" s="159"/>
+      <c r="AH164" s="159"/>
+      <c r="AI164" s="159"/>
     </row>
     <row r="165" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B165" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="69"/>
-      <c r="T165" s="127"/>
-      <c r="U165" s="127"/>
-      <c r="V165" s="127"/>
-      <c r="W165" s="127"/>
-      <c r="X165" s="127"/>
-      <c r="Y165" s="127"/>
-      <c r="AF165" s="128" t="s">
+      <c r="T165" s="158"/>
+      <c r="U165" s="158"/>
+      <c r="V165" s="158"/>
+      <c r="W165" s="158"/>
+      <c r="X165" s="158"/>
+      <c r="Y165" s="158"/>
+      <c r="AF165" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="AG165" s="128"/>
-      <c r="AH165" s="128"/>
-      <c r="AI165" s="128"/>
+      <c r="AG165" s="159"/>
+      <c r="AH165" s="159"/>
+      <c r="AI165" s="159"/>
     </row>
     <row r="166" spans="2:37" x14ac:dyDescent="0.2">
       <c r="Z166" s="48"/>
@@ -16515,6 +16515,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="AF165:AI165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="AF159:AI159"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF164:AI164"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -16531,35 +16560,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="AF165:AI165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="AF159:AI159"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF164:AI164"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16608,302 +16608,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="159" t="s">
+      <c r="J5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="140" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="162" t="s">
+      <c r="O5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="164"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="165" t="s">
+      <c r="S5" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="131" t="s">
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="131" t="s">
+      <c r="AG5" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="132" t="s">
+      <c r="AH5" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="134" t="s">
+      <c r="AI5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="136" t="s">
+      <c r="AJ5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="137"/>
+      <c r="AK5" s="144"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="140" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="140" t="s">
+      <c r="K6" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="140" t="s">
+      <c r="M6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="141"/>
-      <c r="O6" s="124" t="s">
+      <c r="N6" s="138"/>
+      <c r="O6" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="124" t="s">
+      <c r="P6" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="124" t="s">
+      <c r="Q6" s="147" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="142" t="s">
+      <c r="S6" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="143"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="134" t="s">
+      <c r="T6" s="150"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="145" t="s">
+      <c r="W6" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="146" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="147" t="s">
+      <c r="AA6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="147" t="s">
+      <c r="AB6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="148" t="s">
+      <c r="AC6" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="148" t="s">
+      <c r="AD6" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="135" t="s">
+      <c r="AE6" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="139"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="146"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -16916,7 +16916,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="134"/>
+      <c r="V7" s="152"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -16926,18 +16926,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="147"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="134"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="139"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="155"/>
+      <c r="AB7" s="155"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="145"/>
+      <c r="AK7" s="146"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18299,10 +18299,10 @@
       <c r="AL24" s="90"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="129"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -18360,12 +18360,12 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
-      <c r="AF26" s="130" t="s">
+      <c r="AF26" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="130"/>
+      <c r="AG26" s="161"/>
+      <c r="AH26" s="161"/>
+      <c r="AI26" s="161"/>
       <c r="AJ26" s="48"/>
       <c r="AK26" s="60"/>
     </row>
@@ -18445,35 +18445,35 @@
       <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="128"/>
+      <c r="C31" s="159"/>
       <c r="AE31" s="48"/>
-      <c r="AF31" s="128" t="s">
+      <c r="AF31" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="128"/>
+      <c r="AG31" s="159"/>
+      <c r="AH31" s="159"/>
+      <c r="AI31" s="159"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B32" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="69"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="AF32" s="128" t="s">
+      <c r="T32" s="158"/>
+      <c r="U32" s="158"/>
+      <c r="V32" s="158"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="AF32" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="128"/>
+      <c r="AG32" s="159"/>
+      <c r="AH32" s="159"/>
+      <c r="AI32" s="159"/>
     </row>
     <row r="33" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Z33" s="48"/>
@@ -18932,6 +18932,34 @@
     <filterColumn colId="35" showButton="0"/>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="T32:Y32"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AE6:AE7"/>
@@ -18948,34 +18976,6 @@
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AF5:AF7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18987,7 +18987,7 @@
   <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19025,298 +19025,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
       <c r="AL1" s="95"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
       <c r="AL2" s="95"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
       <c r="AL3" s="96"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="159" t="s">
+      <c r="J5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="140" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="162" t="s">
+      <c r="O5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="164"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="165" t="s">
+      <c r="S5" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="131" t="s">
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="131" t="s">
+      <c r="AG5" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="132" t="s">
+      <c r="AH5" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="134" t="s">
+      <c r="AI5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="136" t="s">
+      <c r="AJ5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="137"/>
+      <c r="AK5" s="144"/>
       <c r="AL5" s="113"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="140" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="140" t="s">
+      <c r="K6" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="140" t="s">
+      <c r="M6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="141"/>
-      <c r="O6" s="124" t="s">
+      <c r="N6" s="138"/>
+      <c r="O6" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="124" t="s">
+      <c r="P6" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="124" t="s">
+      <c r="Q6" s="147" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="142" t="s">
+      <c r="S6" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="143"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="134" t="s">
+      <c r="T6" s="150"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="145" t="s">
+      <c r="W6" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="146" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="147" t="s">
+      <c r="AA6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="147" t="s">
+      <c r="AB6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="148" t="s">
+      <c r="AC6" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="148" t="s">
+      <c r="AD6" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="135" t="s">
+      <c r="AE6" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="139"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="146"/>
       <c r="AL6" s="113"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -19329,7 +19329,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="134"/>
+      <c r="V7" s="152"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -19339,18 +19339,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="147"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="134"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="139"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="155"/>
+      <c r="AB7" s="155"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="145"/>
+      <c r="AK7" s="146"/>
       <c r="AL7" s="113"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U15" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -19486,15 +19486,15 @@
         <v>0</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" ref="W9:W14" si="4">I9*K9*40%*O9</f>
+        <f t="shared" ref="W9:W14" si="3">I9*K9*40%*O9</f>
         <v>0</v>
       </c>
       <c r="X9" s="14">
-        <f t="shared" ref="X9:X14" si="5">IF(P9&gt;=6750,(I9*K9*40%),0)</f>
+        <f t="shared" ref="X9:X14" si="4">IF(P9&gt;=6750,(I9*K9*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y15" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y15" si="5">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="14">
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="14">
-        <f t="shared" ref="AA9:AA14" si="7">I9*L9</f>
+        <f t="shared" ref="AA9:AA14" si="6">I9*L9</f>
         <v>0</v>
       </c>
       <c r="AB9" s="14">
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="14">
-        <f t="shared" ref="AC9:AC14" si="8">I9*M9</f>
+        <f t="shared" ref="AC9:AC14" si="7">I9*M9</f>
         <v>0</v>
       </c>
       <c r="AD9" s="14">
@@ -19518,11 +19518,11 @@
         <v>0</v>
       </c>
       <c r="AE9" s="17">
-        <f t="shared" ref="AE9:AE14" si="9">+V9+Z9+AB9+AD9</f>
+        <f t="shared" ref="AE9:AE14" si="8">+V9+Z9+AB9+AD9</f>
         <v>0</v>
       </c>
       <c r="AF9" s="18">
-        <f t="shared" ref="AF9:AF15" si="10">AE9*R9</f>
+        <f t="shared" ref="AF9:AF15" si="9">AE9*R9</f>
         <v>0</v>
       </c>
       <c r="AG9" s="26"/>
@@ -19554,7 +19554,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="25"/>
       <c r="N10" s="115">
-        <f t="shared" ref="N10:N15" si="11">I10*(SUM(J10:M10))*20%</f>
+        <f t="shared" ref="N10:N15" si="10">I10*(SUM(J10:M10))*20%</f>
         <v>0</v>
       </c>
       <c r="O10" s="123"/>
@@ -19562,15 +19562,15 @@
       <c r="Q10" s="121"/>
       <c r="R10" s="80"/>
       <c r="S10" s="16">
-        <f t="shared" ref="S10:S13" si="12">I10*J10*40%*O10</f>
+        <f t="shared" ref="S10:S13" si="11">I10*J10*40%*O10</f>
         <v>0</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" ref="T10:T13" si="13">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
+        <f t="shared" ref="T10:T13" si="12">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U9:U15" si="13">IF(P10&lt;6750,0,IF(Q10="",0,IF(OR(Q10="KURANG",Q10="SANGAT KURANG"),I10*J10*10%,I10*J10*20%)))</f>
         <v>0</v>
       </c>
       <c r="V10" s="115">
@@ -19586,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z10" s="115">
@@ -19614,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG10" s="26"/>
@@ -19646,7 +19646,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="25"/>
       <c r="N11" s="115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O11" s="123"/>
@@ -19654,15 +19654,15 @@
       <c r="Q11" s="121"/>
       <c r="R11" s="80"/>
       <c r="S11" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T11" s="16">
+      <c r="U11" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11" s="115">
@@ -19678,7 +19678,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z11" s="115">
@@ -19706,7 +19706,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG11" s="26"/>
@@ -19738,7 +19738,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="25"/>
       <c r="N12" s="115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O12" s="123"/>
@@ -19746,15 +19746,15 @@
       <c r="Q12" s="121"/>
       <c r="R12" s="80"/>
       <c r="S12" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T12" s="16">
+      <c r="U12" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V12" s="115">
@@ -19770,7 +19770,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z12" s="115">
@@ -19798,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG12" s="26"/>
@@ -19830,7 +19830,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="25"/>
       <c r="N13" s="115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O13" s="123"/>
@@ -19838,15 +19838,15 @@
       <c r="Q13" s="121"/>
       <c r="R13" s="80"/>
       <c r="S13" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T13" s="16">
+      <c r="U13" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13" s="115">
@@ -19862,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="115">
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG13" s="26"/>
@@ -19922,7 +19922,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="25"/>
       <c r="N14" s="115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O14" s="123"/>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V14" s="115">
@@ -19946,15 +19946,15 @@
         <v>0</v>
       </c>
       <c r="W14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X14" s="16">
+      <c r="Y14" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z14" s="115">
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB14" s="115">
@@ -19970,7 +19970,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD14" s="16">
@@ -19978,11 +19978,11 @@
         <v>0</v>
       </c>
       <c r="AE14" s="116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="18">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG14" s="26"/>
@@ -20014,7 +20014,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="25"/>
       <c r="N15" s="115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O15" s="123"/>
@@ -20030,7 +20030,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V15" s="115">
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="115">
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG15" s="26"/>
@@ -20215,10 +20215,10 @@
       <c r="S19" s="87"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="129"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -20267,12 +20267,12 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="58"/>
-      <c r="AF21" s="130" t="s">
+      <c r="AF21" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="130"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="161"/>
       <c r="AJ21" s="48"/>
       <c r="AK21" s="60"/>
       <c r="AL21" s="60"/>
@@ -20382,41 +20382,41 @@
       <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
+      <c r="C26" s="159"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
       <c r="AE26" s="48"/>
-      <c r="AF26" s="128" t="s">
+      <c r="AF26" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="159"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="69"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="AF27" s="128" t="s">
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="AF27" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="128"/>
+      <c r="AG27" s="159"/>
+      <c r="AH27" s="159"/>
+      <c r="AI27" s="159"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="Z28" s="48"/>
@@ -20938,27 +20938,16 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AF26:AI26"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -20975,16 +20964,27 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2D0231-B0A8-4B42-A15F-248CB96F1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78150291-CC9D-B84B-B2B4-1D09E182868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="219">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -711,6 +711,18 @@
   </si>
   <si>
     <t>baik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah </t>
+  </si>
+  <si>
+    <t>Tunjangan PPH 21 (TER)</t>
+  </si>
+  <si>
+    <t>Tunjangan BPJS 4%</t>
+  </si>
+  <si>
+    <t>PPH 21 (TER)</t>
   </si>
 </sst>
 </file>
@@ -881,7 +893,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +976,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1175,7 +1199,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1465,81 +1489,6 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,6 +1528,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,6 +1545,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1604,6 +1628,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1968,125 +2013,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="149"/>
-      <c r="AJ3" s="149"/>
-      <c r="AK3" s="149"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2096,174 +2141,174 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="155" t="s">
+      <c r="H5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="157" t="s">
+      <c r="I5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="139" t="s">
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="161" t="s">
+      <c r="O5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="123" t="s">
+      <c r="P5" s="139"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="164" t="s">
+      <c r="S5" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="130" t="s">
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="130" t="s">
+      <c r="AG5" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="131" t="s">
+      <c r="AH5" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="133" t="s">
+      <c r="AI5" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="135" t="s">
+      <c r="AJ5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="136"/>
+      <c r="AK5" s="143"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="139" t="s">
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="140"/>
-      <c r="O6" s="123" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="123" t="s">
+      <c r="Q6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="124"/>
-      <c r="S6" s="141" t="s">
+      <c r="R6" s="147"/>
+      <c r="S6" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="142"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="133" t="s">
+      <c r="T6" s="149"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145" t="s">
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="147" t="s">
+      <c r="AC6" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="134" t="s">
+      <c r="AE6" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="138"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="161"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="144"/>
+      <c r="AK6" s="145"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="125"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="156"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2273,7 +2318,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="133"/>
+      <c r="V7" s="151"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2283,18 +2328,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="134"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="133"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="138"/>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="155"/>
+      <c r="AD7" s="155"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="151"/>
+      <c r="AJ7" s="144"/>
+      <c r="AK7" s="145"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15481,10 +15526,10 @@
       <c r="AK157" s="48"/>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B158" s="128" t="s">
+      <c r="B158" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="128"/>
+      <c r="C158" s="159"/>
       <c r="D158" s="48"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
@@ -15515,12 +15560,12 @@
       <c r="AC159" s="48"/>
       <c r="AD159" s="48"/>
       <c r="AE159" s="58"/>
-      <c r="AF159" s="129" t="s">
+      <c r="AF159" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="AG159" s="129"/>
-      <c r="AH159" s="129"/>
-      <c r="AI159" s="129"/>
+      <c r="AG159" s="160"/>
+      <c r="AH159" s="160"/>
+      <c r="AI159" s="160"/>
       <c r="AJ159" s="48"/>
       <c r="AK159" s="60"/>
     </row>
@@ -15595,41 +15640,41 @@
       <c r="AI163" s="63"/>
     </row>
     <row r="164" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B164" s="127" t="s">
+      <c r="B164" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="127"/>
-      <c r="T164" s="126"/>
-      <c r="U164" s="126"/>
-      <c r="V164" s="126"/>
-      <c r="W164" s="126"/>
-      <c r="X164" s="126"/>
-      <c r="Y164" s="126"/>
+      <c r="C164" s="158"/>
+      <c r="T164" s="157"/>
+      <c r="U164" s="157"/>
+      <c r="V164" s="157"/>
+      <c r="W164" s="157"/>
+      <c r="X164" s="157"/>
+      <c r="Y164" s="157"/>
       <c r="AE164" s="48"/>
-      <c r="AF164" s="127" t="s">
+      <c r="AF164" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="AG164" s="127"/>
-      <c r="AH164" s="127"/>
-      <c r="AI164" s="127"/>
+      <c r="AG164" s="158"/>
+      <c r="AH164" s="158"/>
+      <c r="AI164" s="158"/>
     </row>
     <row r="165" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B165" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="69"/>
-      <c r="T165" s="126"/>
-      <c r="U165" s="126"/>
-      <c r="V165" s="126"/>
-      <c r="W165" s="126"/>
-      <c r="X165" s="126"/>
-      <c r="Y165" s="126"/>
-      <c r="AF165" s="127" t="s">
+      <c r="T165" s="157"/>
+      <c r="U165" s="157"/>
+      <c r="V165" s="157"/>
+      <c r="W165" s="157"/>
+      <c r="X165" s="157"/>
+      <c r="Y165" s="157"/>
+      <c r="AF165" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="AG165" s="127"/>
-      <c r="AH165" s="127"/>
-      <c r="AI165" s="127"/>
+      <c r="AG165" s="158"/>
+      <c r="AH165" s="158"/>
+      <c r="AI165" s="158"/>
     </row>
     <row r="166" spans="2:37" x14ac:dyDescent="0.2">
       <c r="Z166" s="48"/>
@@ -16068,6 +16113,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="AF165:AI165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="AF159:AI159"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF164:AI164"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -16084,35 +16158,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="AF165:AI165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="AF159:AI159"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF164:AI164"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16161,302 +16206,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="149"/>
-      <c r="AJ3" s="149"/>
-      <c r="AK3" s="149"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="155" t="s">
+      <c r="H5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="157" t="s">
+      <c r="I5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="139" t="s">
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="161" t="s">
+      <c r="O5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="163"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="140"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="164" t="s">
+      <c r="S5" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="130" t="s">
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="130" t="s">
+      <c r="AG5" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="131" t="s">
+      <c r="AH5" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="133" t="s">
+      <c r="AI5" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="135" t="s">
+      <c r="AJ5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="136"/>
+      <c r="AK5" s="143"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="139" t="s">
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="140"/>
-      <c r="O6" s="123" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="123" t="s">
+      <c r="Q6" s="146" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="141" t="s">
+      <c r="S6" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="142"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="133" t="s">
+      <c r="T6" s="149"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145" t="s">
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="147" t="s">
+      <c r="AC6" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="134" t="s">
+      <c r="AE6" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="138"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="161"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="144"/>
+      <c r="AK6" s="145"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -16469,7 +16514,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="133"/>
+      <c r="V7" s="151"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -16479,18 +16524,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="134"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="133"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="138"/>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="155"/>
+      <c r="AD7" s="155"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="151"/>
+      <c r="AJ7" s="144"/>
+      <c r="AK7" s="145"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17837,10 +17882,10 @@
       <c r="AL24" s="90"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="128"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -17898,12 +17943,12 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
-      <c r="AF26" s="129" t="s">
+      <c r="AF26" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="129"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
       <c r="AJ26" s="48"/>
       <c r="AK26" s="60"/>
     </row>
@@ -17983,35 +18028,35 @@
       <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="127"/>
+      <c r="C31" s="158"/>
       <c r="AE31" s="48"/>
-      <c r="AF31" s="127" t="s">
+      <c r="AF31" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
-      <c r="AI31" s="127"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="158"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B32" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="69"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="126"/>
-      <c r="AF32" s="127" t="s">
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="AF32" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="158"/>
     </row>
     <row r="33" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Z33" s="48"/>
@@ -18470,6 +18515,34 @@
     <filterColumn colId="35" showButton="0"/>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="T32:Y32"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AE6:AE7"/>
@@ -18486,34 +18559,6 @@
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AF5:AF7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18522,10 +18567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
-  <dimension ref="A1:AL54"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ20" activeCellId="1" sqref="AL17 AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18555,306 +18600,329 @@
     <col min="29" max="29" width="12.5" customWidth="1"/>
     <col min="30" max="30" width="13.5" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="34" width="11.5" customWidth="1"/>
-    <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="3.5" customWidth="1"/>
-    <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="38" max="38" width="7.33203125" customWidth="1"/>
+    <col min="32" max="32" width="13.5" customWidth="1"/>
+    <col min="33" max="35" width="13" customWidth="1"/>
+    <col min="36" max="37" width="11.5" customWidth="1"/>
+    <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="39" max="39" width="3.5" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
+    <col min="41" max="41" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="95"/>
-    </row>
-    <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="95"/>
-    </row>
-    <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="149"/>
-      <c r="AJ3" s="149"/>
-      <c r="AK3" s="149"/>
-      <c r="AL3" s="96"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="95"/>
+    </row>
+    <row r="2" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="95"/>
+    </row>
+    <row r="3" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124"/>
+      <c r="AO3" s="96"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="150" t="s">
+    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="155" t="s">
+      <c r="H5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="157" t="s">
+      <c r="I5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="139" t="s">
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="161" t="s">
+      <c r="O5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="163"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="140"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="164" t="s">
+      <c r="S5" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="130" t="s">
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="170" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG5" s="170" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH5" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="162" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ5" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="131" t="s">
+      <c r="AK5" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="133" t="s">
+      <c r="AL5" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="135" t="s">
+      <c r="AM5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="113"/>
-    </row>
-    <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="139" t="s">
+      <c r="AN5" s="143"/>
+      <c r="AO5" s="113"/>
+    </row>
+    <row r="6" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="140"/>
-      <c r="O6" s="123" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="123" t="s">
+      <c r="Q6" s="146" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="141" t="s">
+      <c r="S6" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="142"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="133" t="s">
+      <c r="T6" s="149"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145" t="s">
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="147" t="s">
+      <c r="AC6" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="134" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="138"/>
-      <c r="AL6" s="113"/>
-    </row>
-    <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
+      <c r="AE6" s="164" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="163"/>
+      <c r="AL6" s="151"/>
+      <c r="AM6" s="144"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="113"/>
+    </row>
+    <row r="7" spans="1:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -18867,7 +18935,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="133"/>
+      <c r="V7" s="151"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -18877,21 +18945,24 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="134"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="133"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="138"/>
-      <c r="AL7" s="113"/>
-    </row>
-    <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="155"/>
+      <c r="AD7" s="155"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="172"/>
+      <c r="AG7" s="172"/>
+      <c r="AH7" s="176"/>
+      <c r="AI7" s="173"/>
+      <c r="AJ7" s="173"/>
+      <c r="AK7" s="163"/>
+      <c r="AL7" s="151"/>
+      <c r="AM7" s="144"/>
+      <c r="AN7" s="145"/>
+      <c r="AO7" s="113"/>
+    </row>
+    <row r="8" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -18967,20 +19038,35 @@
         <f>+V8+Z8+AB8+AD8</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="16">
-        <f>AE8-AG8</f>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="20">
+      <c r="AF8" s="17">
+        <f>AI8</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <f>AK8</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <f>AE8+AF8+AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19">
+        <f>AJ8*4</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="16">
+        <f>AH8-AI8-AJ8-AK8</f>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="20">
         <v>1</v>
       </c>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="113"/>
-    </row>
-    <row r="9" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="113"/>
+    </row>
+    <row r="9" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -19056,20 +19142,35 @@
         <f t="shared" ref="AE9:AE14" si="7">+V9+Z9+AB9+AD9</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="16">
-        <f t="shared" ref="AI9:AI15" si="8">AE9-AG9</f>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="20">
+      <c r="AF9" s="17">
+        <f t="shared" ref="AF9:AF15" si="8">AI9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="17">
+        <f t="shared" ref="AG9:AG15" si="9">AK9</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="17">
+        <f t="shared" ref="AH9:AH16" si="10">AE9+AF9+AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="19">
+        <f t="shared" ref="AK9:AK15" si="11">AJ9*4</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="16">
+        <f t="shared" ref="AL9:AL15" si="12">AH9-AI9-AJ9-AK9</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="20">
         <v>2</v>
       </c>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="113"/>
-    </row>
-    <row r="10" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="113"/>
+    </row>
+    <row r="10" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -19086,7 +19187,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="25"/>
       <c r="N10" s="114">
-        <f t="shared" ref="N10:N15" si="9">I10*(SUM(J10:M10))*20%</f>
+        <f t="shared" ref="N10:N15" si="13">I10*(SUM(J10:M10))*20%</f>
         <v>0</v>
       </c>
       <c r="O10" s="122"/>
@@ -19094,27 +19195,27 @@
       <c r="Q10" s="120"/>
       <c r="R10" s="80"/>
       <c r="S10" s="16">
-        <f t="shared" ref="S10:S13" si="10">I10*J10*40%*O10</f>
+        <f t="shared" ref="S10:S13" si="14">I10*J10*40%*O10</f>
         <v>0</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" ref="T10:T13" si="11">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
+        <f t="shared" ref="T10:T13" si="15">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U10" s="16">
-        <f t="shared" ref="U10:U15" si="12">IF(P10&lt;6750,0,IF(Q10="",0,IF(OR(Q10="KURANG",Q10="SANGAT KURANG"),I10*J10*10%,I10*J10*20%)))</f>
+        <f t="shared" ref="U10:U15" si="16">IF(P10&lt;6750,0,IF(Q10="",0,IF(OR(Q10="KURANG",Q10="SANGAT KURANG"),I10*J10*10%,I10*J10*20%)))</f>
         <v>0</v>
       </c>
       <c r="V10" s="114">
-        <f t="shared" ref="V10:V15" si="13">ROUND(SUM(S10:U10)*20%,)</f>
+        <f t="shared" ref="V10:V15" si="17">ROUND(SUM(S10:U10)*20%,)</f>
         <v>0</v>
       </c>
       <c r="W10" s="16">
-        <f t="shared" ref="W10:W13" si="14">I10*K10*40%*O10</f>
+        <f t="shared" ref="W10:W13" si="18">I10*K10*40%*O10</f>
         <v>0</v>
       </c>
       <c r="X10" s="16">
-        <f t="shared" ref="X10:X13" si="15">IF(P10&gt;=6750,(I10*K10*40%),0)</f>
+        <f t="shared" ref="X10:X13" si="19">IF(P10&gt;=6750,(I10*K10*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y10" s="16">
@@ -19122,43 +19223,58 @@
         <v>0</v>
       </c>
       <c r="Z10" s="114">
-        <f t="shared" ref="Z10:Z15" si="16">SUM(W10:Y10)*20%</f>
+        <f t="shared" ref="Z10:Z15" si="20">SUM(W10:Y10)*20%</f>
         <v>0</v>
       </c>
       <c r="AA10" s="16">
-        <f t="shared" ref="AA10:AA13" si="17">I10*L10</f>
+        <f t="shared" ref="AA10:AA13" si="21">I10*L10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="114">
-        <f t="shared" ref="AB10:AB15" si="18">AA10*20%</f>
+        <f t="shared" ref="AB10:AB15" si="22">AA10*20%</f>
         <v>0</v>
       </c>
       <c r="AC10" s="16">
-        <f t="shared" ref="AC10:AC13" si="19">I10*M10</f>
+        <f t="shared" ref="AC10:AC13" si="23">I10*M10</f>
         <v>0</v>
       </c>
       <c r="AD10" s="16">
-        <f t="shared" ref="AD10:AD13" si="20">AC10*20%</f>
+        <f t="shared" ref="AD10:AD13" si="24">AC10*20%</f>
         <v>0</v>
       </c>
       <c r="AE10" s="115">
-        <f t="shared" ref="AE10:AE13" si="21">+V10+Z10+AB10+AD10</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="16">
+        <f t="shared" ref="AE10:AE13" si="25">+V10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="20">
+      <c r="AG10" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="20">
         <v>3</v>
       </c>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="113"/>
-    </row>
-    <row r="11" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="113"/>
+    </row>
+    <row r="11" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -19175,7 +19291,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="25"/>
       <c r="N11" s="114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O11" s="122"/>
@@ -19183,27 +19299,27 @@
       <c r="Q11" s="120"/>
       <c r="R11" s="80"/>
       <c r="S11" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V11" s="114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W11" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X11" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y11" s="16">
@@ -19211,43 +19327,58 @@
         <v>0</v>
       </c>
       <c r="Z11" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA11" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB11" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC11" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD11" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE11" s="115">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="20">
+      <c r="AG11" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="115"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="20">
         <v>4</v>
       </c>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="113"/>
-    </row>
-    <row r="12" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="113"/>
+    </row>
+    <row r="12" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -19264,7 +19395,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="25"/>
       <c r="N12" s="114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O12" s="122"/>
@@ -19272,27 +19403,27 @@
       <c r="Q12" s="120"/>
       <c r="R12" s="80"/>
       <c r="S12" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V12" s="114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W12" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y12" s="16">
@@ -19300,43 +19431,58 @@
         <v>0</v>
       </c>
       <c r="Z12" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB12" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC12" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD12" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE12" s="115">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="20">
+      <c r="AG12" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="115"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="20">
         <v>5</v>
       </c>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="113"/>
-    </row>
-    <row r="13" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="113"/>
+    </row>
+    <row r="13" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -19353,7 +19499,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="25"/>
       <c r="N13" s="114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O13" s="122"/>
@@ -19361,27 +19507,27 @@
       <c r="Q13" s="120"/>
       <c r="R13" s="80"/>
       <c r="S13" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V13" s="114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W13" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y13" s="16">
@@ -19389,43 +19535,58 @@
         <v>0</v>
       </c>
       <c r="Z13" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB13" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC13" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD13" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE13" s="115">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="20">
+      <c r="AG13" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="115"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="20">
         <v>6</v>
       </c>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="113"/>
-    </row>
-    <row r="14" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="113"/>
+    </row>
+    <row r="14" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -19442,7 +19603,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="25"/>
       <c r="N14" s="114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O14" s="122"/>
@@ -19458,11 +19619,11 @@
         <v>0</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V14" s="114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W14" s="16">
@@ -19478,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA14" s="16">
@@ -19486,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC14" s="16">
@@ -19494,27 +19655,42 @@
         <v>0</v>
       </c>
       <c r="AD14" s="16">
-        <f t="shared" ref="AD14:AD15" si="22">AC14*20%</f>
+        <f t="shared" ref="AD14:AD15" si="26">AC14*20%</f>
         <v>0</v>
       </c>
       <c r="AE14" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="16">
+      <c r="AF14" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="20">
+      <c r="AG14" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="20">
         <v>7</v>
       </c>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="113"/>
-    </row>
-    <row r="15" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="113"/>
+    </row>
+    <row r="15" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>4</v>
       </c>
@@ -19531,7 +19707,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="25"/>
       <c r="N15" s="114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O15" s="122"/>
@@ -19539,27 +19715,27 @@
       <c r="Q15" s="120"/>
       <c r="R15" s="80"/>
       <c r="S15" s="16">
-        <f t="shared" ref="S15" si="23">I15*J15*40%*O15</f>
+        <f t="shared" ref="S15" si="27">I15*J15*40%*O15</f>
         <v>0</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" ref="T15" si="24">IF(P15&gt;=6750,(I15*J15*40%),0)</f>
+        <f t="shared" ref="T15" si="28">IF(P15&gt;=6750,(I15*J15*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U15" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V15" s="114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W15" s="16">
-        <f t="shared" ref="W15" si="25">I15*K15*40%*O15</f>
+        <f t="shared" ref="W15" si="29">I15*K15*40%*O15</f>
         <v>0</v>
       </c>
       <c r="X15" s="16">
-        <f t="shared" ref="X15" si="26">IF(P15&gt;=6750,(I15*K15*40%),0)</f>
+        <f t="shared" ref="X15" si="30">IF(P15&gt;=6750,(I15*K15*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="16">
@@ -19567,43 +19743,58 @@
         <v>0</v>
       </c>
       <c r="Z15" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA15" s="16">
-        <f t="shared" ref="AA15" si="27">I15*L15</f>
+        <f t="shared" ref="AA15" si="31">I15*L15</f>
         <v>0</v>
       </c>
       <c r="AB15" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC15" s="16">
-        <f t="shared" ref="AC15" si="28">I15*M15</f>
+        <f t="shared" ref="AC15" si="32">I15*M15</f>
         <v>0</v>
       </c>
       <c r="AD15" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE15" s="115">
-        <f t="shared" ref="AE15" si="29">+V15+Z15+AB15+AD15</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="16">
+        <f t="shared" ref="AE15" si="33">+V15+Z15+AB15+AD15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="20">
+      <c r="AG15" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="115"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="20">
         <v>8</v>
       </c>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="113"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="113"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
@@ -19639,12 +19830,12 @@
       </c>
       <c r="AA16" s="53"/>
       <c r="AB16" s="16">
-        <f t="shared" ref="AB16" si="30">AA16</f>
+        <f t="shared" ref="AB16" si="34">AA16</f>
         <v>0</v>
       </c>
       <c r="AC16" s="53"/>
       <c r="AD16" s="16">
-        <f t="shared" ref="AD16" si="31">AC16</f>
+        <f t="shared" ref="AD16" si="35">AC16</f>
         <v>0</v>
       </c>
       <c r="AE16" s="52">
@@ -19656,22 +19847,34 @@
         <v>0</v>
       </c>
       <c r="AG16" s="52">
-        <f>SUM(AG8:AG14)</f>
+        <f>SUM(AG8:AG15)</f>
         <v>0</v>
       </c>
       <c r="AH16" s="52">
-        <f>SUM(AH8:AH14)</f>
+        <f>SUM(AH8:AH15)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="52">
         <f>SUM(AI8:AI15)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="48"/>
-    </row>
-    <row r="17" spans="2:38" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="52">
+        <f>SUM(AJ8:AJ15)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="52">
+        <f>SUM(AK8:AK15)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="52">
+        <f>SUM(AL8:AL15)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="48"/>
+    </row>
+    <row r="17" spans="2:41" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -19690,7 +19893,7 @@
       <c r="R17" s="85"/>
       <c r="S17" s="87"/>
     </row>
-    <row r="18" spans="2:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -19709,7 +19912,7 @@
       <c r="R18" s="85"/>
       <c r="S18" s="87"/>
     </row>
-    <row r="19" spans="2:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
@@ -19728,11 +19931,11 @@
       <c r="R19" s="85"/>
       <c r="S19" s="87"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="128" t="s">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B20" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="159"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -19749,7 +19952,7 @@
       <c r="R20" s="56"/>
       <c r="S20" s="48"/>
     </row>
-    <row r="21" spans="2:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="57" t="s">
         <v>80</v>
       </c>
@@ -19781,17 +19984,20 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="58"/>
-      <c r="AF21" s="129" t="s">
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="129"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AH21" s="160"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
+      <c r="AK21" s="160"/>
+      <c r="AL21" s="160"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
       <c r="D22" s="48"/>
@@ -19825,11 +20031,14 @@
       <c r="AG22" s="56"/>
       <c r="AH22" s="56"/>
       <c r="AI22" s="56"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
       <c r="D23" s="48"/>
@@ -19859,15 +20068,18 @@
       <c r="AC23" s="48"/>
       <c r="AD23" s="48"/>
       <c r="AE23" s="56"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
       <c r="T24" s="67"/>
@@ -19877,12 +20089,15 @@
       <c r="AB24" s="48"/>
       <c r="AD24" s="48"/>
       <c r="AE24" s="65"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="63"/>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="63"/>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
       <c r="T25" s="67"/>
@@ -19890,49 +20105,57 @@
       <c r="V25" s="68"/>
       <c r="W25" s="68"/>
       <c r="AE25" s="48"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="63"/>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="127" t="s">
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="63"/>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B26" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
+      <c r="C26" s="158"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="157"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="157"/>
       <c r="AE26" s="48"/>
-      <c r="AF26" s="127" t="s">
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="127"/>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="158"/>
+      <c r="AJ26" s="158"/>
+      <c r="AK26" s="158"/>
+      <c r="AL26" s="158"/>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B27" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="69"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="AF27" s="127" t="s">
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="157"/>
+      <c r="X27" s="157"/>
+      <c r="Y27" s="157"/>
+      <c r="AG27" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="AG27" s="127"/>
-      <c r="AH27" s="127"/>
-      <c r="AI27" s="127"/>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="158"/>
+      <c r="AJ27" s="158"/>
+      <c r="AK27" s="158"/>
+      <c r="AL27" s="158"/>
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="48"/>
@@ -19943,8 +20166,11 @@
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="48"/>
-    </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X29" s="48"/>
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
@@ -19959,9 +20185,12 @@
       <c r="AG29" s="70"/>
       <c r="AH29" s="70"/>
       <c r="AI29" s="70"/>
-      <c r="AJ29" s="48"/>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="70"/>
+      <c r="AM29" s="48"/>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X30" s="48"/>
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
@@ -19974,9 +20203,12 @@
       <c r="AG30" s="70"/>
       <c r="AH30" s="70"/>
       <c r="AI30" s="70"/>
-      <c r="AJ30" s="48"/>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="70"/>
+      <c r="AM30" s="48"/>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
       <c r="Z31" s="48"/>
@@ -19989,9 +20221,12 @@
       <c r="AG31" s="71"/>
       <c r="AH31" s="71"/>
       <c r="AI31" s="71"/>
-      <c r="AJ31" s="48"/>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="71"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="48"/>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X32" s="48"/>
       <c r="Y32" s="48"/>
       <c r="Z32" s="48"/>
@@ -20004,11 +20239,14 @@
       <c r="AG32" s="70"/>
       <c r="AH32" s="70"/>
       <c r="AI32" s="70"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-    </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="70"/>
+      <c r="AK32" s="70"/>
+      <c r="AL32" s="70"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="48"/>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
@@ -20021,11 +20259,14 @@
       <c r="AG33" s="70"/>
       <c r="AH33" s="70"/>
       <c r="AI33" s="70"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ33" s="70"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="70"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="48"/>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B34" s="117" t="s">
         <v>151</v>
       </c>
@@ -20044,8 +20285,11 @@
       <c r="AJ34" s="48"/>
       <c r="AK34" s="48"/>
       <c r="AL34" s="48"/>
-    </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="48"/>
+      <c r="AO34" s="48"/>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
       <c r="V35" s="72"/>
       <c r="X35" s="48"/>
       <c r="Y35" s="48"/>
@@ -20059,11 +20303,14 @@
       <c r="AG35" s="72"/>
       <c r="AH35" s="72"/>
       <c r="AI35" s="72"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+      <c r="AO35" s="48"/>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="C36" s="100" t="s">
         <v>152</v>
@@ -20085,11 +20332,14 @@
       <c r="AG36" s="70"/>
       <c r="AH36" s="70"/>
       <c r="AI36" s="70"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="70"/>
+      <c r="AK36" s="70"/>
+      <c r="AL36" s="70"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="48"/>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B37" s="101" t="s">
         <v>154</v>
       </c>
@@ -20113,11 +20363,14 @@
       <c r="AG37" s="73"/>
       <c r="AH37" s="73"/>
       <c r="AI37" s="73"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-    </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+    </row>
+    <row r="38" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B38" s="104"/>
       <c r="C38" s="103"/>
       <c r="D38" s="102"/>
@@ -20135,11 +20388,14 @@
       <c r="AG38" s="73"/>
       <c r="AH38" s="73"/>
       <c r="AI38" s="73"/>
-      <c r="AJ38" s="48"/>
-      <c r="AK38" s="48"/>
-      <c r="AL38" s="48"/>
-    </row>
-    <row r="39" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="48"/>
+      <c r="AO38" s="48"/>
+    </row>
+    <row r="39" spans="2:41" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="101" t="s">
         <v>157</v>
       </c>
@@ -20163,11 +20419,14 @@
       <c r="AG39" s="75"/>
       <c r="AH39" s="75"/>
       <c r="AI39" s="75"/>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
-      <c r="AL39" s="48"/>
-    </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="75"/>
+      <c r="AL39" s="75"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="48"/>
+      <c r="AO39" s="48"/>
+    </row>
+    <row r="40" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B40" s="104"/>
       <c r="C40" s="103"/>
       <c r="D40" s="167"/>
@@ -20185,11 +20444,14 @@
       <c r="AG40" s="75"/>
       <c r="AH40" s="75"/>
       <c r="AI40" s="75"/>
-      <c r="AJ40" s="48"/>
-      <c r="AK40" s="48"/>
-      <c r="AL40" s="48"/>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="75"/>
+      <c r="AL40" s="75"/>
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="48"/>
+      <c r="AO40" s="48"/>
+    </row>
+    <row r="41" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B41" s="105"/>
       <c r="C41" s="98"/>
       <c r="D41" s="98"/>
@@ -20208,8 +20470,11 @@
       <c r="AJ41" s="48"/>
       <c r="AK41" s="48"/>
       <c r="AL41" s="48"/>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM41" s="48"/>
+      <c r="AN41" s="48"/>
+      <c r="AO41" s="48"/>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B42" s="106" t="s">
         <v>160</v>
       </c>
@@ -20232,8 +20497,11 @@
       <c r="AJ42" s="48"/>
       <c r="AK42" s="48"/>
       <c r="AL42" s="48"/>
-    </row>
-    <row r="43" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="48"/>
+    </row>
+    <row r="43" spans="2:41" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="109"/>
       <c r="C43" s="168" t="s">
         <v>162</v>
@@ -20254,8 +20522,11 @@
       <c r="AJ43" s="48"/>
       <c r="AK43" s="48"/>
       <c r="AL43" s="48"/>
-    </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM43" s="48"/>
+      <c r="AN43" s="48"/>
+      <c r="AO43" s="48"/>
+    </row>
+    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B44" s="98"/>
       <c r="C44" s="118" t="s">
         <v>163</v>
@@ -20278,8 +20549,11 @@
       <c r="AJ44" s="48"/>
       <c r="AK44" s="48"/>
       <c r="AL44" s="48"/>
-    </row>
-    <row r="45" spans="2:38" ht="32" x14ac:dyDescent="0.2">
+      <c r="AM44" s="48"/>
+      <c r="AN44" s="48"/>
+      <c r="AO44" s="48"/>
+    </row>
+    <row r="45" spans="2:41" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" s="110"/>
       <c r="C45" s="111" t="s">
         <v>165</v>
@@ -20302,8 +20576,11 @@
       <c r="AJ45" s="48"/>
       <c r="AK45" s="48"/>
       <c r="AL45" s="48"/>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM45" s="48"/>
+      <c r="AN45" s="48"/>
+      <c r="AO45" s="48"/>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X46" s="48"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
@@ -20319,8 +20596,11 @@
       <c r="AJ46" s="48"/>
       <c r="AK46" s="48"/>
       <c r="AL46" s="48"/>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="48"/>
+      <c r="AN46" s="48"/>
+      <c r="AO46" s="48"/>
+    </row>
+    <row r="47" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X47" s="48"/>
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
@@ -20336,8 +20616,11 @@
       <c r="AJ47" s="48"/>
       <c r="AK47" s="48"/>
       <c r="AL47" s="48"/>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM47" s="48"/>
+      <c r="AN47" s="48"/>
+      <c r="AO47" s="48"/>
+    </row>
+    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
       <c r="X48" s="48"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
@@ -20353,8 +20636,11 @@
       <c r="AJ48" s="48"/>
       <c r="AK48" s="48"/>
       <c r="AL48" s="48"/>
-    </row>
-    <row r="49" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM48" s="48"/>
+      <c r="AN48" s="48"/>
+      <c r="AO48" s="48"/>
+    </row>
+    <row r="49" spans="24:41" x14ac:dyDescent="0.2">
       <c r="X49" s="48"/>
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
@@ -20370,8 +20656,11 @@
       <c r="AJ49" s="48"/>
       <c r="AK49" s="48"/>
       <c r="AL49" s="48"/>
-    </row>
-    <row r="50" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM49" s="48"/>
+      <c r="AN49" s="48"/>
+      <c r="AO49" s="48"/>
+    </row>
+    <row r="50" spans="24:41" x14ac:dyDescent="0.2">
       <c r="X50" s="48"/>
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
@@ -20387,8 +20676,11 @@
       <c r="AJ50" s="48"/>
       <c r="AK50" s="48"/>
       <c r="AL50" s="48"/>
-    </row>
-    <row r="51" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM50" s="48"/>
+      <c r="AN50" s="48"/>
+      <c r="AO50" s="48"/>
+    </row>
+    <row r="51" spans="24:41" x14ac:dyDescent="0.2">
       <c r="X51" s="48"/>
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
@@ -20404,8 +20696,11 @@
       <c r="AJ51" s="48"/>
       <c r="AK51" s="48"/>
       <c r="AL51" s="48"/>
-    </row>
-    <row r="52" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM51" s="48"/>
+      <c r="AN51" s="48"/>
+      <c r="AO51" s="48"/>
+    </row>
+    <row r="52" spans="24:41" x14ac:dyDescent="0.2">
       <c r="X52" s="48"/>
       <c r="Y52" s="48"/>
       <c r="Z52" s="48"/>
@@ -20419,8 +20714,11 @@
       <c r="AH52" s="48"/>
       <c r="AI52" s="48"/>
       <c r="AJ52" s="48"/>
-    </row>
-    <row r="53" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AK52" s="48"/>
+      <c r="AL52" s="48"/>
+      <c r="AM52" s="48"/>
+    </row>
+    <row r="53" spans="24:41" x14ac:dyDescent="0.2">
       <c r="X53" s="48"/>
       <c r="Y53" s="48"/>
       <c r="Z53" s="48"/>
@@ -20434,8 +20732,11 @@
       <c r="AH53" s="48"/>
       <c r="AI53" s="48"/>
       <c r="AJ53" s="48"/>
-    </row>
-    <row r="54" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AK53" s="48"/>
+      <c r="AL53" s="48"/>
+      <c r="AM53" s="48"/>
+    </row>
+    <row r="54" spans="24:41" x14ac:dyDescent="0.2">
       <c r="X54" s="48"/>
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
@@ -20449,36 +20750,28 @@
       <c r="AH54" s="48"/>
       <c r="AI54" s="48"/>
       <c r="AJ54" s="48"/>
+      <c r="AK54" s="48"/>
+      <c r="AL54" s="48"/>
+      <c r="AM54" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
+  <mergeCells count="50">
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AG27:AL27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AG21:AL21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AG26:AL26"/>
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="A2:AN2"/>
+    <mergeCell ref="A3:AN3"/>
     <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AM5:AN7"/>
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:Y6"/>
@@ -20488,17 +20781,31 @@
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD641698-A11F-A948-A06F-A6DAC9C616A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC69763-5C5F-D249-9A78-6460DFD2EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="217">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AL192"/>
   <sheetViews>
-    <sheetView topLeftCell="C139" workbookViewId="0">
-      <selection activeCell="AK156" sqref="AK156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2006,7 +2006,9 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
+      <c r="A2" s="110" t="s">
+        <v>166</v>
+      </c>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
       <c r="D2" s="110"/>
@@ -17503,7 +17505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2909FC1-85D7-2845-970A-4AF6BA3F4156}">
   <dimension ref="A1:AL59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC69763-5C5F-D249-9A78-6460DFD2EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2AF5F7-2964-654F-8442-8AD860EB1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="217">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -1925,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
-  <dimension ref="A1:AL192"/>
+  <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AK3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,9 +1961,11 @@
     <col min="33" max="35" width="13" customWidth="1"/>
     <col min="36" max="37" width="11.5" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="39" max="39" width="3.5" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2007,7 @@
       <c r="AK1" s="110"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
         <v>166</v>
       </c>
@@ -2047,7 +2049,7 @@
       <c r="AK2" s="110"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
@@ -2087,13 +2089,13 @@
       <c r="AK3" s="111"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>166</v>
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="112" t="s">
         <v>1</v>
       </c>
@@ -2174,8 +2176,12 @@
       <c r="AL5" s="138" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM5" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN5" s="130"/>
+    </row>
+    <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="112"/>
       <c r="B6" s="112"/>
       <c r="C6" s="114"/>
@@ -2246,8 +2252,10 @@
       <c r="AJ6" s="149"/>
       <c r="AK6" s="149"/>
       <c r="AL6" s="138"/>
-    </row>
-    <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="AM6" s="131"/>
+      <c r="AN6" s="132"/>
+    </row>
+    <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="112"/>
       <c r="B7" s="112"/>
       <c r="C7" s="114"/>
@@ -2298,8 +2306,10 @@
       <c r="AJ7" s="159"/>
       <c r="AK7" s="149"/>
       <c r="AL7" s="138"/>
-    </row>
-    <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="132"/>
+    </row>
+    <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -2413,8 +2423,12 @@
         <f>AH8-AI8-AJ8-AK8</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="20"/>
+    </row>
+    <row r="9" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -2512,8 +2526,12 @@
         <f t="shared" ref="AL9:AL72" si="18">AH9-AI9-AJ9-AK9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM9" s="19">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="26"/>
+    </row>
+    <row r="10" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2629,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM10" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="26"/>
+    </row>
+    <row r="11" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -2710,8 +2732,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM11" s="19">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="26"/>
+    </row>
+    <row r="12" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -2809,8 +2835,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM12" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="26"/>
+    </row>
+    <row r="13" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -2908,8 +2938,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM13" s="19">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="26"/>
+    </row>
+    <row r="14" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -3007,8 +3041,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM14" s="19">
+        <v>7</v>
+      </c>
+      <c r="AN14" s="26"/>
+    </row>
+    <row r="15" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
@@ -3106,8 +3144,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM15" s="19">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="26"/>
+    </row>
+    <row r="16" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3247,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="44"/>
+    </row>
+    <row r="17" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -3305,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -3404,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -3503,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -3602,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -3700,8 +3744,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="49"/>
+    </row>
+    <row r="22" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -3799,8 +3845,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="51"/>
+    </row>
+    <row r="23" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +3946,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+    </row>
+    <row r="24" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>49</v>
       </c>
@@ -3998,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
@@ -4097,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -4196,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -4295,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
@@ -4394,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -4492,8 +4542,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM29" s="37"/>
+    </row>
+    <row r="30" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>55</v>
       </c>
@@ -4591,8 +4642,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM30" s="37"/>
+    </row>
+    <row r="31" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -4690,8 +4742,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM31" s="37"/>
+    </row>
+    <row r="32" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>57</v>
       </c>
@@ -4789,8 +4842,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+    </row>
+    <row r="33" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>58</v>
       </c>
@@ -4888,8 +4943,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+    </row>
+    <row r="34" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -4987,8 +5044,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+    </row>
+    <row r="35" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>60</v>
       </c>
@@ -5086,8 +5145,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="37"/>
+    </row>
+    <row r="36" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -5185,8 +5246,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+    </row>
+    <row r="37" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>62</v>
       </c>
@@ -5284,8 +5347,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+    </row>
+    <row r="38" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
@@ -5383,8 +5448,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+    </row>
+    <row r="39" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>64</v>
       </c>
@@ -5482,8 +5549,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+    </row>
+    <row r="40" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>65</v>
       </c>
@@ -5581,8 +5650,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="37"/>
+    </row>
+    <row r="41" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>66</v>
       </c>
@@ -5680,8 +5751,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+    </row>
+    <row r="42" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>67</v>
       </c>
@@ -5779,8 +5852,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+    </row>
+    <row r="43" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -5878,8 +5953,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM43" s="37"/>
+      <c r="AN43" s="37"/>
+    </row>
+    <row r="44" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>69</v>
       </c>
@@ -5977,8 +6054,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+    </row>
+    <row r="45" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>70</v>
       </c>
@@ -6076,8 +6155,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM45" s="37"/>
+      <c r="AN45" s="37"/>
+    </row>
+    <row r="46" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>71</v>
       </c>
@@ -6175,8 +6256,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM46" s="37"/>
+      <c r="AN46" s="37"/>
+    </row>
+    <row r="47" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>72</v>
       </c>
@@ -6274,8 +6357,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM47" s="37"/>
+      <c r="AN47" s="37"/>
+    </row>
+    <row r="48" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6458,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM48" s="37"/>
+      <c r="AN48" s="37"/>
+    </row>
+    <row r="49" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>74</v>
       </c>
@@ -6472,8 +6559,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM49" s="37"/>
+      <c r="AN49" s="37"/>
+    </row>
+    <row r="50" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
@@ -6571,8 +6660,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="37"/>
+    </row>
+    <row r="51" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>76</v>
       </c>
@@ -6670,8 +6761,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM51" s="37"/>
+      <c r="AN51" s="37"/>
+    </row>
+    <row r="52" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>77</v>
       </c>
@@ -6769,8 +6862,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM52" s="37"/>
+    </row>
+    <row r="53" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>84</v>
       </c>
@@ -6868,8 +6962,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM53" s="37"/>
+    </row>
+    <row r="54" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>85</v>
       </c>
@@ -6967,8 +7062,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM54" s="37"/>
+    </row>
+    <row r="55" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>86</v>
       </c>
@@ -7067,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>87</v>
       </c>
@@ -7166,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>88</v>
       </c>
@@ -7265,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>89</v>
       </c>
@@ -7364,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>90</v>
       </c>
@@ -7463,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>91</v>
       </c>
@@ -7562,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>92</v>
       </c>
@@ -7661,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>93</v>
       </c>
@@ -7760,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>94</v>
       </c>
@@ -7859,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>95</v>
       </c>
@@ -17450,7 +17546,8 @@
       <c r="AE192" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="AM5:AN7"/>
     <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="AK5:AK7"/>
     <mergeCell ref="AL5:AL7"/>
@@ -17503,10 +17600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2909FC1-85D7-2845-970A-4AF6BA3F4156}">
-  <dimension ref="A1:AL59"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN19" sqref="AN19"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17540,9 +17637,11 @@
     <col min="33" max="35" width="13" customWidth="1"/>
     <col min="36" max="37" width="11.5" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="39" max="39" width="3.5" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
         <v>126</v>
       </c>
@@ -17584,7 +17683,7 @@
       <c r="AK1" s="110"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
         <v>127</v>
       </c>
@@ -17626,7 +17725,7 @@
       <c r="AK2" s="110"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
         <v>128</v>
       </c>
@@ -17668,10 +17767,10 @@
       <c r="AK3" s="111"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="112" t="s">
         <v>1</v>
       </c>
@@ -17750,8 +17849,12 @@
       <c r="AL5" s="138" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM5" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN5" s="130"/>
+    </row>
+    <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="112"/>
       <c r="B6" s="112"/>
       <c r="C6" s="114"/>
@@ -17824,8 +17927,10 @@
       <c r="AJ6" s="149"/>
       <c r="AK6" s="149"/>
       <c r="AL6" s="138"/>
-    </row>
-    <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="AM6" s="131"/>
+      <c r="AN6" s="132"/>
+    </row>
+    <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="112"/>
       <c r="B7" s="112"/>
       <c r="C7" s="114"/>
@@ -17878,8 +17983,10 @@
       <c r="AJ7" s="159"/>
       <c r="AK7" s="149"/>
       <c r="AL7" s="138"/>
-    </row>
-    <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="132"/>
+    </row>
+    <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -17979,8 +18086,12 @@
         <f>AH8-AI8-AJ8-AK8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="20"/>
+    </row>
+    <row r="9" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -18068,8 +18179,12 @@
         <f t="shared" ref="AL9:AL22" si="14">AH9-AI9-AJ9-AK9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM9" s="19">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="26"/>
+    </row>
+    <row r="10" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -18157,8 +18272,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM10" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="26"/>
+    </row>
+    <row r="11" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -18246,8 +18365,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM11" s="19">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="26"/>
+    </row>
+    <row r="12" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -18335,8 +18458,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM12" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="26"/>
+    </row>
+    <row r="13" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -18424,8 +18551,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM13" s="19">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="26"/>
+    </row>
+    <row r="14" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -18513,8 +18644,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM14" s="19">
+        <v>7</v>
+      </c>
+      <c r="AN14" s="26"/>
+    </row>
+    <row r="15" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -18602,8 +18737,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM15" s="19">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="26"/>
+    </row>
+    <row r="16" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -18691,8 +18830,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="44"/>
+    </row>
+    <row r="17" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -18781,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -18870,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -18971,7 +19112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -19060,7 +19201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -19148,8 +19289,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="49"/>
+    </row>
+    <row r="22" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -19237,8 +19380,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="51"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -19314,8 +19459,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+    </row>
+    <row r="24" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -19352,7 +19499,7 @@
       <c r="AK24" s="48"/>
       <c r="AL24" s="52"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B25" s="146" t="s">
         <v>78</v>
       </c>
@@ -19391,7 +19538,7 @@
       <c r="AK25" s="48"/>
       <c r="AL25" s="52"/>
     </row>
-    <row r="26" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
         <v>79</v>
       </c>
@@ -19422,7 +19569,7 @@
       <c r="AK26" s="163"/>
       <c r="AL26" s="163"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="37"/>
@@ -19450,7 +19597,7 @@
       <c r="AK27" s="163"/>
       <c r="AL27" s="163"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
       <c r="D28" s="37"/>
@@ -19479,7 +19626,7 @@
       <c r="AK28" s="37"/>
       <c r="AL28" s="37"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
       <c r="AB29" s="37"/>
@@ -19491,8 +19638,9 @@
       <c r="AJ29" s="59"/>
       <c r="AK29" s="59"/>
       <c r="AL29" s="59"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM29" s="37"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="AE30" s="37"/>
@@ -19503,8 +19651,9 @@
       <c r="AJ30" s="59"/>
       <c r="AK30" s="59"/>
       <c r="AL30" s="59"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM30" s="37"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B31" s="145" t="s">
         <v>81</v>
       </c>
@@ -19517,8 +19666,9 @@
       <c r="AJ31" s="60"/>
       <c r="AK31" s="60"/>
       <c r="AL31" s="60"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM31" s="37"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B32" s="58" t="s">
         <v>82</v>
       </c>
@@ -19536,8 +19686,10 @@
       <c r="AJ32" s="59"/>
       <c r="AK32" s="59"/>
       <c r="AL32" s="59"/>
-    </row>
-    <row r="33" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+    </row>
+    <row r="33" spans="22:40" x14ac:dyDescent="0.2">
       <c r="Z33" s="37"/>
       <c r="AA33" s="37"/>
       <c r="AB33" s="37"/>
@@ -19551,8 +19703,10 @@
       <c r="AJ33" s="59"/>
       <c r="AK33" s="59"/>
       <c r="AL33" s="59"/>
-    </row>
-    <row r="34" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+    </row>
+    <row r="34" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X34" s="37"/>
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
@@ -19570,8 +19724,10 @@
       <c r="AJ34" s="37"/>
       <c r="AK34" s="37"/>
       <c r="AL34" s="37"/>
-    </row>
-    <row r="35" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+    </row>
+    <row r="35" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X35" s="37"/>
       <c r="Y35" s="37"/>
       <c r="Z35" s="37"/>
@@ -19587,8 +19743,10 @@
       <c r="AJ35" s="61"/>
       <c r="AK35" s="61"/>
       <c r="AL35" s="61"/>
-    </row>
-    <row r="36" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="37"/>
+    </row>
+    <row r="36" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X36" s="37"/>
       <c r="Y36" s="37"/>
       <c r="Z36" s="37"/>
@@ -19604,8 +19762,10 @@
       <c r="AJ36" s="59"/>
       <c r="AK36" s="59"/>
       <c r="AL36" s="59"/>
-    </row>
-    <row r="37" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+    </row>
+    <row r="37" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X37" s="37"/>
       <c r="Y37" s="37"/>
       <c r="Z37" s="37"/>
@@ -19621,8 +19781,10 @@
       <c r="AJ37" s="62"/>
       <c r="AK37" s="62"/>
       <c r="AL37" s="62"/>
-    </row>
-    <row r="38" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+    </row>
+    <row r="38" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
       <c r="Z38" s="37"/>
@@ -19638,8 +19800,10 @@
       <c r="AJ38" s="62"/>
       <c r="AK38" s="62"/>
       <c r="AL38" s="62"/>
-    </row>
-    <row r="39" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+    </row>
+    <row r="39" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X39" s="37"/>
       <c r="Y39" s="37"/>
       <c r="Z39" s="37"/>
@@ -19655,8 +19819,10 @@
       <c r="AJ39" s="64"/>
       <c r="AK39" s="64"/>
       <c r="AL39" s="64"/>
-    </row>
-    <row r="40" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+    </row>
+    <row r="40" spans="22:40" x14ac:dyDescent="0.2">
       <c r="V40" s="61"/>
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
@@ -19673,8 +19839,10 @@
       <c r="AJ40" s="64"/>
       <c r="AK40" s="64"/>
       <c r="AL40" s="64"/>
-    </row>
-    <row r="41" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="37"/>
+    </row>
+    <row r="41" spans="22:40" x14ac:dyDescent="0.2">
       <c r="V41" s="62"/>
       <c r="W41" s="62"/>
       <c r="X41" s="59"/>
@@ -19692,8 +19860,10 @@
       <c r="AJ41" s="37"/>
       <c r="AK41" s="37"/>
       <c r="AL41" s="37"/>
-    </row>
-    <row r="42" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+    </row>
+    <row r="42" spans="22:40" x14ac:dyDescent="0.2">
       <c r="V42" s="62"/>
       <c r="W42" s="62"/>
       <c r="X42" s="59"/>
@@ -19711,8 +19881,10 @@
       <c r="AJ42" s="37"/>
       <c r="AK42" s="37"/>
       <c r="AL42" s="37"/>
-    </row>
-    <row r="43" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+    </row>
+    <row r="43" spans="22:40" x14ac:dyDescent="0.2">
       <c r="V43" s="62"/>
       <c r="W43" s="63"/>
       <c r="X43" s="64"/>
@@ -19730,8 +19902,10 @@
       <c r="AJ43" s="37"/>
       <c r="AK43" s="37"/>
       <c r="AL43" s="37"/>
-    </row>
-    <row r="44" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM43" s="37"/>
+      <c r="AN43" s="37"/>
+    </row>
+    <row r="44" spans="22:40" x14ac:dyDescent="0.2">
       <c r="V44" s="63"/>
       <c r="W44" s="63"/>
       <c r="X44" s="64"/>
@@ -19749,8 +19923,10 @@
       <c r="AJ44" s="37"/>
       <c r="AK44" s="37"/>
       <c r="AL44" s="37"/>
-    </row>
-    <row r="45" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+    </row>
+    <row r="45" spans="22:40" x14ac:dyDescent="0.2">
       <c r="V45" s="63"/>
       <c r="W45" s="63"/>
       <c r="X45" s="64"/>
@@ -19768,8 +19944,10 @@
       <c r="AJ45" s="37"/>
       <c r="AK45" s="37"/>
       <c r="AL45" s="37"/>
-    </row>
-    <row r="46" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM45" s="37"/>
+      <c r="AN45" s="37"/>
+    </row>
+    <row r="46" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X46" s="37"/>
       <c r="Y46" s="37"/>
       <c r="Z46" s="37"/>
@@ -19785,8 +19963,10 @@
       <c r="AJ46" s="37"/>
       <c r="AK46" s="37"/>
       <c r="AL46" s="37"/>
-    </row>
-    <row r="47" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="37"/>
+      <c r="AN46" s="37"/>
+    </row>
+    <row r="47" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X47" s="37"/>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
@@ -19802,8 +19982,10 @@
       <c r="AJ47" s="37"/>
       <c r="AK47" s="37"/>
       <c r="AL47" s="37"/>
-    </row>
-    <row r="48" spans="22:38" x14ac:dyDescent="0.2">
+      <c r="AM47" s="37"/>
+      <c r="AN47" s="37"/>
+    </row>
+    <row r="48" spans="22:40" x14ac:dyDescent="0.2">
       <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
@@ -19819,8 +20001,10 @@
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
       <c r="AL48" s="37"/>
-    </row>
-    <row r="49" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM48" s="37"/>
+      <c r="AN48" s="37"/>
+    </row>
+    <row r="49" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
@@ -19836,8 +20020,10 @@
       <c r="AJ49" s="37"/>
       <c r="AK49" s="37"/>
       <c r="AL49" s="37"/>
-    </row>
-    <row r="50" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM49" s="37"/>
+      <c r="AN49" s="37"/>
+    </row>
+    <row r="50" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
@@ -19853,8 +20039,10 @@
       <c r="AJ50" s="37"/>
       <c r="AK50" s="37"/>
       <c r="AL50" s="37"/>
-    </row>
-    <row r="51" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="37"/>
+    </row>
+    <row r="51" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
@@ -19870,8 +20058,10 @@
       <c r="AJ51" s="37"/>
       <c r="AK51" s="37"/>
       <c r="AL51" s="37"/>
-    </row>
-    <row r="52" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM51" s="37"/>
+      <c r="AN51" s="37"/>
+    </row>
+    <row r="52" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X52" s="37"/>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
@@ -19887,8 +20077,9 @@
       <c r="AJ52" s="37"/>
       <c r="AK52" s="37"/>
       <c r="AL52" s="37"/>
-    </row>
-    <row r="53" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM52" s="37"/>
+    </row>
+    <row r="53" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X53" s="37"/>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
@@ -19904,8 +20095,9 @@
       <c r="AJ53" s="37"/>
       <c r="AK53" s="37"/>
       <c r="AL53" s="37"/>
-    </row>
-    <row r="54" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM53" s="37"/>
+    </row>
+    <row r="54" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
@@ -19921,8 +20113,9 @@
       <c r="AJ54" s="37"/>
       <c r="AK54" s="37"/>
       <c r="AL54" s="37"/>
-    </row>
-    <row r="55" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AM54" s="37"/>
+    </row>
+    <row r="55" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X55" s="37"/>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
@@ -19932,7 +20125,7 @@
       <c r="AD55" s="37"/>
       <c r="AE55" s="37"/>
     </row>
-    <row r="56" spans="24:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X56" s="37"/>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
@@ -19942,7 +20135,7 @@
       <c r="AD56" s="37"/>
       <c r="AE56" s="37"/>
     </row>
-    <row r="57" spans="24:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X57" s="37"/>
       <c r="Y57" s="37"/>
       <c r="Z57" s="37"/>
@@ -19952,7 +20145,7 @@
       <c r="AD57" s="37"/>
       <c r="AE57" s="37"/>
     </row>
-    <row r="58" spans="24:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X58" s="37"/>
       <c r="Y58" s="37"/>
       <c r="Z58" s="37"/>
@@ -19962,7 +20155,7 @@
       <c r="AD58" s="37"/>
       <c r="AE58" s="37"/>
     </row>
-    <row r="59" spans="24:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="24:40" x14ac:dyDescent="0.2">
       <c r="X59" s="37"/>
       <c r="Y59" s="37"/>
       <c r="Z59" s="37"/>
@@ -19993,8 +20186,9 @@
     <filterColumn colId="29" showButton="0"/>
     <filterColumn colId="35" showButton="0"/>
   </autoFilter>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AN7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -20047,8 +20241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF1:AL1048576"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2AF5F7-2964-654F-8442-8AD860EB1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A7258-68E7-C444-BBB9-E4135F68EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1186,7 +1186,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,6 +1603,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1927,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M93" workbookViewId="0">
+      <selection activeCell="AP143" sqref="AP143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1964,7 @@
     <col min="33" max="35" width="13" customWidth="1"/>
     <col min="36" max="37" width="11.5" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="3.5" customWidth="1"/>
+    <col min="39" max="39" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2176,10 +2179,10 @@
       <c r="AL5" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="129" t="s">
+      <c r="AM5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="130"/>
+      <c r="AN5" s="164"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="112"/>
@@ -2252,8 +2255,8 @@
       <c r="AJ6" s="149"/>
       <c r="AK6" s="149"/>
       <c r="AL6" s="138"/>
-      <c r="AM6" s="131"/>
-      <c r="AN6" s="132"/>
+      <c r="AM6" s="164"/>
+      <c r="AN6" s="164"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="112"/>
@@ -2306,8 +2309,8 @@
       <c r="AJ7" s="159"/>
       <c r="AK7" s="149"/>
       <c r="AL7" s="138"/>
-      <c r="AM7" s="131"/>
-      <c r="AN7" s="132"/>
+      <c r="AM7" s="164"/>
+      <c r="AN7" s="164"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2426,7 +2429,7 @@
       <c r="AM8" s="19">
         <v>1</v>
       </c>
-      <c r="AN8" s="20"/>
+      <c r="AN8" s="26"/>
     </row>
     <row r="9" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -3247,7 +3250,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="43"/>
+      <c r="AM16" s="19">
+        <v>9</v>
+      </c>
       <c r="AN16" s="44"/>
     </row>
     <row r="17" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3348,6 +3353,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM17" s="19">
+        <v>10</v>
+      </c>
+      <c r="AN17" s="26"/>
     </row>
     <row r="18" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -3447,6 +3456,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM18" s="19">
+        <v>11</v>
+      </c>
+      <c r="AN18" s="44"/>
     </row>
     <row r="19" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -3546,6 +3559,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM19" s="19">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="26"/>
     </row>
     <row r="20" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -3645,6 +3662,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM20" s="19">
+        <v>13</v>
+      </c>
+      <c r="AN20" s="26"/>
     </row>
     <row r="21" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -3744,8 +3765,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="49"/>
+      <c r="AM21" s="19">
+        <v>14</v>
+      </c>
+      <c r="AN21" s="26"/>
     </row>
     <row r="22" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3845,8 +3868,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="51"/>
+      <c r="AM22" s="19">
+        <v>15</v>
+      </c>
+      <c r="AN22" s="26"/>
     </row>
     <row r="23" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -3946,8 +3971,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
+      <c r="AM23" s="19">
+        <v>16</v>
+      </c>
+      <c r="AN23" s="26"/>
     </row>
     <row r="24" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -4047,6 +4074,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM24" s="19">
+        <v>17</v>
+      </c>
+      <c r="AN24" s="26"/>
     </row>
     <row r="25" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -4146,6 +4177,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM25" s="19">
+        <v>18</v>
+      </c>
+      <c r="AN25" s="44"/>
     </row>
     <row r="26" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -4245,6 +4280,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM26" s="19">
+        <v>19</v>
+      </c>
+      <c r="AN26" s="26"/>
     </row>
     <row r="27" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -4344,6 +4383,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM27" s="19">
+        <v>20</v>
+      </c>
+      <c r="AN27" s="44"/>
     </row>
     <row r="28" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -4443,6 +4486,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM28" s="19">
+        <v>21</v>
+      </c>
+      <c r="AN28" s="26"/>
     </row>
     <row r="29" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -4542,7 +4589,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="37"/>
+      <c r="AM29" s="19">
+        <v>22</v>
+      </c>
+      <c r="AN29" s="26"/>
     </row>
     <row r="30" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -4642,7 +4692,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="37"/>
+      <c r="AM30" s="19">
+        <v>23</v>
+      </c>
+      <c r="AN30" s="26"/>
     </row>
     <row r="31" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -4742,7 +4795,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM31" s="37"/>
+      <c r="AM31" s="19">
+        <v>24</v>
+      </c>
+      <c r="AN31" s="26"/>
     </row>
     <row r="32" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -4842,8 +4898,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
+      <c r="AM32" s="19">
+        <v>25</v>
+      </c>
+      <c r="AN32" s="26"/>
     </row>
     <row r="33" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -4943,8 +5001,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
+      <c r="AM33" s="19">
+        <v>26</v>
+      </c>
+      <c r="AN33" s="26"/>
     </row>
     <row r="34" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -5044,8 +5104,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
+      <c r="AM34" s="19">
+        <v>27</v>
+      </c>
+      <c r="AN34" s="44"/>
     </row>
     <row r="35" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
@@ -5145,8 +5207,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
+      <c r="AM35" s="19">
+        <v>28</v>
+      </c>
+      <c r="AN35" s="26"/>
     </row>
     <row r="36" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -5246,8 +5310,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
+      <c r="AM36" s="19">
+        <v>29</v>
+      </c>
+      <c r="AN36" s="44"/>
     </row>
     <row r="37" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -5347,8 +5413,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
+      <c r="AM37" s="19">
+        <v>30</v>
+      </c>
+      <c r="AN37" s="26"/>
     </row>
     <row r="38" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
@@ -5448,8 +5516,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
+      <c r="AM38" s="19">
+        <v>31</v>
+      </c>
+      <c r="AN38" s="26"/>
     </row>
     <row r="39" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
@@ -5549,8 +5619,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="37"/>
-      <c r="AN39" s="37"/>
+      <c r="AM39" s="19">
+        <v>32</v>
+      </c>
+      <c r="AN39" s="26"/>
     </row>
     <row r="40" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -5650,8 +5722,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
+      <c r="AM40" s="19">
+        <v>33</v>
+      </c>
+      <c r="AN40" s="26"/>
     </row>
     <row r="41" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
@@ -5751,8 +5825,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="37"/>
-      <c r="AN41" s="37"/>
+      <c r="AM41" s="19">
+        <v>34</v>
+      </c>
+      <c r="AN41" s="26"/>
     </row>
     <row r="42" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -5852,8 +5928,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM42" s="37"/>
-      <c r="AN42" s="37"/>
+      <c r="AM42" s="19">
+        <v>35</v>
+      </c>
+      <c r="AN42" s="26"/>
     </row>
     <row r="43" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -5953,8 +6031,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM43" s="37"/>
-      <c r="AN43" s="37"/>
+      <c r="AM43" s="19">
+        <v>36</v>
+      </c>
+      <c r="AN43" s="44"/>
     </row>
     <row r="44" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -6054,8 +6134,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM44" s="37"/>
-      <c r="AN44" s="37"/>
+      <c r="AM44" s="19">
+        <v>37</v>
+      </c>
+      <c r="AN44" s="26"/>
     </row>
     <row r="45" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -6155,8 +6237,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM45" s="37"/>
-      <c r="AN45" s="37"/>
+      <c r="AM45" s="19">
+        <v>38</v>
+      </c>
+      <c r="AN45" s="44"/>
     </row>
     <row r="46" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -6256,8 +6340,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM46" s="37"/>
-      <c r="AN46" s="37"/>
+      <c r="AM46" s="19">
+        <v>39</v>
+      </c>
+      <c r="AN46" s="26"/>
     </row>
     <row r="47" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -6357,8 +6443,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM47" s="37"/>
-      <c r="AN47" s="37"/>
+      <c r="AM47" s="19">
+        <v>40</v>
+      </c>
+      <c r="AN47" s="26"/>
     </row>
     <row r="48" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -6458,8 +6546,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM48" s="37"/>
-      <c r="AN48" s="37"/>
+      <c r="AM48" s="19">
+        <v>41</v>
+      </c>
+      <c r="AN48" s="26"/>
     </row>
     <row r="49" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
@@ -6559,8 +6649,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM49" s="37"/>
-      <c r="AN49" s="37"/>
+      <c r="AM49" s="19">
+        <v>42</v>
+      </c>
+      <c r="AN49" s="26"/>
     </row>
     <row r="50" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -6660,8 +6752,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM50" s="37"/>
-      <c r="AN50" s="37"/>
+      <c r="AM50" s="19">
+        <v>43</v>
+      </c>
+      <c r="AN50" s="26"/>
     </row>
     <row r="51" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
@@ -6761,8 +6855,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM51" s="37"/>
-      <c r="AN51" s="37"/>
+      <c r="AM51" s="19">
+        <v>44</v>
+      </c>
+      <c r="AN51" s="44"/>
     </row>
     <row r="52" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -6862,7 +6958,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM52" s="37"/>
+      <c r="AM52" s="19">
+        <v>45</v>
+      </c>
+      <c r="AN52" s="26"/>
     </row>
     <row r="53" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
@@ -6962,7 +7061,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="37"/>
+      <c r="AM53" s="19">
+        <v>46</v>
+      </c>
+      <c r="AN53" s="44"/>
     </row>
     <row r="54" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -7062,7 +7164,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM54" s="37"/>
+      <c r="AM54" s="19">
+        <v>47</v>
+      </c>
+      <c r="AN54" s="26"/>
     </row>
     <row r="55" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -7162,6 +7267,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM55" s="19">
+        <v>48</v>
+      </c>
+      <c r="AN55" s="26"/>
     </row>
     <row r="56" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -7261,6 +7370,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM56" s="19">
+        <v>49</v>
+      </c>
+      <c r="AN56" s="26"/>
     </row>
     <row r="57" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
@@ -7360,6 +7473,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM57" s="19">
+        <v>50</v>
+      </c>
+      <c r="AN57" s="26"/>
     </row>
     <row r="58" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -7459,6 +7576,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM58" s="19">
+        <v>51</v>
+      </c>
+      <c r="AN58" s="26"/>
     </row>
     <row r="59" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -7558,6 +7679,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM59" s="19">
+        <v>52</v>
+      </c>
+      <c r="AN59" s="26"/>
     </row>
     <row r="60" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
@@ -7657,6 +7782,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM60" s="19">
+        <v>53</v>
+      </c>
+      <c r="AN60" s="44"/>
     </row>
     <row r="61" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
@@ -7756,6 +7885,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM61" s="19">
+        <v>54</v>
+      </c>
+      <c r="AN61" s="26"/>
     </row>
     <row r="62" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -7855,6 +7988,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM62" s="19">
+        <v>55</v>
+      </c>
+      <c r="AN62" s="44"/>
     </row>
     <row r="63" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
@@ -7954,6 +8091,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AM63" s="19">
+        <v>56</v>
+      </c>
+      <c r="AN63" s="26"/>
     </row>
     <row r="64" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -8053,8 +8194,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM64" s="19">
+        <v>57</v>
+      </c>
+      <c r="AN64" s="26"/>
+    </row>
+    <row r="65" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>96</v>
       </c>
@@ -8152,8 +8297,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM65" s="19">
+        <v>58</v>
+      </c>
+      <c r="AN65" s="26"/>
+    </row>
+    <row r="66" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>97</v>
       </c>
@@ -8251,8 +8400,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM66" s="19">
+        <v>59</v>
+      </c>
+      <c r="AN66" s="26"/>
+    </row>
+    <row r="67" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>98</v>
       </c>
@@ -8350,8 +8503,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM67" s="19">
+        <v>60</v>
+      </c>
+      <c r="AN67" s="26"/>
+    </row>
+    <row r="68" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>99</v>
       </c>
@@ -8449,8 +8606,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM68" s="19">
+        <v>61</v>
+      </c>
+      <c r="AN68" s="44"/>
+    </row>
+    <row r="69" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>100</v>
       </c>
@@ -8548,8 +8709,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM69" s="19">
+        <v>62</v>
+      </c>
+      <c r="AN69" s="26"/>
+    </row>
+    <row r="70" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>101</v>
       </c>
@@ -8647,8 +8812,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM70" s="19">
+        <v>63</v>
+      </c>
+      <c r="AN70" s="44"/>
+    </row>
+    <row r="71" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>102</v>
       </c>
@@ -8746,8 +8915,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM71" s="19">
+        <v>64</v>
+      </c>
+      <c r="AN71" s="26"/>
+    </row>
+    <row r="72" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>103</v>
       </c>
@@ -8845,8 +9018,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM72" s="19">
+        <v>65</v>
+      </c>
+      <c r="AN72" s="26"/>
+    </row>
+    <row r="73" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>104</v>
       </c>
@@ -8944,8 +9121,12 @@
         <f t="shared" ref="AL73:AL136" si="37">AH73-AI73-AJ73-AK73</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM73" s="19">
+        <v>66</v>
+      </c>
+      <c r="AN73" s="26"/>
+    </row>
+    <row r="74" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>105</v>
       </c>
@@ -9043,8 +9224,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM74" s="19">
+        <v>67</v>
+      </c>
+      <c r="AN74" s="26"/>
+    </row>
+    <row r="75" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>106</v>
       </c>
@@ -9142,8 +9327,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM75" s="19">
+        <v>68</v>
+      </c>
+      <c r="AN75" s="26"/>
+    </row>
+    <row r="76" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>107</v>
       </c>
@@ -9241,8 +9430,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM76" s="19">
+        <v>69</v>
+      </c>
+      <c r="AN76" s="26"/>
+    </row>
+    <row r="77" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>108</v>
       </c>
@@ -9340,8 +9533,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM77" s="19">
+        <v>70</v>
+      </c>
+      <c r="AN77" s="44"/>
+    </row>
+    <row r="78" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>109</v>
       </c>
@@ -9439,8 +9636,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM78" s="19">
+        <v>71</v>
+      </c>
+      <c r="AN78" s="26"/>
+    </row>
+    <row r="79" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>110</v>
       </c>
@@ -9538,8 +9739,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM79" s="19">
+        <v>72</v>
+      </c>
+      <c r="AN79" s="44"/>
+    </row>
+    <row r="80" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>111</v>
       </c>
@@ -9637,8 +9842,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM80" s="19">
+        <v>73</v>
+      </c>
+      <c r="AN80" s="26"/>
+    </row>
+    <row r="81" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>112</v>
       </c>
@@ -9736,8 +9945,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM81" s="19">
+        <v>74</v>
+      </c>
+      <c r="AN81" s="26"/>
+    </row>
+    <row r="82" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>113</v>
       </c>
@@ -9835,8 +10048,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM82" s="19">
+        <v>75</v>
+      </c>
+      <c r="AN82" s="26"/>
+    </row>
+    <row r="83" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>114</v>
       </c>
@@ -9934,8 +10151,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM83" s="19">
+        <v>76</v>
+      </c>
+      <c r="AN83" s="26"/>
+    </row>
+    <row r="84" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>115</v>
       </c>
@@ -10033,8 +10254,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM84" s="19">
+        <v>77</v>
+      </c>
+      <c r="AN84" s="26"/>
+    </row>
+    <row r="85" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>116</v>
       </c>
@@ -10132,8 +10357,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM85" s="19">
+        <v>78</v>
+      </c>
+      <c r="AN85" s="44"/>
+    </row>
+    <row r="86" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>117</v>
       </c>
@@ -10231,8 +10460,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM86" s="19">
+        <v>79</v>
+      </c>
+      <c r="AN86" s="26"/>
+    </row>
+    <row r="87" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>118</v>
       </c>
@@ -10330,8 +10563,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM87" s="19">
+        <v>80</v>
+      </c>
+      <c r="AN87" s="44"/>
+    </row>
+    <row r="88" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>119</v>
       </c>
@@ -10429,8 +10666,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM88" s="19">
+        <v>81</v>
+      </c>
+      <c r="AN88" s="26"/>
+    </row>
+    <row r="89" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -10528,8 +10769,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM89" s="19">
+        <v>82</v>
+      </c>
+      <c r="AN89" s="26"/>
+    </row>
+    <row r="90" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>121</v>
       </c>
@@ -10627,8 +10872,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM90" s="19">
+        <v>83</v>
+      </c>
+      <c r="AN90" s="26"/>
+    </row>
+    <row r="91" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>122</v>
       </c>
@@ -10726,8 +10975,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM91" s="19">
+        <v>84</v>
+      </c>
+      <c r="AN91" s="26"/>
+    </row>
+    <row r="92" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>123</v>
       </c>
@@ -10825,8 +11078,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM92" s="19">
+        <v>85</v>
+      </c>
+      <c r="AN92" s="26"/>
+    </row>
+    <row r="93" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>124</v>
       </c>
@@ -10924,8 +11181,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM93" s="19">
+        <v>86</v>
+      </c>
+      <c r="AN93" s="26"/>
+    </row>
+    <row r="94" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>130</v>
       </c>
@@ -11023,8 +11284,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM94" s="19">
+        <v>87</v>
+      </c>
+      <c r="AN94" s="44"/>
+    </row>
+    <row r="95" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>131</v>
       </c>
@@ -11122,8 +11387,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM95" s="19">
+        <v>88</v>
+      </c>
+      <c r="AN95" s="26"/>
+    </row>
+    <row r="96" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>132</v>
       </c>
@@ -11221,8 +11490,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM96" s="19">
+        <v>89</v>
+      </c>
+      <c r="AN96" s="44"/>
+    </row>
+    <row r="97" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>133</v>
       </c>
@@ -11320,8 +11593,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM97" s="19">
+        <v>90</v>
+      </c>
+      <c r="AN97" s="26"/>
+    </row>
+    <row r="98" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>134</v>
       </c>
@@ -11419,8 +11696,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM98" s="19">
+        <v>91</v>
+      </c>
+      <c r="AN98" s="26"/>
+    </row>
+    <row r="99" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>135</v>
       </c>
@@ -11518,8 +11799,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM99" s="19">
+        <v>92</v>
+      </c>
+      <c r="AN99" s="26"/>
+    </row>
+    <row r="100" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>136</v>
       </c>
@@ -11617,8 +11902,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM100" s="19">
+        <v>93</v>
+      </c>
+      <c r="AN100" s="26"/>
+    </row>
+    <row r="101" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>137</v>
       </c>
@@ -11716,8 +12005,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM101" s="19">
+        <v>94</v>
+      </c>
+      <c r="AN101" s="26"/>
+    </row>
+    <row r="102" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>138</v>
       </c>
@@ -11815,8 +12108,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM102" s="19">
+        <v>95</v>
+      </c>
+      <c r="AN102" s="44"/>
+    </row>
+    <row r="103" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>139</v>
       </c>
@@ -11914,8 +12211,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM103" s="19">
+        <v>96</v>
+      </c>
+      <c r="AN103" s="26"/>
+    </row>
+    <row r="104" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>140</v>
       </c>
@@ -12013,8 +12314,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM104" s="19">
+        <v>97</v>
+      </c>
+      <c r="AN104" s="44"/>
+    </row>
+    <row r="105" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>141</v>
       </c>
@@ -12112,8 +12417,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM105" s="19">
+        <v>98</v>
+      </c>
+      <c r="AN105" s="26"/>
+    </row>
+    <row r="106" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>142</v>
       </c>
@@ -12211,8 +12520,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM106" s="19">
+        <v>99</v>
+      </c>
+      <c r="AN106" s="26"/>
+    </row>
+    <row r="107" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>143</v>
       </c>
@@ -12310,8 +12623,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM107" s="19">
+        <v>100</v>
+      </c>
+      <c r="AN107" s="26"/>
+    </row>
+    <row r="108" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>144</v>
       </c>
@@ -12409,8 +12726,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM108" s="19">
+        <v>101</v>
+      </c>
+      <c r="AN108" s="26"/>
+    </row>
+    <row r="109" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>145</v>
       </c>
@@ -12508,8 +12829,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM109" s="19">
+        <v>102</v>
+      </c>
+      <c r="AN109" s="26"/>
+    </row>
+    <row r="110" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>146</v>
       </c>
@@ -12607,8 +12932,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM110" s="19">
+        <v>103</v>
+      </c>
+      <c r="AN110" s="26"/>
+    </row>
+    <row r="111" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>167</v>
       </c>
@@ -12706,8 +13035,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM111" s="19">
+        <v>104</v>
+      </c>
+      <c r="AN111" s="44"/>
+    </row>
+    <row r="112" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>168</v>
       </c>
@@ -12805,8 +13138,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM112" s="19">
+        <v>105</v>
+      </c>
+      <c r="AN112" s="26"/>
+    </row>
+    <row r="113" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>169</v>
       </c>
@@ -12904,8 +13241,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM113" s="19">
+        <v>106</v>
+      </c>
+      <c r="AN113" s="44"/>
+    </row>
+    <row r="114" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>170</v>
       </c>
@@ -13003,8 +13344,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM114" s="19">
+        <v>107</v>
+      </c>
+      <c r="AN114" s="26"/>
+    </row>
+    <row r="115" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>171</v>
       </c>
@@ -13102,8 +13447,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM115" s="19">
+        <v>108</v>
+      </c>
+      <c r="AN115" s="26"/>
+    </row>
+    <row r="116" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>172</v>
       </c>
@@ -13201,8 +13550,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM116" s="19">
+        <v>109</v>
+      </c>
+      <c r="AN116" s="26"/>
+    </row>
+    <row r="117" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>173</v>
       </c>
@@ -13300,8 +13653,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM117" s="19">
+        <v>110</v>
+      </c>
+      <c r="AN117" s="26"/>
+    </row>
+    <row r="118" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>174</v>
       </c>
@@ -13399,8 +13756,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM118" s="19">
+        <v>111</v>
+      </c>
+      <c r="AN118" s="26"/>
+    </row>
+    <row r="119" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>175</v>
       </c>
@@ -13498,8 +13859,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM119" s="19">
+        <v>112</v>
+      </c>
+      <c r="AN119" s="44"/>
+    </row>
+    <row r="120" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>176</v>
       </c>
@@ -13597,8 +13962,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM120" s="19">
+        <v>113</v>
+      </c>
+      <c r="AN120" s="26"/>
+    </row>
+    <row r="121" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>177</v>
       </c>
@@ -13696,8 +14065,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM121" s="19">
+        <v>114</v>
+      </c>
+      <c r="AN121" s="44"/>
+    </row>
+    <row r="122" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>178</v>
       </c>
@@ -13795,8 +14168,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM122" s="19">
+        <v>115</v>
+      </c>
+      <c r="AN122" s="26"/>
+    </row>
+    <row r="123" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>179</v>
       </c>
@@ -13894,8 +14271,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM123" s="19">
+        <v>116</v>
+      </c>
+      <c r="AN123" s="26"/>
+    </row>
+    <row r="124" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>180</v>
       </c>
@@ -13993,8 +14374,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM124" s="19">
+        <v>117</v>
+      </c>
+      <c r="AN124" s="26"/>
+    </row>
+    <row r="125" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>181</v>
       </c>
@@ -14092,8 +14477,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM125" s="19">
+        <v>118</v>
+      </c>
+      <c r="AN125" s="26"/>
+    </row>
+    <row r="126" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>182</v>
       </c>
@@ -14191,8 +14580,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM126" s="19">
+        <v>119</v>
+      </c>
+      <c r="AN126" s="26"/>
+    </row>
+    <row r="127" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>183</v>
       </c>
@@ -14290,8 +14683,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM127" s="19">
+        <v>120</v>
+      </c>
+      <c r="AN127" s="26"/>
+    </row>
+    <row r="128" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>184</v>
       </c>
@@ -14389,8 +14786,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM128" s="19">
+        <v>121</v>
+      </c>
+      <c r="AN128" s="44"/>
+    </row>
+    <row r="129" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>185</v>
       </c>
@@ -14488,8 +14889,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM129" s="19">
+        <v>122</v>
+      </c>
+      <c r="AN129" s="26"/>
+    </row>
+    <row r="130" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>186</v>
       </c>
@@ -14587,8 +14992,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM130" s="19">
+        <v>123</v>
+      </c>
+      <c r="AN130" s="44"/>
+    </row>
+    <row r="131" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>187</v>
       </c>
@@ -14686,8 +15095,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM131" s="19">
+        <v>124</v>
+      </c>
+      <c r="AN131" s="26"/>
+    </row>
+    <row r="132" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>188</v>
       </c>
@@ -14785,8 +15198,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM132" s="19">
+        <v>125</v>
+      </c>
+      <c r="AN132" s="26"/>
+    </row>
+    <row r="133" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>189</v>
       </c>
@@ -14884,8 +15301,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM133" s="19">
+        <v>126</v>
+      </c>
+      <c r="AN133" s="26"/>
+    </row>
+    <row r="134" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>190</v>
       </c>
@@ -14983,8 +15404,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM134" s="19">
+        <v>127</v>
+      </c>
+      <c r="AN134" s="26"/>
+    </row>
+    <row r="135" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>191</v>
       </c>
@@ -15082,8 +15507,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM135" s="19">
+        <v>128</v>
+      </c>
+      <c r="AN135" s="26"/>
+    </row>
+    <row r="136" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>192</v>
       </c>
@@ -15181,8 +15610,12 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM136" s="19">
+        <v>129</v>
+      </c>
+      <c r="AN136" s="44"/>
+    </row>
+    <row r="137" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>193</v>
       </c>
@@ -15280,8 +15713,12 @@
         <f t="shared" ref="AL137:AL155" si="62">AH137-AI137-AJ137-AK137</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM137" s="19">
+        <v>130</v>
+      </c>
+      <c r="AN137" s="26"/>
+    </row>
+    <row r="138" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>194</v>
       </c>
@@ -15379,8 +15816,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM138" s="19">
+        <v>131</v>
+      </c>
+      <c r="AN138" s="44"/>
+    </row>
+    <row r="139" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>195</v>
       </c>
@@ -15478,8 +15919,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM139" s="19">
+        <v>132</v>
+      </c>
+      <c r="AN139" s="26"/>
+    </row>
+    <row r="140" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>196</v>
       </c>
@@ -15577,8 +16022,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM140" s="19">
+        <v>133</v>
+      </c>
+      <c r="AN140" s="26"/>
+    </row>
+    <row r="141" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>197</v>
       </c>
@@ -15676,8 +16125,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM141" s="19">
+        <v>134</v>
+      </c>
+      <c r="AN141" s="26"/>
+    </row>
+    <row r="142" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>198</v>
       </c>
@@ -15775,8 +16228,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM142" s="19">
+        <v>135</v>
+      </c>
+      <c r="AN142" s="26"/>
+    </row>
+    <row r="143" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>199</v>
       </c>
@@ -15874,8 +16331,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM143" s="19">
+        <v>136</v>
+      </c>
+      <c r="AN143" s="26"/>
+    </row>
+    <row r="144" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>200</v>
       </c>
@@ -15973,8 +16434,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM144" s="19">
+        <v>137</v>
+      </c>
+      <c r="AN144" s="26"/>
+    </row>
+    <row r="145" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>201</v>
       </c>
@@ -16072,8 +16537,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM145" s="19">
+        <v>138</v>
+      </c>
+      <c r="AN145" s="44"/>
+    </row>
+    <row r="146" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>202</v>
       </c>
@@ -16171,8 +16640,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM146" s="19">
+        <v>139</v>
+      </c>
+      <c r="AN146" s="26"/>
+    </row>
+    <row r="147" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>203</v>
       </c>
@@ -16270,8 +16743,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM147" s="19">
+        <v>140</v>
+      </c>
+      <c r="AN147" s="44"/>
+    </row>
+    <row r="148" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>204</v>
       </c>
@@ -16369,8 +16846,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM148" s="19">
+        <v>141</v>
+      </c>
+      <c r="AN148" s="26"/>
+    </row>
+    <row r="149" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>205</v>
       </c>
@@ -16468,8 +16949,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM149" s="19">
+        <v>142</v>
+      </c>
+      <c r="AN149" s="26"/>
+    </row>
+    <row r="150" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>206</v>
       </c>
@@ -16567,8 +17052,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM150" s="19">
+        <v>143</v>
+      </c>
+      <c r="AN150" s="26"/>
+    </row>
+    <row r="151" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>207</v>
       </c>
@@ -16666,8 +17155,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM151" s="19">
+        <v>144</v>
+      </c>
+      <c r="AN151" s="26"/>
+    </row>
+    <row r="152" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>208</v>
       </c>
@@ -16765,8 +17258,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM152" s="19">
+        <v>145</v>
+      </c>
+      <c r="AN152" s="26"/>
+    </row>
+    <row r="153" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>209</v>
       </c>
@@ -16864,8 +17361,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM153" s="19">
+        <v>146</v>
+      </c>
+      <c r="AN153" s="44"/>
+    </row>
+    <row r="154" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>210</v>
       </c>
@@ -16963,8 +17464,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM154" s="19">
+        <v>147</v>
+      </c>
+      <c r="AN154" s="26"/>
+    </row>
+    <row r="155" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>211</v>
       </c>
@@ -17062,8 +17567,12 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM155" s="19">
+        <v>148</v>
+      </c>
+      <c r="AN155" s="44"/>
+    </row>
+    <row r="156" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
@@ -17140,7 +17649,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B157" s="37"/>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
@@ -17154,7 +17663,7 @@
       <c r="M157" s="37"/>
       <c r="O157"/>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B158" s="146" t="s">
         <v>78</v>
       </c>
@@ -17170,7 +17679,7 @@
       <c r="M158" s="37"/>
       <c r="O158"/>
     </row>
-    <row r="159" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="46" t="s">
         <v>79</v>
       </c>
@@ -17189,7 +17698,7 @@
       <c r="AD159" s="37"/>
       <c r="AE159" s="47"/>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B160" s="50"/>
       <c r="C160" s="50"/>
       <c r="D160" s="37"/>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A7258-68E7-C444-BBB9-E4135F68EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F23B61-1544-E344-8FB3-74528BB9264F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="217">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M93" workbookViewId="0">
-      <selection activeCell="AP143" sqref="AP143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2011,9 +2011,7 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
-        <v>166</v>
-      </c>
+      <c r="A2" s="110"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
       <c r="D2" s="110"/>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F23B61-1544-E344-8FB3-74528BB9264F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E6B93-A81A-BC46-A3E7-63FD9C2E8E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="218">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>PPH 21 (TER)</t>
+  </si>
+  <si>
+    <t>Jumlah Berdasarkan Komponen TPP</t>
   </si>
 </sst>
 </file>
@@ -1930,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AK2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2244,7 +2247,7 @@
         <v>28</v>
       </c>
       <c r="AE6" s="150" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="AF6" s="157"/>
       <c r="AG6" s="157"/>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E6B93-A81A-BC46-A3E7-63FD9C2E8E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF8F7E2-3B66-C64B-A8F6-8C7E6CB8A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
@@ -1189,7 +1189,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1446,6 +1446,87 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,12 +1566,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,60 +1590,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1584,30 +1605,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1933,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1972,125 +1971,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -2100,184 +2099,184 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="133" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="128" t="s">
+      <c r="S5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="156" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="156" t="s">
+      <c r="AG5" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="160" t="s">
+      <c r="AH5" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="148" t="s">
+      <c r="AI5" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="148" t="s">
+      <c r="AJ5" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="148" t="s">
+      <c r="AK5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="138" t="s">
+      <c r="AL5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="164" t="s">
+      <c r="AM5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="164"/>
+      <c r="AN5" s="110"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="123" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="133" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="133" t="s">
+      <c r="P6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="133" t="s">
+      <c r="Q6" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="134"/>
-      <c r="S6" s="135" t="s">
+      <c r="R6" s="116"/>
+      <c r="S6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="136"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="138" t="s">
+      <c r="T6" s="131"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="139" t="s">
+      <c r="W6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="140" t="s">
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="141" t="s">
+      <c r="AA6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="141" t="s">
+      <c r="AB6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="142" t="s">
+      <c r="AC6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="142" t="s">
+      <c r="AD6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="150" t="s">
+      <c r="AE6" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="AF6" s="157"/>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="149"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="164"/>
-      <c r="AN6" s="164"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="110"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="143"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="117"/>
       <c r="S7" s="5" t="s">
         <v>30</v>
       </c>
@@ -2287,7 +2286,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="138"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -2297,21 +2296,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="162"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="149"/>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="164"/>
-      <c r="AN7" s="164"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="110"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -17665,10 +17664,10 @@
       <c r="O157"/>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B158" s="146" t="s">
+      <c r="B158" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="146"/>
+      <c r="C158" s="119"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
@@ -17750,16 +17749,16 @@
       <c r="AE163" s="37"/>
     </row>
     <row r="164" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B164" s="145" t="s">
+      <c r="B164" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="C164" s="145"/>
-      <c r="T164" s="144"/>
-      <c r="U164" s="144"/>
-      <c r="V164" s="144"/>
-      <c r="W164" s="144"/>
-      <c r="X164" s="144"/>
-      <c r="Y164" s="144"/>
+      <c r="C164" s="120"/>
+      <c r="T164" s="118"/>
+      <c r="U164" s="118"/>
+      <c r="V164" s="118"/>
+      <c r="W164" s="118"/>
+      <c r="X164" s="118"/>
+      <c r="Y164" s="118"/>
       <c r="AE164" s="37"/>
     </row>
     <row r="165" spans="2:31" x14ac:dyDescent="0.2">
@@ -17767,12 +17766,12 @@
         <v>82</v>
       </c>
       <c r="C165" s="58"/>
-      <c r="T165" s="144"/>
-      <c r="U165" s="144"/>
-      <c r="V165" s="144"/>
-      <c r="W165" s="144"/>
-      <c r="X165" s="144"/>
-      <c r="Y165" s="144"/>
+      <c r="T165" s="118"/>
+      <c r="U165" s="118"/>
+      <c r="V165" s="118"/>
+      <c r="W165" s="118"/>
+      <c r="X165" s="118"/>
+      <c r="Y165" s="118"/>
     </row>
     <row r="166" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Z166" s="37"/>
@@ -18057,35 +18056,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AM5:AN7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -18102,6 +18072,35 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="AM5:AN7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18152,312 +18151,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
       <c r="R5" s="80"/>
-      <c r="S5" s="128" t="s">
+      <c r="S5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="156" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="156" t="s">
+      <c r="AG5" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="160" t="s">
+      <c r="AH5" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="148" t="s">
+      <c r="AI5" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="148" t="s">
+      <c r="AJ5" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="148" t="s">
+      <c r="AK5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="138" t="s">
+      <c r="AL5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="129" t="s">
+      <c r="AM5" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="130"/>
+      <c r="AN5" s="155"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="123" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="133" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="133" t="s">
+      <c r="P6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="133" t="s">
+      <c r="Q6" s="115" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="135" t="s">
+      <c r="S6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="136"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="138" t="s">
+      <c r="T6" s="131"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="139" t="s">
+      <c r="W6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="140" t="s">
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="141" t="s">
+      <c r="AA6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="141" t="s">
+      <c r="AB6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="142" t="s">
+      <c r="AC6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="142" t="s">
+      <c r="AD6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="150" t="s">
+      <c r="AE6" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="157"/>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="149"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="131"/>
-      <c r="AN6" s="132"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="157"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="81" t="s">
         <v>148</v>
       </c>
@@ -18470,7 +18469,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="138"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -18480,21 +18479,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="162"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="149"/>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="131"/>
-      <c r="AN7" s="132"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="157"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -20010,10 +20009,10 @@
       <c r="AL24" s="52"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="146"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -20029,12 +20028,12 @@
       <c r="Q25" s="45"/>
       <c r="R25" s="45"/>
       <c r="S25" s="37"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
@@ -20072,12 +20071,12 @@
       <c r="AC26" s="37"/>
       <c r="AD26" s="37"/>
       <c r="AF26" s="37"/>
-      <c r="AG26" s="163"/>
-      <c r="AH26" s="163"/>
-      <c r="AI26" s="163"/>
-      <c r="AJ26" s="163"/>
-      <c r="AK26" s="163"/>
-      <c r="AL26" s="163"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B27" s="50"/>
@@ -20100,12 +20099,12 @@
       <c r="AB27" s="37"/>
       <c r="AC27" s="37"/>
       <c r="AD27" s="37"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="163"/>
-      <c r="AJ27" s="163"/>
-      <c r="AK27" s="163"/>
-      <c r="AL27" s="163"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B28" s="50"/>
@@ -20164,10 +20163,10 @@
       <c r="AM30" s="37"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="145"/>
+      <c r="C31" s="120"/>
       <c r="AE31" s="37"/>
       <c r="AF31" s="60"/>
       <c r="AG31" s="60"/>
@@ -20183,12 +20182,12 @@
         <v>82</v>
       </c>
       <c r="C32" s="58"/>
-      <c r="T32" s="144"/>
-      <c r="U32" s="144"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="144"/>
-      <c r="X32" s="144"/>
-      <c r="Y32" s="144"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
       <c r="AF32" s="59"/>
       <c r="AG32" s="59"/>
       <c r="AH32" s="59"/>
@@ -20697,6 +20696,34 @@
     <filterColumn colId="35" showButton="0"/>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="AL5:AL7"/>
     <mergeCell ref="AM5:AN7"/>
     <mergeCell ref="A1:AK1"/>
@@ -20713,34 +20740,6 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20751,8 +20750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM1:AN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20792,319 +20791,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
-      <c r="AL1" s="110"/>
-      <c r="AM1" s="110"/>
-      <c r="AN1" s="110"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
       <c r="AO1" s="82"/>
     </row>
     <row r="2" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="110"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="137"/>
       <c r="AO2" s="82"/>
     </row>
     <row r="3" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="138"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="138"/>
       <c r="AO3" s="83"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
       <c r="R5" s="80"/>
-      <c r="S5" s="128" t="s">
+      <c r="S5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="156" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="156" t="s">
+      <c r="AG5" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="160" t="s">
+      <c r="AH5" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="148" t="s">
+      <c r="AI5" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="148" t="s">
+      <c r="AJ5" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="148" t="s">
+      <c r="AK5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="138" t="s">
+      <c r="AL5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="129" t="s">
+      <c r="AM5" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="130"/>
+      <c r="AN5" s="155"/>
       <c r="AO5" s="100"/>
     </row>
     <row r="6" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="123" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="133" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="133" t="s">
+      <c r="P6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="133" t="s">
+      <c r="Q6" s="115" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="135" t="s">
+      <c r="S6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="136"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="138" t="s">
+      <c r="T6" s="131"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="139" t="s">
+      <c r="W6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="140" t="s">
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="141" t="s">
+      <c r="AA6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="141" t="s">
+      <c r="AB6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="142" t="s">
+      <c r="AC6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="142" t="s">
+      <c r="AD6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="150" t="s">
+      <c r="AE6" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="157"/>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="149"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="131"/>
-      <c r="AN6" s="132"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="157"/>
       <c r="AO6" s="100"/>
     </row>
     <row r="7" spans="1:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="81" t="s">
         <v>148</v>
       </c>
@@ -21117,7 +21116,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="138"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -21127,21 +21126,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="162"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="149"/>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="131"/>
-      <c r="AN7" s="132"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="157"/>
       <c r="AO7" s="100"/>
     </row>
     <row r="8" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21281,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f t="shared" ref="U9:U15" si="2">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -21289,15 +21288,15 @@
         <v>0</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" ref="W9:W14" si="2">I9*K9*40%*O9</f>
+        <f t="shared" ref="W9:W14" si="3">I9*K9*40%*O9</f>
         <v>0</v>
       </c>
       <c r="X9" s="14">
-        <f t="shared" ref="X9:X14" si="3">IF(P9&gt;=6750,(I9*K9*40%),0)</f>
+        <f t="shared" ref="X9:X14" si="4">IF(P9&gt;=6750,(I9*K9*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y15" si="4">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y15" si="5">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="14">
@@ -21305,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="14">
-        <f t="shared" ref="AA9:AA14" si="5">I9*L9</f>
+        <f t="shared" ref="AA9:AA14" si="6">I9*L9</f>
         <v>0</v>
       </c>
       <c r="AB9" s="14">
@@ -21313,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="14">
-        <f t="shared" ref="AC9:AC14" si="6">I9*M9</f>
+        <f t="shared" ref="AC9:AC14" si="7">I9*M9</f>
         <v>0</v>
       </c>
       <c r="AD9" s="14">
@@ -21321,29 +21320,29 @@
         <v>0</v>
       </c>
       <c r="AE9" s="17">
-        <f t="shared" ref="AE9:AE14" si="7">+V9+Z9+AB9+AD9</f>
+        <f t="shared" ref="AE9:AE14" si="8">+V9+Z9+AB9+AD9</f>
         <v>0</v>
       </c>
       <c r="AF9" s="17">
-        <f t="shared" ref="AF9:AF15" si="8">AI9</f>
+        <f t="shared" ref="AF9:AF15" si="9">AI9</f>
         <v>0</v>
       </c>
       <c r="AG9" s="17">
-        <f t="shared" ref="AG9:AG15" si="9">AK9</f>
+        <f t="shared" ref="AG9:AG15" si="10">AK9</f>
         <v>0</v>
       </c>
       <c r="AH9" s="17">
-        <f t="shared" ref="AH9:AH16" si="10">AE9+AF9+AG9</f>
+        <f t="shared" ref="AH9:AH15" si="11">AE9+AF9+AG9</f>
         <v>0</v>
       </c>
       <c r="AI9" s="17"/>
       <c r="AJ9" s="25"/>
       <c r="AK9" s="18">
-        <f t="shared" ref="AK9:AK15" si="11">AJ9*4</f>
+        <f t="shared" ref="AK9:AK15" si="12">AJ9*4</f>
         <v>0</v>
       </c>
       <c r="AL9" s="16">
-        <f t="shared" ref="AL9:AL15" si="12">AH9-AI9-AJ9-AK9</f>
+        <f t="shared" ref="AL9:AL15" si="13">AH9-AI9-AJ9-AK9</f>
         <v>0</v>
       </c>
       <c r="AM9" s="19">
@@ -21369,7 +21368,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="24"/>
       <c r="N10" s="101">
-        <f t="shared" ref="N10:N15" si="13">I10*(SUM(J10:M10))*20%</f>
+        <f t="shared" ref="N10:N15" si="14">I10*(SUM(J10:M10))*20%</f>
         <v>0</v>
       </c>
       <c r="O10" s="109"/>
@@ -21377,15 +21376,15 @@
       <c r="Q10" s="107"/>
       <c r="R10" s="69"/>
       <c r="S10" s="16">
-        <f t="shared" ref="S10:S13" si="14">I10*J10*40%*O10</f>
+        <f t="shared" ref="S10:S13" si="15">I10*J10*40%*O10</f>
         <v>0</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" ref="T10:T13" si="15">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
+        <f t="shared" ref="T10:T13" si="16">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U10" s="16">
-        <f t="shared" ref="U10:U15" si="16">IF(P10&lt;6750,0,IF(Q10="",0,IF(OR(Q10="KURANG",Q10="SANGAT KURANG"),I10*J10*10%,I10*J10*20%)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10" s="101">
@@ -21401,7 +21400,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z10" s="101">
@@ -21429,25 +21428,25 @@
         <v>0</v>
       </c>
       <c r="AF10" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG10" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH10" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI10" s="102"/>
       <c r="AJ10" s="25"/>
       <c r="AK10" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL10" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM10" s="19">
@@ -21473,7 +21472,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="24"/>
       <c r="N11" s="101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O11" s="109"/>
@@ -21481,15 +21480,15 @@
       <c r="Q11" s="107"/>
       <c r="R11" s="69"/>
       <c r="S11" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="101">
@@ -21505,7 +21504,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z11" s="101">
@@ -21533,25 +21532,25 @@
         <v>0</v>
       </c>
       <c r="AF11" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG11" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH11" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI11" s="102"/>
       <c r="AJ11" s="25"/>
       <c r="AK11" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL11" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM11" s="19">
@@ -21577,7 +21576,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="24"/>
       <c r="N12" s="101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O12" s="109"/>
@@ -21585,15 +21584,15 @@
       <c r="Q12" s="107"/>
       <c r="R12" s="69"/>
       <c r="S12" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="16"/>
+        <f>IF(P12&lt;6750,0,IF(Q12="",0,IF(OR(Q12="KURANG",Q12="SANGAT KURANG"),I12*J12*10%,I12*J12*20%)))</f>
         <v>0</v>
       </c>
       <c r="V12" s="101">
@@ -21609,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z12" s="101">
@@ -21637,25 +21636,25 @@
         <v>0</v>
       </c>
       <c r="AF12" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG12" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH12" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI12" s="102"/>
       <c r="AJ12" s="25"/>
       <c r="AK12" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL12" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM12" s="19">
@@ -21681,7 +21680,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="24"/>
       <c r="N13" s="101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O13" s="109"/>
@@ -21689,15 +21688,15 @@
       <c r="Q13" s="107"/>
       <c r="R13" s="69"/>
       <c r="S13" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="101">
@@ -21713,7 +21712,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="101">
@@ -21741,25 +21740,25 @@
         <v>0</v>
       </c>
       <c r="AF13" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG13" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH13" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI13" s="102"/>
       <c r="AJ13" s="25"/>
       <c r="AK13" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL13" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM13" s="19">
@@ -21785,7 +21784,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="24"/>
       <c r="N14" s="101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O14" s="109"/>
@@ -21801,7 +21800,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="101">
@@ -21809,15 +21808,15 @@
         <v>0</v>
       </c>
       <c r="W14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z14" s="101">
@@ -21825,7 +21824,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB14" s="101">
@@ -21833,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD14" s="16">
@@ -21841,29 +21840,29 @@
         <v>0</v>
       </c>
       <c r="AE14" s="102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF14" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG14" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH14" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI14" s="102"/>
       <c r="AJ14" s="25"/>
       <c r="AK14" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL14" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM14" s="19">
@@ -21889,7 +21888,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="24"/>
       <c r="N15" s="101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O15" s="109"/>
@@ -21905,7 +21904,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15" s="101">
@@ -21921,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="101">
@@ -21949,25 +21948,25 @@
         <v>0</v>
       </c>
       <c r="AF15" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG15" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH15" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI15" s="102"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL15" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM15" s="19">
@@ -22021,35 +22020,35 @@
         <v>0</v>
       </c>
       <c r="AE16" s="41">
-        <f>SUM(AE8:AE15)</f>
+        <f t="shared" ref="AE16:AL16" si="36">SUM(AE8:AE15)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="41">
-        <f>SUM(AF8:AF15)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AG16" s="41">
-        <f>SUM(AG8:AG15)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AH16" s="41">
-        <f>SUM(AH8:AH15)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AI16" s="41">
-        <f>SUM(AI8:AI15)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="41">
-        <f>SUM(AJ8:AJ15)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AK16" s="41">
-        <f>SUM(AK8:AK15)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL16" s="41">
-        <f>SUM(AL8:AL15)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AM16" s="43"/>
@@ -22114,10 +22113,10 @@
       <c r="S19" s="76"/>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="146"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -22154,12 +22153,12 @@
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="37"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
@@ -22167,14 +22166,14 @@
       <c r="AD21" s="37"/>
       <c r="AE21" s="47"/>
       <c r="AF21" s="47"/>
-      <c r="AG21" s="147" t="s">
+      <c r="AG21" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="AH21" s="147"/>
-      <c r="AI21" s="147"/>
-      <c r="AJ21" s="147"/>
-      <c r="AK21" s="147"/>
-      <c r="AL21" s="147"/>
+      <c r="AH21" s="163"/>
+      <c r="AI21" s="163"/>
+      <c r="AJ21" s="163"/>
+      <c r="AK21" s="163"/>
+      <c r="AL21" s="163"/>
       <c r="AM21" s="37"/>
       <c r="AN21" s="49"/>
       <c r="AO21" s="49"/>
@@ -22197,12 +22196,12 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="37"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="37"/>
       <c r="AB22" s="37"/>
@@ -22296,46 +22295,46 @@
       <c r="AL25" s="52"/>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
+      <c r="C26" s="120"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
       <c r="AE26" s="37"/>
       <c r="AF26" s="37"/>
-      <c r="AG26" s="145" t="s">
+      <c r="AG26" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="145"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B27" s="58" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="58"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="AG27" s="145" t="s">
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="AG27" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="145"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="120"/>
+      <c r="AL27" s="120"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z28" s="37"/>
@@ -22584,7 +22583,7 @@
       <c r="C39" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="152" t="s">
+      <c r="D39" s="159" t="s">
         <v>158</v>
       </c>
       <c r="V39" s="63"/>
@@ -22611,7 +22610,7 @@
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B40" s="91"/>
       <c r="C40" s="90"/>
-      <c r="D40" s="153"/>
+      <c r="D40" s="160"/>
       <c r="V40" s="63"/>
       <c r="W40" s="63"/>
       <c r="X40" s="64"/>
@@ -22685,10 +22684,10 @@
     </row>
     <row r="43" spans="2:41" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="96"/>
-      <c r="C43" s="154" t="s">
+      <c r="C43" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="154"/>
+      <c r="D43" s="161"/>
       <c r="X43" s="37"/>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
@@ -22938,16 +22937,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AG27:AL27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AG21:AL21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AG26:AL26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AH5:AH7"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:AN2"/>
     <mergeCell ref="A3:AN3"/>
@@ -22964,30 +22977,16 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AG27:AL27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AG21:AL21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AG26:AL26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF8F7E2-3B66-C64B-A8F6-8C7E6CB8A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F490EE-B146-9140-8026-66E7E14C7706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1446,87 +1446,6 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,6 +1485,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,6 +1503,84 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1589,9 +1592,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1933,7 +1933,7 @@
   <dimension ref="A1:AN192"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,125 +1971,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -2099,184 +2099,184 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="144" t="s">
+      <c r="H5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="128" t="s">
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="150" t="s">
+      <c r="O5" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="115" t="s">
+      <c r="P5" s="126"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="153" t="s">
+      <c r="S5" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="121" t="s">
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="121" t="s">
+      <c r="AG5" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="124" t="s">
+      <c r="AH5" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="111" t="s">
+      <c r="AI5" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="111" t="s">
+      <c r="AJ5" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="111" t="s">
+      <c r="AK5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="114" t="s">
+      <c r="AL5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="110" t="s">
+      <c r="AM5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="110"/>
+      <c r="AN5" s="143"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="128" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="115" t="s">
+      <c r="N6" s="124"/>
+      <c r="O6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="115" t="s">
+      <c r="P6" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="115" t="s">
+      <c r="Q6" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="116"/>
-      <c r="S6" s="130" t="s">
+      <c r="R6" s="137"/>
+      <c r="S6" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="131"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="114" t="s">
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="133" t="s">
+      <c r="W6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="134" t="s">
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="135" t="s">
+      <c r="AA6" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="135" t="s">
+      <c r="AB6" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="136" t="s">
+      <c r="AD6" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="127" t="s">
+      <c r="AE6" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="112"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="110"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="141"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="117"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="147"/>
       <c r="S7" s="5" t="s">
         <v>30</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="114"/>
+      <c r="V7" s="141"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -2296,21 +2296,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="135"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="110"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="134"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="145"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="143"/>
+      <c r="AN7" s="143"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -17664,10 +17664,10 @@
       <c r="O157"/>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B158" s="119" t="s">
+      <c r="B158" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="119"/>
+      <c r="C158" s="130"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
@@ -17749,16 +17749,16 @@
       <c r="AE163" s="37"/>
     </row>
     <row r="164" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B164" s="120" t="s">
+      <c r="B164" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="C164" s="120"/>
-      <c r="T164" s="118"/>
-      <c r="U164" s="118"/>
-      <c r="V164" s="118"/>
-      <c r="W164" s="118"/>
-      <c r="X164" s="118"/>
-      <c r="Y164" s="118"/>
+      <c r="C164" s="131"/>
+      <c r="T164" s="129"/>
+      <c r="U164" s="129"/>
+      <c r="V164" s="129"/>
+      <c r="W164" s="129"/>
+      <c r="X164" s="129"/>
+      <c r="Y164" s="129"/>
       <c r="AE164" s="37"/>
     </row>
     <row r="165" spans="2:31" x14ac:dyDescent="0.2">
@@ -17766,12 +17766,12 @@
         <v>82</v>
       </c>
       <c r="C165" s="58"/>
-      <c r="T165" s="118"/>
-      <c r="U165" s="118"/>
-      <c r="V165" s="118"/>
-      <c r="W165" s="118"/>
-      <c r="X165" s="118"/>
-      <c r="Y165" s="118"/>
+      <c r="T165" s="129"/>
+      <c r="U165" s="129"/>
+      <c r="V165" s="129"/>
+      <c r="W165" s="129"/>
+      <c r="X165" s="129"/>
+      <c r="Y165" s="129"/>
     </row>
     <row r="166" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Z166" s="37"/>
@@ -18056,6 +18056,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="AM5:AN7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -18072,35 +18101,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="AM5:AN7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18151,312 +18151,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="144" t="s">
+      <c r="H5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="128" t="s">
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="150" t="s">
+      <c r="O5" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="152"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="127"/>
       <c r="R5" s="80"/>
-      <c r="S5" s="153" t="s">
+      <c r="S5" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="121" t="s">
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="121" t="s">
+      <c r="AG5" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="124" t="s">
+      <c r="AH5" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="111" t="s">
+      <c r="AI5" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="111" t="s">
+      <c r="AJ5" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="111" t="s">
+      <c r="AK5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="114" t="s">
+      <c r="AL5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="154" t="s">
+      <c r="AM5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="155"/>
+      <c r="AN5" s="156"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="128" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="115" t="s">
+      <c r="N6" s="124"/>
+      <c r="O6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="115" t="s">
+      <c r="P6" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="115" t="s">
+      <c r="Q6" s="136" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="130" t="s">
+      <c r="S6" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="131"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="114" t="s">
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="133" t="s">
+      <c r="W6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="134" t="s">
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="135" t="s">
+      <c r="AA6" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="135" t="s">
+      <c r="AB6" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="136" t="s">
+      <c r="AD6" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="127" t="s">
+      <c r="AE6" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="112"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="156"/>
-      <c r="AN6" s="157"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="141"/>
+      <c r="AM6" s="157"/>
+      <c r="AN6" s="158"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="81" t="s">
         <v>148</v>
       </c>
@@ -18469,7 +18469,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="114"/>
+      <c r="V7" s="141"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -18479,21 +18479,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="135"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="156"/>
-      <c r="AN7" s="157"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="134"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="145"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="157"/>
+      <c r="AN7" s="158"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -20009,10 +20009,10 @@
       <c r="AL24" s="52"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="119"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -20028,12 +20028,12 @@
       <c r="Q25" s="45"/>
       <c r="R25" s="45"/>
       <c r="S25" s="37"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
+      <c r="T25" s="154"/>
+      <c r="U25" s="154"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="154"/>
+      <c r="X25" s="154"/>
+      <c r="Y25" s="154"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
@@ -20163,10 +20163,10 @@
       <c r="AM30" s="37"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="120"/>
+      <c r="C31" s="131"/>
       <c r="AE31" s="37"/>
       <c r="AF31" s="60"/>
       <c r="AG31" s="60"/>
@@ -20182,12 +20182,12 @@
         <v>82</v>
       </c>
       <c r="C32" s="58"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
       <c r="AF32" s="59"/>
       <c r="AG32" s="59"/>
       <c r="AH32" s="59"/>
@@ -20696,6 +20696,34 @@
     <filterColumn colId="35" showButton="0"/>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AN7"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="AK5:AK7"/>
     <mergeCell ref="T32:Y32"/>
@@ -20712,34 +20740,6 @@
     <mergeCell ref="AF5:AF7"/>
     <mergeCell ref="AG5:AG7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AM5:AN7"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20750,8 +20750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6:Z7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8:AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20791,319 +20791,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="110"/>
       <c r="AO1" s="82"/>
     </row>
     <row r="2" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="137"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
       <c r="AO2" s="82"/>
     </row>
     <row r="3" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
-      <c r="AN3" s="138"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="111"/>
+      <c r="AN3" s="111"/>
       <c r="AO3" s="83"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="144" t="s">
+      <c r="H5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="128" t="s">
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="150" t="s">
+      <c r="O5" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="152"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="127"/>
       <c r="R5" s="80"/>
-      <c r="S5" s="153" t="s">
+      <c r="S5" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="121" t="s">
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="121" t="s">
+      <c r="AG5" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="124" t="s">
+      <c r="AH5" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="111" t="s">
+      <c r="AI5" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="111" t="s">
+      <c r="AJ5" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="111" t="s">
+      <c r="AK5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="114" t="s">
+      <c r="AL5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="154" t="s">
+      <c r="AM5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="155"/>
+      <c r="AN5" s="156"/>
       <c r="AO5" s="100"/>
     </row>
     <row r="6" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="128" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="115" t="s">
+      <c r="N6" s="124"/>
+      <c r="O6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="115" t="s">
+      <c r="P6" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="115" t="s">
+      <c r="Q6" s="136" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="130" t="s">
+      <c r="S6" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="131"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="114" t="s">
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="133" t="s">
+      <c r="W6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="134" t="s">
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="135" t="s">
+      <c r="AA6" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="135" t="s">
+      <c r="AB6" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="136" t="s">
+      <c r="AD6" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="127" t="s">
+      <c r="AE6" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="112"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="156"/>
-      <c r="AN6" s="157"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="141"/>
+      <c r="AM6" s="157"/>
+      <c r="AN6" s="158"/>
       <c r="AO6" s="100"/>
     </row>
     <row r="7" spans="1:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="81" t="s">
         <v>148</v>
       </c>
@@ -21116,7 +21116,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="114"/>
+      <c r="V7" s="141"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -21126,21 +21126,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="135"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="156"/>
-      <c r="AN7" s="157"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="134"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="145"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="157"/>
+      <c r="AN7" s="158"/>
       <c r="AO7" s="100"/>
     </row>
     <row r="8" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21196,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <f>SUM(W8:Y8)</f>
+        <f>ROUND(SUM(W8:Y8),0)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="16">
@@ -21204,7 +21204,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <f>AA8</f>
+        <f>ROUND(AA8,0)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="16">
@@ -21212,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="16">
-        <f>AC8*20%</f>
+        <f>ROUND(AC8*20%,0)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="17">
@@ -21299,50 +21299,50 @@
         <f t="shared" ref="Y9:Y15" si="5">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="14">
-        <f>SUM(W9:Y9)</f>
+      <c r="Z9" s="16">
+        <f t="shared" ref="Z9:Z15" si="6">ROUND(SUM(W9:Y9),0)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="14">
-        <f t="shared" ref="AA9:AA14" si="6">I9*L9</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14">
-        <f>AA9</f>
+        <f t="shared" ref="AA9:AA14" si="7">I9*L9</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <f t="shared" ref="AB9:AB15" si="8">ROUND(AA9,0)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="14">
-        <f t="shared" ref="AC9:AC14" si="7">I9*M9</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="14">
-        <f>AC9</f>
+        <f t="shared" ref="AC9:AC14" si="9">I9*M9</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <f t="shared" ref="AD9:AD15" si="10">ROUND(AC9*20%,0)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="17">
-        <f t="shared" ref="AE9:AE14" si="8">+V9+Z9+AB9+AD9</f>
+        <f t="shared" ref="AE9:AE14" si="11">+V9+Z9+AB9+AD9</f>
         <v>0</v>
       </c>
       <c r="AF9" s="17">
-        <f t="shared" ref="AF9:AF15" si="9">AI9</f>
+        <f t="shared" ref="AF9:AF15" si="12">AI9</f>
         <v>0</v>
       </c>
       <c r="AG9" s="17">
-        <f t="shared" ref="AG9:AG15" si="10">AK9</f>
+        <f t="shared" ref="AG9:AG15" si="13">AK9</f>
         <v>0</v>
       </c>
       <c r="AH9" s="17">
-        <f t="shared" ref="AH9:AH15" si="11">AE9+AF9+AG9</f>
+        <f t="shared" ref="AH9:AH15" si="14">AE9+AF9+AG9</f>
         <v>0</v>
       </c>
       <c r="AI9" s="17"/>
       <c r="AJ9" s="25"/>
       <c r="AK9" s="18">
-        <f t="shared" ref="AK9:AK15" si="12">AJ9*4</f>
+        <f t="shared" ref="AK9:AK15" si="15">AJ9*4</f>
         <v>0</v>
       </c>
       <c r="AL9" s="16">
-        <f t="shared" ref="AL9:AL15" si="13">AH9-AI9-AJ9-AK9</f>
+        <f t="shared" ref="AL9:AL15" si="16">AH9-AI9-AJ9-AK9</f>
         <v>0</v>
       </c>
       <c r="AM9" s="19">
@@ -21368,7 +21368,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="24"/>
       <c r="N10" s="101">
-        <f t="shared" ref="N10:N15" si="14">I10*(SUM(J10:M10))*20%</f>
+        <f t="shared" ref="N10:N15" si="17">I10*(SUM(J10:M10))*20%</f>
         <v>0</v>
       </c>
       <c r="O10" s="109"/>
@@ -21376,11 +21376,11 @@
       <c r="Q10" s="107"/>
       <c r="R10" s="69"/>
       <c r="S10" s="16">
-        <f t="shared" ref="S10:S13" si="15">I10*J10*40%*O10</f>
+        <f t="shared" ref="S10:S13" si="18">I10*J10*40%*O10</f>
         <v>0</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" ref="T10:T13" si="16">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
+        <f t="shared" ref="T10:T13" si="19">IF(P10&gt;=6750,(I10*J10*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U10" s="16">
@@ -21388,39 +21388,39 @@
         <v>0</v>
       </c>
       <c r="V10" s="101">
-        <f t="shared" ref="V10:V15" si="17">ROUND(SUM(S10:U10)*20%,)</f>
+        <f t="shared" ref="V10:V15" si="20">ROUND(SUM(S10:U10)*20%,)</f>
         <v>0</v>
       </c>
       <c r="W10" s="16">
-        <f t="shared" ref="W10:W13" si="18">I10*K10*40%*O10</f>
+        <f t="shared" ref="W10:W13" si="21">I10*K10*40%*O10</f>
         <v>0</v>
       </c>
       <c r="X10" s="16">
-        <f t="shared" ref="X10:X13" si="19">IF(P10&gt;=6750,(I10*K10*40%),0)</f>
+        <f t="shared" ref="X10:X13" si="22">IF(P10&gt;=6750,(I10*K10*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y10" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="101">
-        <f t="shared" ref="Z10:Z15" si="20">SUM(W10:Y10)*20%</f>
+      <c r="Z10" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA10" s="16">
-        <f t="shared" ref="AA10:AA13" si="21">I10*L10</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="101">
-        <f t="shared" ref="AB10:AB15" si="22">AA10*20%</f>
+        <f t="shared" ref="AA10:AA13" si="23">I10*L10</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC10" s="16">
-        <f t="shared" ref="AC10:AC13" si="23">I10*M10</f>
+        <f t="shared" ref="AC10:AC13" si="24">I10*M10</f>
         <v>0</v>
       </c>
       <c r="AD10" s="16">
-        <f t="shared" ref="AD10:AD13" si="24">AC10*20%</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE10" s="102">
@@ -21428,25 +21428,25 @@
         <v>0</v>
       </c>
       <c r="AF10" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG10" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH10" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI10" s="102"/>
       <c r="AJ10" s="25"/>
       <c r="AK10" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL10" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM10" s="19">
@@ -21472,7 +21472,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="24"/>
       <c r="N11" s="101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O11" s="109"/>
@@ -21480,11 +21480,11 @@
       <c r="Q11" s="107"/>
       <c r="R11" s="69"/>
       <c r="S11" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U11" s="16">
@@ -21492,39 +21492,39 @@
         <v>0</v>
       </c>
       <c r="V11" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W11" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X11" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y11" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="101">
-        <f t="shared" si="20"/>
+      <c r="Z11" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA11" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC11" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD11" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE11" s="102">
@@ -21532,25 +21532,25 @@
         <v>0</v>
       </c>
       <c r="AF11" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG11" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH11" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI11" s="102"/>
       <c r="AJ11" s="25"/>
       <c r="AK11" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL11" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM11" s="19">
@@ -21576,7 +21576,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="24"/>
       <c r="N12" s="101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O12" s="109"/>
@@ -21584,11 +21584,11 @@
       <c r="Q12" s="107"/>
       <c r="R12" s="69"/>
       <c r="S12" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U12" s="16">
@@ -21596,39 +21596,39 @@
         <v>0</v>
       </c>
       <c r="V12" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W12" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y12" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="101">
-        <f t="shared" si="20"/>
+      <c r="Z12" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC12" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD12" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE12" s="102">
@@ -21636,25 +21636,25 @@
         <v>0</v>
       </c>
       <c r="AF12" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG12" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH12" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI12" s="102"/>
       <c r="AJ12" s="25"/>
       <c r="AK12" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL12" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM12" s="19">
@@ -21680,7 +21680,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="24"/>
       <c r="N13" s="101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O13" s="109"/>
@@ -21688,11 +21688,11 @@
       <c r="Q13" s="107"/>
       <c r="R13" s="69"/>
       <c r="S13" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U13" s="16">
@@ -21700,39 +21700,39 @@
         <v>0</v>
       </c>
       <c r="V13" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W13" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y13" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="101">
-        <f t="shared" si="20"/>
+      <c r="Z13" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC13" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD13" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE13" s="102">
@@ -21740,25 +21740,25 @@
         <v>0</v>
       </c>
       <c r="AF13" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG13" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH13" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI13" s="102"/>
       <c r="AJ13" s="25"/>
       <c r="AK13" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL13" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM13" s="19">
@@ -21784,7 +21784,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="24"/>
       <c r="N14" s="101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O14" s="109"/>
@@ -21804,7 +21804,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W14" s="16">
@@ -21819,50 +21819,50 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="101">
-        <f t="shared" si="20"/>
+      <c r="Z14" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD14" s="16">
-        <f t="shared" ref="AD14:AD15" si="26">AC14*20%</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE14" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF14" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG14" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH14" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI14" s="102"/>
       <c r="AJ14" s="25"/>
       <c r="AK14" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL14" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM14" s="19">
@@ -21888,7 +21888,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="24"/>
       <c r="N15" s="101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O15" s="109"/>
@@ -21896,11 +21896,11 @@
       <c r="Q15" s="107"/>
       <c r="R15" s="69"/>
       <c r="S15" s="16">
-        <f t="shared" ref="S15" si="27">I15*J15*40%*O15</f>
+        <f t="shared" ref="S15" si="26">I15*J15*40%*O15</f>
         <v>0</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" ref="T15" si="28">IF(P15&gt;=6750,(I15*J15*40%),0)</f>
+        <f t="shared" ref="T15" si="27">IF(P15&gt;=6750,(I15*J15*40%),0)</f>
         <v>0</v>
       </c>
       <c r="U15" s="16">
@@ -21908,65 +21908,65 @@
         <v>0</v>
       </c>
       <c r="V15" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W15" s="16">
-        <f t="shared" ref="W15" si="29">I15*K15*40%*O15</f>
+        <f t="shared" ref="W15" si="28">I15*K15*40%*O15</f>
         <v>0</v>
       </c>
       <c r="X15" s="16">
-        <f t="shared" ref="X15" si="30">IF(P15&gt;=6750,(I15*K15*40%),0)</f>
+        <f t="shared" ref="X15" si="29">IF(P15&gt;=6750,(I15*K15*40%),0)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="101">
-        <f t="shared" si="20"/>
+      <c r="Z15" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA15" s="16">
-        <f t="shared" ref="AA15" si="31">I15*L15</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="101">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AA15" si="30">I15*L15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC15" s="16">
-        <f t="shared" ref="AC15" si="32">I15*M15</f>
+        <f t="shared" ref="AC15" si="31">I15*M15</f>
         <v>0</v>
       </c>
       <c r="AD15" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE15" s="102">
-        <f t="shared" ref="AE15" si="33">+V15+Z15+AB15+AD15</f>
+        <f t="shared" ref="AE15" si="32">+V15+Z15+AB15+AD15</f>
         <v>0</v>
       </c>
       <c r="AF15" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG15" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH15" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI15" s="102"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL15" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM15" s="19">
@@ -22011,44 +22011,44 @@
       </c>
       <c r="AA16" s="42"/>
       <c r="AB16" s="16">
-        <f t="shared" ref="AB16" si="34">AA16</f>
+        <f t="shared" ref="AB16" si="33">AA16</f>
         <v>0</v>
       </c>
       <c r="AC16" s="42"/>
       <c r="AD16" s="16">
-        <f t="shared" ref="AD16" si="35">AC16</f>
+        <f t="shared" ref="AD16" si="34">AC16</f>
         <v>0</v>
       </c>
       <c r="AE16" s="41">
-        <f t="shared" ref="AE16:AL16" si="36">SUM(AE8:AE15)</f>
+        <f t="shared" ref="AE16:AL16" si="35">SUM(AE8:AE15)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG16" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH16" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI16" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK16" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AL16" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AM16" s="43"/>
@@ -22113,10 +22113,10 @@
       <c r="S19" s="76"/>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="119"/>
+      <c r="C20" s="130"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -22295,46 +22295,46 @@
       <c r="AL25" s="52"/>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
+      <c r="C26" s="131"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
       <c r="AE26" s="37"/>
       <c r="AF26" s="37"/>
-      <c r="AG26" s="120" t="s">
+      <c r="AG26" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AH26" s="120"/>
-      <c r="AI26" s="120"/>
-      <c r="AJ26" s="120"/>
-      <c r="AK26" s="120"/>
-      <c r="AL26" s="120"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="131"/>
+      <c r="AJ26" s="131"/>
+      <c r="AK26" s="131"/>
+      <c r="AL26" s="131"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B27" s="58" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="58"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="AG27" s="120" t="s">
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="129"/>
+      <c r="AG27" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="120"/>
-      <c r="AL27" s="120"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="131"/>
+      <c r="AJ27" s="131"/>
+      <c r="AK27" s="131"/>
+      <c r="AL27" s="131"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z28" s="37"/>
@@ -22937,30 +22937,16 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AG27:AL27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AG21:AL21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AG26:AL26"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:AN2"/>
     <mergeCell ref="A3:AN3"/>
@@ -22977,16 +22963,30 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AG27:AL27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AG21:AL21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AG26:AL26"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F490EE-B146-9140-8026-66E7E14C7706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B6D9D2-312B-A040-86FA-F445F40E0ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1446,6 +1446,87 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,12 +1566,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,84 +1578,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,6 +1589,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1971,125 +1971,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -2099,184 +2099,184 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="136" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="128" t="s">
+      <c r="S5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="132" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="132" t="s">
+      <c r="AG5" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="148" t="s">
+      <c r="AH5" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="144" t="s">
+      <c r="AI5" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="144" t="s">
+      <c r="AJ5" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="144" t="s">
+      <c r="AK5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="141" t="s">
+      <c r="AL5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="143" t="s">
+      <c r="AM5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="143"/>
+      <c r="AN5" s="110"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="123" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="136" t="s">
+      <c r="N6" s="132"/>
+      <c r="O6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="136" t="s">
+      <c r="P6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="136" t="s">
+      <c r="Q6" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="137"/>
-      <c r="S6" s="138" t="s">
+      <c r="R6" s="116"/>
+      <c r="S6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="139"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="141" t="s">
+      <c r="T6" s="134"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="142" t="s">
+      <c r="W6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="151" t="s">
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="152" t="s">
+      <c r="AA6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="152" t="s">
+      <c r="AB6" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="153" t="s">
+      <c r="AC6" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="153" t="s">
+      <c r="AD6" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="135" t="s">
+      <c r="AE6" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="141"/>
-      <c r="AM6" s="143"/>
-      <c r="AN6" s="143"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="110"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="147"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="117"/>
       <c r="S7" s="5" t="s">
         <v>30</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="141"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -2296,21 +2296,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="134"/>
-      <c r="AG7" s="134"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="143"/>
-      <c r="AN7" s="143"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="110"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -17664,10 +17664,10 @@
       <c r="O157"/>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B158" s="130" t="s">
+      <c r="B158" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="130"/>
+      <c r="C158" s="128"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
@@ -17749,16 +17749,16 @@
       <c r="AE163" s="37"/>
     </row>
     <row r="164" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B164" s="131" t="s">
+      <c r="B164" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="C164" s="131"/>
-      <c r="T164" s="129"/>
-      <c r="U164" s="129"/>
-      <c r="V164" s="129"/>
-      <c r="W164" s="129"/>
-      <c r="X164" s="129"/>
-      <c r="Y164" s="129"/>
+      <c r="C164" s="129"/>
+      <c r="T164" s="127"/>
+      <c r="U164" s="127"/>
+      <c r="V164" s="127"/>
+      <c r="W164" s="127"/>
+      <c r="X164" s="127"/>
+      <c r="Y164" s="127"/>
       <c r="AE164" s="37"/>
     </row>
     <row r="165" spans="2:31" x14ac:dyDescent="0.2">
@@ -17766,12 +17766,12 @@
         <v>82</v>
       </c>
       <c r="C165" s="58"/>
-      <c r="T165" s="129"/>
-      <c r="U165" s="129"/>
-      <c r="V165" s="129"/>
-      <c r="W165" s="129"/>
-      <c r="X165" s="129"/>
-      <c r="Y165" s="129"/>
+      <c r="T165" s="127"/>
+      <c r="U165" s="127"/>
+      <c r="V165" s="127"/>
+      <c r="W165" s="127"/>
+      <c r="X165" s="127"/>
+      <c r="Y165" s="127"/>
     </row>
     <row r="166" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Z166" s="37"/>
@@ -18056,19 +18056,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AM5:AN7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S5:AE5"/>
     <mergeCell ref="T165:Y165"/>
     <mergeCell ref="B158:C158"/>
     <mergeCell ref="B164:C164"/>
@@ -18085,22 +18088,19 @@
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="AM5:AN7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18151,312 +18151,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
       <c r="R5" s="80"/>
-      <c r="S5" s="128" t="s">
+      <c r="S5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="132" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="132" t="s">
+      <c r="AG5" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="148" t="s">
+      <c r="AH5" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="144" t="s">
+      <c r="AI5" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="144" t="s">
+      <c r="AJ5" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="144" t="s">
+      <c r="AK5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="141" t="s">
+      <c r="AL5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="155" t="s">
+      <c r="AM5" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="156"/>
+      <c r="AN5" s="155"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="123" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="136" t="s">
+      <c r="N6" s="132"/>
+      <c r="O6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="136" t="s">
+      <c r="P6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="136" t="s">
+      <c r="Q6" s="115" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="139"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="141" t="s">
+      <c r="T6" s="134"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="142" t="s">
+      <c r="W6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="151" t="s">
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="152" t="s">
+      <c r="AA6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="152" t="s">
+      <c r="AB6" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="153" t="s">
+      <c r="AC6" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="153" t="s">
+      <c r="AD6" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="135" t="s">
+      <c r="AE6" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="141"/>
-      <c r="AM6" s="157"/>
-      <c r="AN6" s="158"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="157"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="81" t="s">
         <v>148</v>
       </c>
@@ -18469,7 +18469,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="141"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -18479,21 +18479,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="134"/>
-      <c r="AG7" s="134"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="157"/>
-      <c r="AN7" s="158"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="157"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -20009,10 +20009,10 @@
       <c r="AL24" s="52"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="130"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -20028,12 +20028,12 @@
       <c r="Q25" s="45"/>
       <c r="R25" s="45"/>
       <c r="S25" s="37"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="154"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
@@ -20163,10 +20163,10 @@
       <c r="AM30" s="37"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="131"/>
+      <c r="C31" s="129"/>
       <c r="AE31" s="37"/>
       <c r="AF31" s="60"/>
       <c r="AG31" s="60"/>
@@ -20182,12 +20182,12 @@
         <v>82</v>
       </c>
       <c r="C32" s="58"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="129"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
       <c r="AF32" s="59"/>
       <c r="AG32" s="59"/>
       <c r="AH32" s="59"/>
@@ -20696,6 +20696,34 @@
     <filterColumn colId="35" showButton="0"/>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="AL5:AL7"/>
     <mergeCell ref="AM5:AN7"/>
     <mergeCell ref="A1:AK1"/>
@@ -20712,34 +20740,6 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:N7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20750,8 +20750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8:AD15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20764,8 +20764,8 @@
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="55" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -20791,319 +20791,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
-      <c r="AL1" s="110"/>
-      <c r="AM1" s="110"/>
-      <c r="AN1" s="110"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
       <c r="AO1" s="82"/>
     </row>
     <row r="2" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="110"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="137"/>
       <c r="AO2" s="82"/>
     </row>
     <row r="3" spans="1:41" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="138"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="138"/>
       <c r="AO3" s="83"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
       <c r="R5" s="80"/>
-      <c r="S5" s="128" t="s">
+      <c r="S5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="132" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="132" t="s">
+      <c r="AG5" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="148" t="s">
+      <c r="AH5" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="144" t="s">
+      <c r="AI5" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="AJ5" s="144" t="s">
+      <c r="AJ5" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="144" t="s">
+      <c r="AK5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="141" t="s">
+      <c r="AL5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="155" t="s">
+      <c r="AM5" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="156"/>
+      <c r="AN5" s="155"/>
       <c r="AO5" s="100"/>
     </row>
     <row r="6" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="123" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="136" t="s">
+      <c r="N6" s="132"/>
+      <c r="O6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="136" t="s">
+      <c r="P6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="136" t="s">
+      <c r="Q6" s="115" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="139"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="141" t="s">
+      <c r="T6" s="134"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="142" t="s">
+      <c r="W6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="151" t="s">
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="152" t="s">
+      <c r="AA6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="152" t="s">
+      <c r="AB6" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="153" t="s">
+      <c r="AC6" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="153" t="s">
+      <c r="AD6" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="135" t="s">
+      <c r="AE6" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="141"/>
-      <c r="AM6" s="157"/>
-      <c r="AN6" s="158"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="157"/>
       <c r="AO6" s="100"/>
     </row>
     <row r="7" spans="1:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="81" t="s">
         <v>148</v>
       </c>
@@ -21116,7 +21116,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="141"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -21126,21 +21126,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="134"/>
-      <c r="AG7" s="134"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="157"/>
-      <c r="AN7" s="158"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="157"/>
       <c r="AO7" s="100"/>
     </row>
     <row r="8" spans="1:41" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -22113,10 +22113,10 @@
       <c r="S19" s="76"/>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="130"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -22295,46 +22295,46 @@
       <c r="AL25" s="52"/>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
       <c r="AE26" s="37"/>
       <c r="AF26" s="37"/>
-      <c r="AG26" s="131" t="s">
+      <c r="AG26" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="131"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="129"/>
+      <c r="AJ26" s="129"/>
+      <c r="AK26" s="129"/>
+      <c r="AL26" s="129"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B27" s="58" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="58"/>
-      <c r="T27" s="129"/>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="AG27" s="131" t="s">
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="AG27" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="131"/>
-      <c r="AJ27" s="131"/>
-      <c r="AK27" s="131"/>
-      <c r="AL27" s="131"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="129"/>
+      <c r="AJ27" s="129"/>
+      <c r="AK27" s="129"/>
+      <c r="AL27" s="129"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z28" s="37"/>
@@ -22937,16 +22937,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AG27:AL27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AG21:AL21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AG26:AL26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AH5:AH7"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:AN2"/>
     <mergeCell ref="A3:AN3"/>
@@ -22963,30 +22977,16 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AG27:AL27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AG21:AL21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AG26:AL26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B6D9D2-312B-A040-86FA-F445F40E0ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD502EEB-9AB9-0048-9673-DCFEC51F95E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1947,7 +1947,7 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="55" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -18111,8 +18111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2909FC1-85D7-2845-970A-4AF6BA3F4156}">
   <dimension ref="A1:AN59"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AN1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18126,7 +18126,7 @@
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="55" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -20750,8 +20750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20764,7 +20764,7 @@
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="55" customWidth="1"/>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/var/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7570B1D-A3D9-D943-8A28-41905470C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52357F5E-2204-A447-AFBC-86FA931BDE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1440,84 +1440,6 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,6 +1479,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,6 +1497,87 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1580,15 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1966,119 +1966,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
       <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2088,180 +2088,180 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="144" t="s">
+      <c r="I5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="145" t="s">
+      <c r="J5" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="132" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="148" t="s">
+      <c r="O5" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="114" t="s">
+      <c r="P5" s="125"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="117" t="s">
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="AE5" s="117" t="s">
+      <c r="AE5" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="AF5" s="120" t="s">
+      <c r="AF5" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="110" t="s">
+      <c r="AG5" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="110" t="s">
+      <c r="AH5" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="110" t="s">
+      <c r="AI5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="113" t="s">
+      <c r="AJ5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="109" t="s">
+      <c r="AK5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="109"/>
+      <c r="AL5" s="139"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="132" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="133"/>
-      <c r="O6" s="114" t="s">
+      <c r="N6" s="123"/>
+      <c r="O6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="114" t="s">
+      <c r="P6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="114" t="s">
+      <c r="Q6" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="115"/>
-      <c r="S6" s="126" t="s">
+      <c r="R6" s="136"/>
+      <c r="S6" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="134" t="s">
+      <c r="U6" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="123" t="s">
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="124" t="s">
+      <c r="Y6" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="124" t="s">
+      <c r="Z6" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="125" t="s">
+      <c r="AA6" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="125" t="s">
+      <c r="AB6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="131" t="s">
+      <c r="AC6" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="109"/>
-      <c r="AL6" s="109"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="139"/>
+      <c r="AL6" s="139"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="113"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="137"/>
       <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2271,21 +2271,21 @@
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
+      <c r="X7" s="147"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="133"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="142"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="137"/>
+      <c r="AK7" s="139"/>
+      <c r="AL7" s="139"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="T136" s="15">
-        <f t="shared" ref="T136:T167" si="56">ROUND(SUM(S136:S136),0)</f>
+        <f t="shared" ref="T136:T155" si="56">ROUND(SUM(S136:S136),0)</f>
         <v>0</v>
       </c>
       <c r="U136" s="15">
@@ -16842,6 +16842,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="AK5:AL7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S165:W165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="S164:W164"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:AI2"/>
     <mergeCell ref="A3:AI3"/>
@@ -16858,35 +16887,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="S5:AC5"/>
-    <mergeCell ref="S165:W165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="S164:W164"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="AK5:AL7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16935,305 +16935,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
       <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="144" t="s">
+      <c r="I5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="145" t="s">
+      <c r="J5" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="132" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="148" t="s">
+      <c r="O5" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="150"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="126"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="117" t="s">
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="AE5" s="117" t="s">
+      <c r="AE5" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="AF5" s="120" t="s">
+      <c r="AF5" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="110" t="s">
+      <c r="AG5" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="110" t="s">
+      <c r="AH5" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="110" t="s">
+      <c r="AI5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="113" t="s">
+      <c r="AJ5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="152" t="s">
+      <c r="AK5" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="153"/>
+      <c r="AL5" s="156"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="132" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="133"/>
-      <c r="O6" s="114" t="s">
+      <c r="N6" s="123"/>
+      <c r="O6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="114" t="s">
+      <c r="P6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="114" t="s">
+      <c r="Q6" s="135" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="156" t="s">
+      <c r="S6" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="134" t="s">
+      <c r="U6" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="123" t="s">
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="124" t="s">
+      <c r="Y6" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="124" t="s">
+      <c r="Z6" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="125" t="s">
+      <c r="AA6" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="125" t="s">
+      <c r="AB6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="131" t="s">
+      <c r="AC6" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="154"/>
-      <c r="AL6" s="155"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="157"/>
+      <c r="AL6" s="158"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
       <c r="R7" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="157"/>
-      <c r="T7" s="113"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="137"/>
       <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
@@ -17243,21 +17243,21 @@
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="154"/>
-      <c r="AL7" s="155"/>
+      <c r="X7" s="147"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="133"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="142"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="137"/>
+      <c r="AK7" s="157"/>
+      <c r="AL7" s="158"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -18667,11 +18667,11 @@
       <c r="P25" s="44"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -19331,6 +19331,34 @@
     <filterColumn colId="33" showButton="0"/>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AL7"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="S5:AC5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="AH5:AH7"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="S32:W32"/>
@@ -19347,34 +19375,6 @@
     <mergeCell ref="AD5:AD7"/>
     <mergeCell ref="AE5:AE7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="S5:AC5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AL7"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A3:AI3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19385,8 +19385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T8:T13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19424,312 +19424,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="135"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="109"/>
       <c r="AM1" s="81"/>
     </row>
     <row r="2" spans="1:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
       <c r="AM2" s="81"/>
     </row>
     <row r="3" spans="1:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
       <c r="AM3" s="82"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="144" t="s">
+      <c r="I5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="145" t="s">
+      <c r="J5" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="132" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="148" t="s">
+      <c r="O5" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="150"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="126"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="117" t="s">
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="AE5" s="117" t="s">
+      <c r="AE5" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="AF5" s="120" t="s">
+      <c r="AF5" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="110" t="s">
+      <c r="AG5" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="110" t="s">
+      <c r="AH5" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="110" t="s">
+      <c r="AI5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="113" t="s">
+      <c r="AJ5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="152" t="s">
+      <c r="AK5" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="153"/>
+      <c r="AL5" s="156"/>
       <c r="AM5" s="99"/>
     </row>
     <row r="6" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="132" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="133"/>
-      <c r="O6" s="114" t="s">
+      <c r="N6" s="123"/>
+      <c r="O6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="114" t="s">
+      <c r="P6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="114" t="s">
+      <c r="Q6" s="135" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="156" t="s">
+      <c r="S6" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="134" t="s">
+      <c r="U6" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="123" t="s">
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="124" t="s">
+      <c r="Y6" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="124" t="s">
+      <c r="Z6" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="125" t="s">
+      <c r="AA6" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="125" t="s">
+      <c r="AB6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="131" t="s">
+      <c r="AC6" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="154"/>
-      <c r="AL6" s="155"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="157"/>
+      <c r="AL6" s="158"/>
       <c r="AM6" s="99"/>
     </row>
     <row r="7" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
       <c r="R7" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="157"/>
-      <c r="T7" s="113"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="137"/>
       <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
@@ -19739,21 +19739,21 @@
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="154"/>
-      <c r="AL7" s="155"/>
+      <c r="X7" s="147"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="133"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="142"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="137"/>
+      <c r="AK7" s="157"/>
+      <c r="AL7" s="158"/>
       <c r="AM7" s="99"/>
     </row>
     <row r="8" spans="1:39" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19784,36 +19784,36 @@
         <f>I8*J8</f>
         <v>0</v>
       </c>
-      <c r="T8" s="100">
-        <f t="shared" ref="T8:T15" si="0">ROUND(SUM(S8:S8)*20%,)</f>
+      <c r="T8" s="15">
+        <f>ROUND(SUM(S8:S8)*20%,)</f>
         <v>0</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" ref="U8:U15" si="1">I8*K8*40%*O8</f>
+        <f t="shared" ref="U8:U15" si="0">I8*K8*40%*O8</f>
         <v>0</v>
       </c>
       <c r="V8" s="15">
-        <f t="shared" ref="V8:V15" si="2">IF(P8&gt;=6750,(I8*K8*40%),0)</f>
+        <f t="shared" ref="V8:V15" si="1">IF(P8&gt;=6750,(I8*K8*40%),0)</f>
         <v>0</v>
       </c>
       <c r="W8" s="15">
-        <f t="shared" ref="W8:W15" si="3">IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f t="shared" ref="W8:W15" si="2">IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>0</v>
       </c>
       <c r="X8" s="15">
-        <f>ROUND(SUM(U8:W8),0)</f>
+        <f>ROUND(SUM(U8:W8)*20%,0)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="15">
-        <f t="shared" ref="Y8:Y15" si="4">I8*L8</f>
+        <f t="shared" ref="Y8:Y15" si="3">I8*L8</f>
         <v>0</v>
       </c>
       <c r="Z8" s="15">
-        <f>ROUND(Y8,0)</f>
+        <f>ROUND(Y8*20%,0)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="15">
-        <f t="shared" ref="AA8:AA15" si="5">I8*M8</f>
+        <f t="shared" ref="AA8:AA15" si="4">I8*M8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="15">
@@ -19877,39 +19877,39 @@
       <c r="Q9" s="106"/>
       <c r="R9" s="68"/>
       <c r="S9" s="15">
-        <f t="shared" ref="S9:S15" si="6">I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="100">
+        <f t="shared" ref="S9:S15" si="5">I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" ref="T8:T15" si="6">ROUND(SUM(S9:S9)*20%,)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U9" s="13">
+      <c r="V9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="13">
+      <c r="W9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W9" s="15">
+      <c r="X9" s="15">
+        <f t="shared" ref="X9:X15" si="7">ROUND(SUM(U9:W9)*20%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="15">
-        <f t="shared" ref="X9:X15" si="7">ROUND(SUM(U9:W9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="13">
+      <c r="Z9" s="15">
+        <f t="shared" ref="Z9:Z15" si="8">ROUND(Y9*20%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="15">
-        <f t="shared" ref="Z9:Z15" si="8">ROUND(Y9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="13">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB9" s="15">
@@ -19973,23 +19973,23 @@
       <c r="Q10" s="106"/>
       <c r="R10" s="68"/>
       <c r="S10" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T10" s="100">
+      <c r="U10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="15">
+      <c r="V10" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="15">
+      <c r="W10" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="15">
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z10" s="15">
@@ -20005,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -20069,23 +20069,23 @@
       <c r="Q11" s="106"/>
       <c r="R11" s="68"/>
       <c r="S11" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T11" s="100">
+      <c r="U11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="15">
+      <c r="V11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="15">
+      <c r="W11" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="15">
@@ -20093,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z11" s="15">
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB11" s="15">
@@ -20165,23 +20165,23 @@
       <c r="Q12" s="106"/>
       <c r="R12" s="68"/>
       <c r="S12" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T12" s="100">
+      <c r="U12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="15">
+      <c r="V12" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="15">
+      <c r="W12" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="15">
@@ -20189,7 +20189,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z12" s="15">
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB12" s="15">
@@ -20261,23 +20261,23 @@
       <c r="Q13" s="106"/>
       <c r="R13" s="68"/>
       <c r="S13" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T13" s="100">
+      <c r="U13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="15">
+      <c r="V13" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="15">
+      <c r="W13" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13" s="15">
@@ -20285,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13" s="15">
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB13" s="15">
@@ -20357,23 +20357,23 @@
       <c r="Q14" s="106"/>
       <c r="R14" s="68"/>
       <c r="S14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T14" s="100">
+      <c r="U14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U14" s="15">
+      <c r="V14" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="15">
+      <c r="W14" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="15">
@@ -20381,7 +20381,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14" s="15">
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB14" s="15">
@@ -20453,23 +20453,23 @@
       <c r="Q15" s="106"/>
       <c r="R15" s="68"/>
       <c r="S15" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T15" s="100">
+      <c r="U15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="15">
+      <c r="V15" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V15" s="15">
+      <c r="W15" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15" s="15">
@@ -20477,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15" s="15">
@@ -20485,7 +20485,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB15" s="15">
@@ -21470,30 +21470,16 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="AE27:AJ27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="S21:W22"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="AE26:AJ26"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A2:AL2"/>
     <mergeCell ref="A3:AL3"/>
@@ -21510,16 +21496,30 @@
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="AH5:AH7"/>
     <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="AE27:AJ27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="S21:W22"/>
-    <mergeCell ref="AE21:AJ21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="AE26:AJ26"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/testing.xlsx
+++ b/public/excel/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/var/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52357F5E-2204-A447-AFBC-86FA931BDE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC2C10-FD0A-3B45-A2CB-9E85385596BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1440,6 +1440,84 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,12 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,87 +1569,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1589,6 +1580,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1966,119 +1966,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
+      <c r="A1" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
       <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2088,180 +2088,180 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="122" t="s">
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="135" t="s">
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="131" t="s">
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="AE5" s="131" t="s">
+      <c r="AE5" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="AF5" s="144" t="s">
+      <c r="AF5" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="140" t="s">
+      <c r="AG5" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="140" t="s">
+      <c r="AH5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="140" t="s">
+      <c r="AI5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="137" t="s">
+      <c r="AJ5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="139" t="s">
+      <c r="AK5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="139"/>
+      <c r="AL5" s="109"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="122" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="K6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="135" t="s">
+      <c r="N6" s="133"/>
+      <c r="O6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="135" t="s">
+      <c r="P6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="135" t="s">
+      <c r="Q6" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="136"/>
-      <c r="S6" s="150" t="s">
+      <c r="R6" s="115"/>
+      <c r="S6" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="137" t="s">
+      <c r="T6" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="147" t="s">
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="148" t="s">
+      <c r="Y6" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="148" t="s">
+      <c r="Z6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="149" t="s">
+      <c r="AA6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="149" t="s">
+      <c r="AB6" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="134" t="s">
+      <c r="AC6" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="139"/>
-      <c r="AL6" s="139"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="109"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="137"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="113"/>
       <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2271,21 +2271,21 @@
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="134"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="141"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="139"/>
-      <c r="AL7" s="139"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="109"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -16842,35 +16842,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AK5:AL7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S165:W165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="S164:W164"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:AI2"/>
     <mergeCell ref="A3:AI3"/>
@@ -16887,6 +16858,35 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="S5:AC5"/>
+    <mergeCell ref="S165:W165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="S164:W164"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="AK5:AL7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16898,7 +16898,7 @@
   <dimension ref="A1:AL59"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16935,305 +16935,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
       <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="122" t="s">
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="126"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="131" t="s">
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="AE5" s="131" t="s">
+      <c r="AE5" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="AF5" s="144" t="s">
+      <c r="AF5" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="140" t="s">
+      <c r="AG5" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="140" t="s">
+      <c r="AH5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="140" t="s">
+      <c r="AI5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="137" t="s">
+      <c r="AJ5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="155" t="s">
+      <c r="AK5" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="156"/>
+      <c r="AL5" s="153"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="122" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="K6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="135" t="s">
+      <c r="N6" s="133"/>
+      <c r="O6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="135" t="s">
+      <c r="P6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="135" t="s">
+      <c r="Q6" s="114" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="153" t="s">
+      <c r="S6" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="137" t="s">
+      <c r="T6" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="147" t="s">
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="148" t="s">
+      <c r="Y6" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="148" t="s">
+      <c r="Z6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="149" t="s">
+      <c r="AA6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="149" t="s">
+      <c r="AB6" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="134" t="s">
+      <c r="AC6" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="158"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="154"/>
+      <c r="AL6" s="155"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
       <c r="R7" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="154"/>
-      <c r="T7" s="137"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="113"/>
       <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
@@ -17243,21 +17243,21 @@
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="134"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="141"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="158"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="154"/>
+      <c r="AL7" s="155"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -18667,11 +18667,11 @@
       <c r="P25" s="44"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="152"/>
-      <c r="W25" s="152"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -19331,6 +19331,34 @@
     <filterColumn colId="33" showButton="0"/>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="S5:AC5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="AK5:AL7"/>
     <mergeCell ref="A1:AI1"/>
@@ -19347,34 +19375,6 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:N7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="S5:AC5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19386,7 +19386,7 @@
   <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19424,312 +19424,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="109"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="135"/>
       <c r="AM1" s="81"/>
     </row>
     <row r="2" spans="1:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
       <c r="AM2" s="81"/>
     </row>
     <row r="3" spans="1:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="110"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
       <c r="AM3" s="82"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="122" t="s">
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="126"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="131" t="s">
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="AE5" s="131" t="s">
+      <c r="AE5" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="AF5" s="144" t="s">
+      <c r="AF5" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="140" t="s">
+      <c r="AG5" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="140" t="s">
+      <c r="AH5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="140" t="s">
+      <c r="AI5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="137" t="s">
+      <c r="AJ5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="155" t="s">
+      <c r="AK5" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="156"/>
+      <c r="AL5" s="153"/>
       <c r="AM5" s="99"/>
     </row>
     <row r="6" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="122" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="K6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="135" t="s">
+      <c r="N6" s="133"/>
+      <c r="O6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="135" t="s">
+      <c r="P6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="135" t="s">
+      <c r="Q6" s="114" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="153" t="s">
+      <c r="S6" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="137" t="s">
+      <c r="T6" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="147" t="s">
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="148" t="s">
+      <c r="Y6" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="148" t="s">
+      <c r="Z6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="149" t="s">
+      <c r="AA6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="149" t="s">
+      <c r="AB6" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="134" t="s">
+      <c r="AC6" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="158"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="154"/>
+      <c r="AL6" s="155"/>
       <c r="AM6" s="99"/>
     </row>
     <row r="7" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
       <c r="R7" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="154"/>
-      <c r="T7" s="137"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="113"/>
       <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
@@ -19739,21 +19739,21 @@
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="134"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="141"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="158"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="154"/>
+      <c r="AL7" s="155"/>
       <c r="AM7" s="99"/>
     </row>
     <row r="8" spans="1:39" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" ref="T8:T15" si="6">ROUND(SUM(S9:S9)*20%,)</f>
+        <f t="shared" ref="T9:T15" si="6">ROUND(SUM(S9:S9)*20%,)</f>
         <v>0</v>
       </c>
       <c r="U9" s="15">
@@ -21470,16 +21470,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="AE27:AJ27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="S21:W22"/>
-    <mergeCell ref="AE21:AJ21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="AE26:AJ26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A2:AL2"/>
     <mergeCell ref="A3:AL3"/>
@@ -21496,30 +21510,16 @@
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="AH5:AH7"/>
     <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="AE27:AJ27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="S21:W22"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="AE26:AJ26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
